--- a/Source/Template.xlsx
+++ b/Source/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsp80\Documents\FIN 450\Recital Automation 1\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsp80\Documents\FIN 450\Recital-Automation\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854802D4-13D6-498D-AC24-7BA6946993F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305EFC5E-16FA-45D3-BFF9-7FB2907327EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master_Input" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Teacher:</t>
   </si>
@@ -72,15 +72,6 @@
   </si>
   <si>
     <t>PK</t>
-  </si>
-  <si>
-    <t>Teacher_Name</t>
-  </si>
-  <si>
-    <t>filled_at</t>
-  </si>
-  <si>
-    <t>email</t>
   </si>
   <si>
     <t xml:space="preserve">First Name: </t>
@@ -116,9 +107,6 @@
     <t xml:space="preserve">Song3 Composer/Arr.: </t>
   </si>
   <si>
-    <t>Program_Entry</t>
-  </si>
-  <si>
     <t>Time Slot</t>
   </si>
   <si>
@@ -130,6 +118,33 @@
   <si>
     <t>Order (Decimals Allowed):</t>
   </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>Teacher_Name</t>
+  </si>
+  <si>
+    <t>filled_at</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Comment / Award: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song1 Staging/Instruments: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song2 Staging/Instruments: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song3 Staging/Instruments: </t>
+  </si>
+  <si>
+    <t>Program_Entry</t>
+  </si>
 </sst>
 </file>
 
@@ -138,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -153,6 +168,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -235,21 +256,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -301,50 +315,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top style="thin">
+      <right style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF66FFFF"/>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FFCCECFF"/>
-      <color rgb="FFF7F3AD"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -673,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,82 +708,95 @@
     <col min="13" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="22.85546875" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="121" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAA4667-A991-4125-A110-B0DDEF9D6A72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
@@ -782,7 +807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -820,37 +845,38 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB5D88F-F905-4804-A404-AAAC166FF9CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C496" sqref="C496"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="121" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>29</v>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -862,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -878,11 +904,11 @@
         <v/>
       </c>
       <c r="E2" t="str">
-        <f>IF(ISBLANK(Master_Input!P2),"",Master_Input!P2)</f>
+        <f>IF(ISBLANK(Master_Input!T2),"",Master_Input!T2)</f>
         <v/>
       </c>
       <c r="F2">
-        <f>_xlfn.NUMBERVALUE(Master_Input!H2)+_xlfn.NUMBERVALUE(Master_Input!K2)+_xlfn.NUMBERVALUE(Master_Input!N2)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I2)+_xlfn.NUMBERVALUE(Master_Input!M2)+_xlfn.NUMBERVALUE(Master_Input!Q2)</f>
         <v>0</v>
       </c>
       <c r="G2" t="str">
@@ -900,11 +926,11 @@
         <v/>
       </c>
       <c r="E3" t="str">
-        <f>IF(ISBLANK(Master_Input!P3),"",Master_Input!P3)</f>
+        <f>IF(ISBLANK(Master_Input!T3),"",Master_Input!T3)</f>
         <v/>
       </c>
       <c r="F3">
-        <f>_xlfn.NUMBERVALUE(Master_Input!H3)+_xlfn.NUMBERVALUE(Master_Input!K3)+_xlfn.NUMBERVALUE(Master_Input!N3)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I3)+_xlfn.NUMBERVALUE(Master_Input!M3)+_xlfn.NUMBERVALUE(Master_Input!Q3)</f>
         <v>0</v>
       </c>
       <c r="G3" t="str">
@@ -922,11 +948,11 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <f>IF(ISBLANK(Master_Input!P4),"",Master_Input!P4)</f>
+        <f>IF(ISBLANK(Master_Input!T4),"",Master_Input!T4)</f>
         <v/>
       </c>
       <c r="F4">
-        <f>_xlfn.NUMBERVALUE(Master_Input!H4)+_xlfn.NUMBERVALUE(Master_Input!K4)+_xlfn.NUMBERVALUE(Master_Input!N4)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I4)+_xlfn.NUMBERVALUE(Master_Input!M4)+_xlfn.NUMBERVALUE(Master_Input!Q4)</f>
         <v>0</v>
       </c>
       <c r="G4" t="str">
@@ -944,11 +970,11 @@
         <v/>
       </c>
       <c r="E5" t="str">
-        <f>IF(ISBLANK(Master_Input!P5),"",Master_Input!P5)</f>
+        <f>IF(ISBLANK(Master_Input!T5),"",Master_Input!T5)</f>
         <v/>
       </c>
       <c r="F5">
-        <f>SUM(Master_Input!H5,Master_Input!K5,Master_Input!N5)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I5)+_xlfn.NUMBERVALUE(Master_Input!M5)+_xlfn.NUMBERVALUE(Master_Input!Q5)</f>
         <v>0</v>
       </c>
       <c r="G5" t="str">
@@ -966,11 +992,11 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <f>IF(ISBLANK(Master_Input!P6),"",Master_Input!P6)</f>
+        <f>IF(ISBLANK(Master_Input!T6),"",Master_Input!T6)</f>
         <v/>
       </c>
       <c r="F6">
-        <f>SUM(Master_Input!H6,Master_Input!K6,Master_Input!N6)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I6)+_xlfn.NUMBERVALUE(Master_Input!M6)+_xlfn.NUMBERVALUE(Master_Input!Q6)</f>
         <v>0</v>
       </c>
       <c r="G6" t="str">
@@ -988,11 +1014,11 @@
         <v/>
       </c>
       <c r="E7" t="str">
-        <f>IF(ISBLANK(Master_Input!P7),"",Master_Input!P7)</f>
+        <f>IF(ISBLANK(Master_Input!T7),"",Master_Input!T7)</f>
         <v/>
       </c>
       <c r="F7">
-        <f>SUM(Master_Input!H7,Master_Input!K7,Master_Input!N7)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I7)+_xlfn.NUMBERVALUE(Master_Input!M7)+_xlfn.NUMBERVALUE(Master_Input!Q7)</f>
         <v>0</v>
       </c>
       <c r="G7" t="str">
@@ -1010,11 +1036,11 @@
         <v/>
       </c>
       <c r="E8" t="str">
-        <f>IF(ISBLANK(Master_Input!P8),"",Master_Input!P8)</f>
+        <f>IF(ISBLANK(Master_Input!T8),"",Master_Input!T8)</f>
         <v/>
       </c>
       <c r="F8">
-        <f>SUM(Master_Input!H8,Master_Input!K8,Master_Input!N8)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I8)+_xlfn.NUMBERVALUE(Master_Input!M8)+_xlfn.NUMBERVALUE(Master_Input!Q8)</f>
         <v>0</v>
       </c>
       <c r="G8" t="str">
@@ -1032,11 +1058,11 @@
         <v/>
       </c>
       <c r="E9" t="str">
-        <f>IF(ISBLANK(Master_Input!P9),"",Master_Input!P9)</f>
+        <f>IF(ISBLANK(Master_Input!T9),"",Master_Input!T9)</f>
         <v/>
       </c>
       <c r="F9">
-        <f>SUM(Master_Input!H9,Master_Input!K9,Master_Input!N9)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I9)+_xlfn.NUMBERVALUE(Master_Input!M9)+_xlfn.NUMBERVALUE(Master_Input!Q9)</f>
         <v>0</v>
       </c>
       <c r="G9" t="str">
@@ -1054,11 +1080,11 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <f>IF(ISBLANK(Master_Input!P10),"",Master_Input!P10)</f>
+        <f>IF(ISBLANK(Master_Input!T10),"",Master_Input!T10)</f>
         <v/>
       </c>
       <c r="F10">
-        <f>SUM(Master_Input!H10,Master_Input!K10,Master_Input!N10)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I10)+_xlfn.NUMBERVALUE(Master_Input!M10)+_xlfn.NUMBERVALUE(Master_Input!Q10)</f>
         <v>0</v>
       </c>
       <c r="G10" t="str">
@@ -1076,11 +1102,11 @@
         <v/>
       </c>
       <c r="E11" t="str">
-        <f>IF(ISBLANK(Master_Input!P11),"",Master_Input!P11)</f>
+        <f>IF(ISBLANK(Master_Input!T11),"",Master_Input!T11)</f>
         <v/>
       </c>
       <c r="F11">
-        <f>SUM(Master_Input!H11,Master_Input!K11,Master_Input!N11)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I11)+_xlfn.NUMBERVALUE(Master_Input!M11)+_xlfn.NUMBERVALUE(Master_Input!Q11)</f>
         <v>0</v>
       </c>
       <c r="G11" t="str">
@@ -1098,11 +1124,11 @@
         <v/>
       </c>
       <c r="E12" t="str">
-        <f>IF(ISBLANK(Master_Input!P12),"",Master_Input!P12)</f>
+        <f>IF(ISBLANK(Master_Input!T12),"",Master_Input!T12)</f>
         <v/>
       </c>
       <c r="F12">
-        <f>SUM(Master_Input!H12,Master_Input!K12,Master_Input!N12)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I12)+_xlfn.NUMBERVALUE(Master_Input!M12)+_xlfn.NUMBERVALUE(Master_Input!Q12)</f>
         <v>0</v>
       </c>
       <c r="G12" t="str">
@@ -1120,11 +1146,11 @@
         <v/>
       </c>
       <c r="E13" t="str">
-        <f>IF(ISBLANK(Master_Input!P13),"",Master_Input!P13)</f>
+        <f>IF(ISBLANK(Master_Input!T13),"",Master_Input!T13)</f>
         <v/>
       </c>
       <c r="F13">
-        <f>SUM(Master_Input!H13,Master_Input!K13,Master_Input!N13)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I13)+_xlfn.NUMBERVALUE(Master_Input!M13)+_xlfn.NUMBERVALUE(Master_Input!Q13)</f>
         <v>0</v>
       </c>
       <c r="G13" t="str">
@@ -1142,11 +1168,11 @@
         <v/>
       </c>
       <c r="E14" t="str">
-        <f>IF(ISBLANK(Master_Input!P14),"",Master_Input!P14)</f>
+        <f>IF(ISBLANK(Master_Input!T14),"",Master_Input!T14)</f>
         <v/>
       </c>
       <c r="F14">
-        <f>SUM(Master_Input!H14,Master_Input!K14,Master_Input!N14)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I14)+_xlfn.NUMBERVALUE(Master_Input!M14)+_xlfn.NUMBERVALUE(Master_Input!Q14)</f>
         <v>0</v>
       </c>
       <c r="G14" t="str">
@@ -1160,11 +1186,11 @@
         <v/>
       </c>
       <c r="E15" t="str">
-        <f>IF(ISBLANK(Master_Input!P15),"",Master_Input!P15)</f>
+        <f>IF(ISBLANK(Master_Input!T15),"",Master_Input!T15)</f>
         <v/>
       </c>
       <c r="F15">
-        <f>SUM(Master_Input!H15,Master_Input!K15,Master_Input!N15)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I15)+_xlfn.NUMBERVALUE(Master_Input!M15)+_xlfn.NUMBERVALUE(Master_Input!Q15)</f>
         <v>0</v>
       </c>
       <c r="G15" t="str">
@@ -1182,11 +1208,11 @@
         <v/>
       </c>
       <c r="E16" t="str">
-        <f>IF(ISBLANK(Master_Input!P16),"",Master_Input!P16)</f>
+        <f>IF(ISBLANK(Master_Input!T16),"",Master_Input!T16)</f>
         <v/>
       </c>
       <c r="F16">
-        <f>SUM(Master_Input!H16,Master_Input!K16,Master_Input!N16)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I16)+_xlfn.NUMBERVALUE(Master_Input!M16)+_xlfn.NUMBERVALUE(Master_Input!Q16)</f>
         <v>0</v>
       </c>
       <c r="G16" t="str">
@@ -1204,11 +1230,11 @@
         <v/>
       </c>
       <c r="E17" t="str">
-        <f>IF(ISBLANK(Master_Input!P17),"",Master_Input!P17)</f>
+        <f>IF(ISBLANK(Master_Input!T17),"",Master_Input!T17)</f>
         <v/>
       </c>
       <c r="F17">
-        <f>SUM(Master_Input!H17,Master_Input!K17,Master_Input!N17)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I17)+_xlfn.NUMBERVALUE(Master_Input!M17)+_xlfn.NUMBERVALUE(Master_Input!Q17)</f>
         <v>0</v>
       </c>
       <c r="G17" t="str">
@@ -1226,11 +1252,11 @@
         <v/>
       </c>
       <c r="E18" t="str">
-        <f>IF(ISBLANK(Master_Input!P18),"",Master_Input!P18)</f>
+        <f>IF(ISBLANK(Master_Input!T18),"",Master_Input!T18)</f>
         <v/>
       </c>
       <c r="F18">
-        <f>SUM(Master_Input!H18,Master_Input!K18,Master_Input!N18)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I18)+_xlfn.NUMBERVALUE(Master_Input!M18)+_xlfn.NUMBERVALUE(Master_Input!Q18)</f>
         <v>0</v>
       </c>
       <c r="G18" t="str">
@@ -1248,11 +1274,11 @@
         <v/>
       </c>
       <c r="E19" t="str">
-        <f>IF(ISBLANK(Master_Input!P19),"",Master_Input!P19)</f>
+        <f>IF(ISBLANK(Master_Input!T19),"",Master_Input!T19)</f>
         <v/>
       </c>
       <c r="F19">
-        <f>SUM(Master_Input!H19,Master_Input!K19,Master_Input!N19)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I19)+_xlfn.NUMBERVALUE(Master_Input!M19)+_xlfn.NUMBERVALUE(Master_Input!Q19)</f>
         <v>0</v>
       </c>
       <c r="G19" t="str">
@@ -1270,11 +1296,11 @@
         <v/>
       </c>
       <c r="E20" t="str">
-        <f>IF(ISBLANK(Master_Input!P20),"",Master_Input!P20)</f>
+        <f>IF(ISBLANK(Master_Input!T20),"",Master_Input!T20)</f>
         <v/>
       </c>
       <c r="F20">
-        <f>SUM(Master_Input!H20,Master_Input!K20,Master_Input!N20)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I20)+_xlfn.NUMBERVALUE(Master_Input!M20)+_xlfn.NUMBERVALUE(Master_Input!Q20)</f>
         <v>0</v>
       </c>
       <c r="G20" t="str">
@@ -1292,11 +1318,11 @@
         <v/>
       </c>
       <c r="E21" t="str">
-        <f>IF(ISBLANK(Master_Input!P21),"",Master_Input!P21)</f>
+        <f>IF(ISBLANK(Master_Input!T21),"",Master_Input!T21)</f>
         <v/>
       </c>
       <c r="F21">
-        <f>SUM(Master_Input!H21,Master_Input!K21,Master_Input!N21)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I21)+_xlfn.NUMBERVALUE(Master_Input!M21)+_xlfn.NUMBERVALUE(Master_Input!Q21)</f>
         <v>0</v>
       </c>
       <c r="G21" t="str">
@@ -1314,11 +1340,11 @@
         <v/>
       </c>
       <c r="E22" t="str">
-        <f>IF(ISBLANK(Master_Input!P22),"",Master_Input!P22)</f>
+        <f>IF(ISBLANK(Master_Input!T22),"",Master_Input!T22)</f>
         <v/>
       </c>
       <c r="F22">
-        <f>SUM(Master_Input!H22,Master_Input!K22,Master_Input!N22)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I22)+_xlfn.NUMBERVALUE(Master_Input!M22)+_xlfn.NUMBERVALUE(Master_Input!Q22)</f>
         <v>0</v>
       </c>
       <c r="G22" t="str">
@@ -1336,11 +1362,11 @@
         <v/>
       </c>
       <c r="E23" t="str">
-        <f>IF(ISBLANK(Master_Input!P23),"",Master_Input!P23)</f>
+        <f>IF(ISBLANK(Master_Input!T23),"",Master_Input!T23)</f>
         <v/>
       </c>
       <c r="F23">
-        <f>SUM(Master_Input!H23,Master_Input!K23,Master_Input!N23)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I23)+_xlfn.NUMBERVALUE(Master_Input!M23)+_xlfn.NUMBERVALUE(Master_Input!Q23)</f>
         <v>0</v>
       </c>
       <c r="G23" t="str">
@@ -1358,11 +1384,11 @@
         <v/>
       </c>
       <c r="E24" t="str">
-        <f>IF(ISBLANK(Master_Input!P24),"",Master_Input!P24)</f>
+        <f>IF(ISBLANK(Master_Input!T24),"",Master_Input!T24)</f>
         <v/>
       </c>
       <c r="F24">
-        <f>SUM(Master_Input!H24,Master_Input!K24,Master_Input!N24)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I24)+_xlfn.NUMBERVALUE(Master_Input!M24)+_xlfn.NUMBERVALUE(Master_Input!Q24)</f>
         <v>0</v>
       </c>
       <c r="G24" t="str">
@@ -1380,11 +1406,11 @@
         <v/>
       </c>
       <c r="E25" t="str">
-        <f>IF(ISBLANK(Master_Input!P25),"",Master_Input!P25)</f>
+        <f>IF(ISBLANK(Master_Input!T25),"",Master_Input!T25)</f>
         <v/>
       </c>
       <c r="F25">
-        <f>SUM(Master_Input!H25,Master_Input!K25,Master_Input!N25)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I25)+_xlfn.NUMBERVALUE(Master_Input!M25)+_xlfn.NUMBERVALUE(Master_Input!Q25)</f>
         <v>0</v>
       </c>
       <c r="G25" t="str">
@@ -1402,11 +1428,11 @@
         <v/>
       </c>
       <c r="E26" t="str">
-        <f>IF(ISBLANK(Master_Input!P26),"",Master_Input!P26)</f>
+        <f>IF(ISBLANK(Master_Input!T26),"",Master_Input!T26)</f>
         <v/>
       </c>
       <c r="F26">
-        <f>SUM(Master_Input!H26,Master_Input!K26,Master_Input!N26)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I26)+_xlfn.NUMBERVALUE(Master_Input!M26)+_xlfn.NUMBERVALUE(Master_Input!Q26)</f>
         <v>0</v>
       </c>
       <c r="G26" t="str">
@@ -1424,11 +1450,11 @@
         <v/>
       </c>
       <c r="E27" t="str">
-        <f>IF(ISBLANK(Master_Input!P27),"",Master_Input!P27)</f>
+        <f>IF(ISBLANK(Master_Input!T27),"",Master_Input!T27)</f>
         <v/>
       </c>
       <c r="F27">
-        <f>SUM(Master_Input!H27,Master_Input!K27,Master_Input!N27)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I27)+_xlfn.NUMBERVALUE(Master_Input!M27)+_xlfn.NUMBERVALUE(Master_Input!Q27)</f>
         <v>0</v>
       </c>
       <c r="G27" t="str">
@@ -1446,11 +1472,11 @@
         <v/>
       </c>
       <c r="E28" t="str">
-        <f>IF(ISBLANK(Master_Input!P28),"",Master_Input!P28)</f>
+        <f>IF(ISBLANK(Master_Input!T28),"",Master_Input!T28)</f>
         <v/>
       </c>
       <c r="F28">
-        <f>SUM(Master_Input!H28,Master_Input!K28,Master_Input!N28)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I28)+_xlfn.NUMBERVALUE(Master_Input!M28)+_xlfn.NUMBERVALUE(Master_Input!Q28)</f>
         <v>0</v>
       </c>
       <c r="G28" t="str">
@@ -1468,11 +1494,11 @@
         <v/>
       </c>
       <c r="E29" t="str">
-        <f>IF(ISBLANK(Master_Input!P29),"",Master_Input!P29)</f>
+        <f>IF(ISBLANK(Master_Input!T29),"",Master_Input!T29)</f>
         <v/>
       </c>
       <c r="F29">
-        <f>SUM(Master_Input!H29,Master_Input!K29,Master_Input!N29)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I29)+_xlfn.NUMBERVALUE(Master_Input!M29)+_xlfn.NUMBERVALUE(Master_Input!Q29)</f>
         <v>0</v>
       </c>
       <c r="G29" t="str">
@@ -1490,11 +1516,11 @@
         <v/>
       </c>
       <c r="E30" t="str">
-        <f>IF(ISBLANK(Master_Input!P30),"",Master_Input!P30)</f>
+        <f>IF(ISBLANK(Master_Input!T30),"",Master_Input!T30)</f>
         <v/>
       </c>
       <c r="F30">
-        <f>SUM(Master_Input!H30,Master_Input!K30,Master_Input!N30)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I30)+_xlfn.NUMBERVALUE(Master_Input!M30)+_xlfn.NUMBERVALUE(Master_Input!Q30)</f>
         <v>0</v>
       </c>
       <c r="G30" t="str">
@@ -1512,11 +1538,11 @@
         <v/>
       </c>
       <c r="E31" t="str">
-        <f>IF(ISBLANK(Master_Input!P31),"",Master_Input!P31)</f>
+        <f>IF(ISBLANK(Master_Input!T31),"",Master_Input!T31)</f>
         <v/>
       </c>
       <c r="F31">
-        <f>SUM(Master_Input!H31,Master_Input!K31,Master_Input!N31)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I31)+_xlfn.NUMBERVALUE(Master_Input!M31)+_xlfn.NUMBERVALUE(Master_Input!Q31)</f>
         <v>0</v>
       </c>
       <c r="G31" t="str">
@@ -1534,11 +1560,11 @@
         <v/>
       </c>
       <c r="E32" t="str">
-        <f>IF(ISBLANK(Master_Input!P32),"",Master_Input!P32)</f>
+        <f>IF(ISBLANK(Master_Input!T32),"",Master_Input!T32)</f>
         <v/>
       </c>
       <c r="F32">
-        <f>SUM(Master_Input!H32,Master_Input!K32,Master_Input!N32)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I32)+_xlfn.NUMBERVALUE(Master_Input!M32)+_xlfn.NUMBERVALUE(Master_Input!Q32)</f>
         <v>0</v>
       </c>
       <c r="G32" t="str">
@@ -1556,11 +1582,11 @@
         <v/>
       </c>
       <c r="E33" t="str">
-        <f>IF(ISBLANK(Master_Input!P33),"",Master_Input!P33)</f>
+        <f>IF(ISBLANK(Master_Input!T33),"",Master_Input!T33)</f>
         <v/>
       </c>
       <c r="F33">
-        <f>SUM(Master_Input!H33,Master_Input!K33,Master_Input!N33)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I33)+_xlfn.NUMBERVALUE(Master_Input!M33)+_xlfn.NUMBERVALUE(Master_Input!Q33)</f>
         <v>0</v>
       </c>
       <c r="G33" t="str">
@@ -1578,11 +1604,11 @@
         <v/>
       </c>
       <c r="E34" t="str">
-        <f>IF(ISBLANK(Master_Input!P34),"",Master_Input!P34)</f>
+        <f>IF(ISBLANK(Master_Input!T34),"",Master_Input!T34)</f>
         <v/>
       </c>
       <c r="F34">
-        <f>SUM(Master_Input!H34,Master_Input!K34,Master_Input!N34)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I34)+_xlfn.NUMBERVALUE(Master_Input!M34)+_xlfn.NUMBERVALUE(Master_Input!Q34)</f>
         <v>0</v>
       </c>
       <c r="G34" t="str">
@@ -1600,11 +1626,11 @@
         <v/>
       </c>
       <c r="E35" t="str">
-        <f>IF(ISBLANK(Master_Input!P35),"",Master_Input!P35)</f>
+        <f>IF(ISBLANK(Master_Input!T35),"",Master_Input!T35)</f>
         <v/>
       </c>
       <c r="F35">
-        <f>SUM(Master_Input!H35,Master_Input!K35,Master_Input!N35)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I35)+_xlfn.NUMBERVALUE(Master_Input!M35)+_xlfn.NUMBERVALUE(Master_Input!Q35)</f>
         <v>0</v>
       </c>
       <c r="G35" t="str">
@@ -1622,11 +1648,11 @@
         <v/>
       </c>
       <c r="E36" t="str">
-        <f>IF(ISBLANK(Master_Input!P36),"",Master_Input!P36)</f>
+        <f>IF(ISBLANK(Master_Input!T36),"",Master_Input!T36)</f>
         <v/>
       </c>
       <c r="F36">
-        <f>SUM(Master_Input!H36,Master_Input!K36,Master_Input!N36)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I36)+_xlfn.NUMBERVALUE(Master_Input!M36)+_xlfn.NUMBERVALUE(Master_Input!Q36)</f>
         <v>0</v>
       </c>
       <c r="G36" t="str">
@@ -1644,11 +1670,11 @@
         <v/>
       </c>
       <c r="E37" t="str">
-        <f>IF(ISBLANK(Master_Input!P37),"",Master_Input!P37)</f>
+        <f>IF(ISBLANK(Master_Input!T37),"",Master_Input!T37)</f>
         <v/>
       </c>
       <c r="F37">
-        <f>SUM(Master_Input!H37,Master_Input!K37,Master_Input!N37)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I37)+_xlfn.NUMBERVALUE(Master_Input!M37)+_xlfn.NUMBERVALUE(Master_Input!Q37)</f>
         <v>0</v>
       </c>
       <c r="G37" t="str">
@@ -1666,11 +1692,11 @@
         <v/>
       </c>
       <c r="E38" t="str">
-        <f>IF(ISBLANK(Master_Input!P38),"",Master_Input!P38)</f>
+        <f>IF(ISBLANK(Master_Input!T38),"",Master_Input!T38)</f>
         <v/>
       </c>
       <c r="F38">
-        <f>SUM(Master_Input!H38,Master_Input!K38,Master_Input!N38)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I38)+_xlfn.NUMBERVALUE(Master_Input!M38)+_xlfn.NUMBERVALUE(Master_Input!Q38)</f>
         <v>0</v>
       </c>
       <c r="G38" t="str">
@@ -1688,11 +1714,11 @@
         <v/>
       </c>
       <c r="E39" t="str">
-        <f>IF(ISBLANK(Master_Input!P39),"",Master_Input!P39)</f>
+        <f>IF(ISBLANK(Master_Input!T39),"",Master_Input!T39)</f>
         <v/>
       </c>
       <c r="F39">
-        <f>SUM(Master_Input!H39,Master_Input!K39,Master_Input!N39)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I39)+_xlfn.NUMBERVALUE(Master_Input!M39)+_xlfn.NUMBERVALUE(Master_Input!Q39)</f>
         <v>0</v>
       </c>
       <c r="G39" t="str">
@@ -1710,11 +1736,11 @@
         <v/>
       </c>
       <c r="E40" t="str">
-        <f>IF(ISBLANK(Master_Input!P40),"",Master_Input!P40)</f>
+        <f>IF(ISBLANK(Master_Input!T40),"",Master_Input!T40)</f>
         <v/>
       </c>
       <c r="F40">
-        <f>SUM(Master_Input!H40,Master_Input!K40,Master_Input!N40)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I40)+_xlfn.NUMBERVALUE(Master_Input!M40)+_xlfn.NUMBERVALUE(Master_Input!Q40)</f>
         <v>0</v>
       </c>
       <c r="G40" t="str">
@@ -1732,11 +1758,11 @@
         <v/>
       </c>
       <c r="E41" t="str">
-        <f>IF(ISBLANK(Master_Input!P41),"",Master_Input!P41)</f>
+        <f>IF(ISBLANK(Master_Input!T41),"",Master_Input!T41)</f>
         <v/>
       </c>
       <c r="F41">
-        <f>SUM(Master_Input!H41,Master_Input!K41,Master_Input!N41)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I41)+_xlfn.NUMBERVALUE(Master_Input!M41)+_xlfn.NUMBERVALUE(Master_Input!Q41)</f>
         <v>0</v>
       </c>
       <c r="G41" t="str">
@@ -1754,11 +1780,11 @@
         <v/>
       </c>
       <c r="E42" t="str">
-        <f>IF(ISBLANK(Master_Input!P42),"",Master_Input!P42)</f>
+        <f>IF(ISBLANK(Master_Input!T42),"",Master_Input!T42)</f>
         <v/>
       </c>
       <c r="F42">
-        <f>SUM(Master_Input!H42,Master_Input!K42,Master_Input!N42)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I42)+_xlfn.NUMBERVALUE(Master_Input!M42)+_xlfn.NUMBERVALUE(Master_Input!Q42)</f>
         <v>0</v>
       </c>
       <c r="G42" t="str">
@@ -1776,11 +1802,11 @@
         <v/>
       </c>
       <c r="E43" t="str">
-        <f>IF(ISBLANK(Master_Input!P43),"",Master_Input!P43)</f>
+        <f>IF(ISBLANK(Master_Input!T43),"",Master_Input!T43)</f>
         <v/>
       </c>
       <c r="F43">
-        <f>SUM(Master_Input!H43,Master_Input!K43,Master_Input!N43)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I43)+_xlfn.NUMBERVALUE(Master_Input!M43)+_xlfn.NUMBERVALUE(Master_Input!Q43)</f>
         <v>0</v>
       </c>
       <c r="G43" t="str">
@@ -1798,11 +1824,11 @@
         <v/>
       </c>
       <c r="E44" t="str">
-        <f>IF(ISBLANK(Master_Input!P44),"",Master_Input!P44)</f>
+        <f>IF(ISBLANK(Master_Input!T44),"",Master_Input!T44)</f>
         <v/>
       </c>
       <c r="F44">
-        <f>SUM(Master_Input!H44,Master_Input!K44,Master_Input!N44)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I44)+_xlfn.NUMBERVALUE(Master_Input!M44)+_xlfn.NUMBERVALUE(Master_Input!Q44)</f>
         <v>0</v>
       </c>
       <c r="G44" t="str">
@@ -1820,11 +1846,11 @@
         <v/>
       </c>
       <c r="E45" t="str">
-        <f>IF(ISBLANK(Master_Input!P45),"",Master_Input!P45)</f>
+        <f>IF(ISBLANK(Master_Input!T45),"",Master_Input!T45)</f>
         <v/>
       </c>
       <c r="F45">
-        <f>SUM(Master_Input!H45,Master_Input!K45,Master_Input!N45)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I45)+_xlfn.NUMBERVALUE(Master_Input!M45)+_xlfn.NUMBERVALUE(Master_Input!Q45)</f>
         <v>0</v>
       </c>
       <c r="G45" t="str">
@@ -1842,11 +1868,11 @@
         <v/>
       </c>
       <c r="E46" t="str">
-        <f>IF(ISBLANK(Master_Input!P46),"",Master_Input!P46)</f>
+        <f>IF(ISBLANK(Master_Input!T46),"",Master_Input!T46)</f>
         <v/>
       </c>
       <c r="F46">
-        <f>SUM(Master_Input!H46,Master_Input!K46,Master_Input!N46)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I46)+_xlfn.NUMBERVALUE(Master_Input!M46)+_xlfn.NUMBERVALUE(Master_Input!Q46)</f>
         <v>0</v>
       </c>
       <c r="G46" t="str">
@@ -1864,11 +1890,11 @@
         <v/>
       </c>
       <c r="E47" t="str">
-        <f>IF(ISBLANK(Master_Input!P47),"",Master_Input!P47)</f>
+        <f>IF(ISBLANK(Master_Input!T47),"",Master_Input!T47)</f>
         <v/>
       </c>
       <c r="F47">
-        <f>SUM(Master_Input!H47,Master_Input!K47,Master_Input!N47)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I47)+_xlfn.NUMBERVALUE(Master_Input!M47)+_xlfn.NUMBERVALUE(Master_Input!Q47)</f>
         <v>0</v>
       </c>
       <c r="G47" t="str">
@@ -1886,11 +1912,11 @@
         <v/>
       </c>
       <c r="E48" t="str">
-        <f>IF(ISBLANK(Master_Input!P48),"",Master_Input!P48)</f>
+        <f>IF(ISBLANK(Master_Input!T48),"",Master_Input!T48)</f>
         <v/>
       </c>
       <c r="F48">
-        <f>SUM(Master_Input!H48,Master_Input!K48,Master_Input!N48)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I48)+_xlfn.NUMBERVALUE(Master_Input!M48)+_xlfn.NUMBERVALUE(Master_Input!Q48)</f>
         <v>0</v>
       </c>
       <c r="G48" t="str">
@@ -1908,11 +1934,11 @@
         <v/>
       </c>
       <c r="E49" t="str">
-        <f>IF(ISBLANK(Master_Input!P49),"",Master_Input!P49)</f>
+        <f>IF(ISBLANK(Master_Input!T49),"",Master_Input!T49)</f>
         <v/>
       </c>
       <c r="F49">
-        <f>SUM(Master_Input!H49,Master_Input!K49,Master_Input!N49)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I49)+_xlfn.NUMBERVALUE(Master_Input!M49)+_xlfn.NUMBERVALUE(Master_Input!Q49)</f>
         <v>0</v>
       </c>
       <c r="G49" t="str">
@@ -1930,11 +1956,11 @@
         <v/>
       </c>
       <c r="E50" t="str">
-        <f>IF(ISBLANK(Master_Input!P50),"",Master_Input!P50)</f>
+        <f>IF(ISBLANK(Master_Input!T50),"",Master_Input!T50)</f>
         <v/>
       </c>
       <c r="F50">
-        <f>SUM(Master_Input!H50,Master_Input!K50,Master_Input!N50)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I50)+_xlfn.NUMBERVALUE(Master_Input!M50)+_xlfn.NUMBERVALUE(Master_Input!Q50)</f>
         <v>0</v>
       </c>
       <c r="G50" t="str">
@@ -1952,11 +1978,11 @@
         <v/>
       </c>
       <c r="E51" t="str">
-        <f>IF(ISBLANK(Master_Input!P51),"",Master_Input!P51)</f>
+        <f>IF(ISBLANK(Master_Input!T51),"",Master_Input!T51)</f>
         <v/>
       </c>
       <c r="F51">
-        <f>SUM(Master_Input!H51,Master_Input!K51,Master_Input!N51)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I51)+_xlfn.NUMBERVALUE(Master_Input!M51)+_xlfn.NUMBERVALUE(Master_Input!Q51)</f>
         <v>0</v>
       </c>
       <c r="G51" t="str">
@@ -1974,11 +2000,11 @@
         <v/>
       </c>
       <c r="E52" t="str">
-        <f>IF(ISBLANK(Master_Input!P52),"",Master_Input!P52)</f>
+        <f>IF(ISBLANK(Master_Input!T52),"",Master_Input!T52)</f>
         <v/>
       </c>
       <c r="F52">
-        <f>SUM(Master_Input!H52,Master_Input!K52,Master_Input!N52)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I52)+_xlfn.NUMBERVALUE(Master_Input!M52)+_xlfn.NUMBERVALUE(Master_Input!Q52)</f>
         <v>0</v>
       </c>
       <c r="G52" t="str">
@@ -1996,11 +2022,11 @@
         <v/>
       </c>
       <c r="E53" t="str">
-        <f>IF(ISBLANK(Master_Input!P53),"",Master_Input!P53)</f>
+        <f>IF(ISBLANK(Master_Input!T53),"",Master_Input!T53)</f>
         <v/>
       </c>
       <c r="F53">
-        <f>SUM(Master_Input!H53,Master_Input!K53,Master_Input!N53)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I53)+_xlfn.NUMBERVALUE(Master_Input!M53)+_xlfn.NUMBERVALUE(Master_Input!Q53)</f>
         <v>0</v>
       </c>
       <c r="G53" t="str">
@@ -2018,11 +2044,11 @@
         <v/>
       </c>
       <c r="E54" t="str">
-        <f>IF(ISBLANK(Master_Input!P54),"",Master_Input!P54)</f>
+        <f>IF(ISBLANK(Master_Input!T54),"",Master_Input!T54)</f>
         <v/>
       </c>
       <c r="F54">
-        <f>SUM(Master_Input!H54,Master_Input!K54,Master_Input!N54)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I54)+_xlfn.NUMBERVALUE(Master_Input!M54)+_xlfn.NUMBERVALUE(Master_Input!Q54)</f>
         <v>0</v>
       </c>
       <c r="G54" t="str">
@@ -2040,11 +2066,11 @@
         <v/>
       </c>
       <c r="E55" t="str">
-        <f>IF(ISBLANK(Master_Input!P55),"",Master_Input!P55)</f>
+        <f>IF(ISBLANK(Master_Input!T55),"",Master_Input!T55)</f>
         <v/>
       </c>
       <c r="F55">
-        <f>SUM(Master_Input!H55,Master_Input!K55,Master_Input!N55)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I55)+_xlfn.NUMBERVALUE(Master_Input!M55)+_xlfn.NUMBERVALUE(Master_Input!Q55)</f>
         <v>0</v>
       </c>
       <c r="G55" t="str">
@@ -2062,11 +2088,11 @@
         <v/>
       </c>
       <c r="E56" t="str">
-        <f>IF(ISBLANK(Master_Input!P56),"",Master_Input!P56)</f>
+        <f>IF(ISBLANK(Master_Input!T56),"",Master_Input!T56)</f>
         <v/>
       </c>
       <c r="F56">
-        <f>SUM(Master_Input!H56,Master_Input!K56,Master_Input!N56)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I56)+_xlfn.NUMBERVALUE(Master_Input!M56)+_xlfn.NUMBERVALUE(Master_Input!Q56)</f>
         <v>0</v>
       </c>
       <c r="G56" t="str">
@@ -2084,11 +2110,11 @@
         <v/>
       </c>
       <c r="E57" t="str">
-        <f>IF(ISBLANK(Master_Input!P57),"",Master_Input!P57)</f>
+        <f>IF(ISBLANK(Master_Input!T57),"",Master_Input!T57)</f>
         <v/>
       </c>
       <c r="F57">
-        <f>SUM(Master_Input!H57,Master_Input!K57,Master_Input!N57)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I57)+_xlfn.NUMBERVALUE(Master_Input!M57)+_xlfn.NUMBERVALUE(Master_Input!Q57)</f>
         <v>0</v>
       </c>
       <c r="G57" t="str">
@@ -2106,11 +2132,11 @@
         <v/>
       </c>
       <c r="E58" t="str">
-        <f>IF(ISBLANK(Master_Input!P58),"",Master_Input!P58)</f>
+        <f>IF(ISBLANK(Master_Input!T58),"",Master_Input!T58)</f>
         <v/>
       </c>
       <c r="F58">
-        <f>SUM(Master_Input!H58,Master_Input!K58,Master_Input!N58)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I58)+_xlfn.NUMBERVALUE(Master_Input!M58)+_xlfn.NUMBERVALUE(Master_Input!Q58)</f>
         <v>0</v>
       </c>
       <c r="G58" t="str">
@@ -2128,11 +2154,11 @@
         <v/>
       </c>
       <c r="E59" t="str">
-        <f>IF(ISBLANK(Master_Input!P59),"",Master_Input!P59)</f>
+        <f>IF(ISBLANK(Master_Input!T59),"",Master_Input!T59)</f>
         <v/>
       </c>
       <c r="F59">
-        <f>SUM(Master_Input!H59,Master_Input!K59,Master_Input!N59)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I59)+_xlfn.NUMBERVALUE(Master_Input!M59)+_xlfn.NUMBERVALUE(Master_Input!Q59)</f>
         <v>0</v>
       </c>
       <c r="G59" t="str">
@@ -2150,11 +2176,11 @@
         <v/>
       </c>
       <c r="E60" t="str">
-        <f>IF(ISBLANK(Master_Input!P60),"",Master_Input!P60)</f>
+        <f>IF(ISBLANK(Master_Input!T60),"",Master_Input!T60)</f>
         <v/>
       </c>
       <c r="F60">
-        <f>SUM(Master_Input!H60,Master_Input!K60,Master_Input!N60)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I60)+_xlfn.NUMBERVALUE(Master_Input!M60)+_xlfn.NUMBERVALUE(Master_Input!Q60)</f>
         <v>0</v>
       </c>
       <c r="G60" t="str">
@@ -2172,11 +2198,11 @@
         <v/>
       </c>
       <c r="E61" t="str">
-        <f>IF(ISBLANK(Master_Input!P61),"",Master_Input!P61)</f>
+        <f>IF(ISBLANK(Master_Input!T61),"",Master_Input!T61)</f>
         <v/>
       </c>
       <c r="F61">
-        <f>SUM(Master_Input!H61,Master_Input!K61,Master_Input!N61)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I61)+_xlfn.NUMBERVALUE(Master_Input!M61)+_xlfn.NUMBERVALUE(Master_Input!Q61)</f>
         <v>0</v>
       </c>
       <c r="G61" t="str">
@@ -2194,11 +2220,11 @@
         <v/>
       </c>
       <c r="E62" t="str">
-        <f>IF(ISBLANK(Master_Input!P62),"",Master_Input!P62)</f>
+        <f>IF(ISBLANK(Master_Input!T62),"",Master_Input!T62)</f>
         <v/>
       </c>
       <c r="F62">
-        <f>SUM(Master_Input!H62,Master_Input!K62,Master_Input!N62)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I62)+_xlfn.NUMBERVALUE(Master_Input!M62)+_xlfn.NUMBERVALUE(Master_Input!Q62)</f>
         <v>0</v>
       </c>
       <c r="G62" t="str">
@@ -2216,11 +2242,11 @@
         <v/>
       </c>
       <c r="E63" t="str">
-        <f>IF(ISBLANK(Master_Input!P63),"",Master_Input!P63)</f>
+        <f>IF(ISBLANK(Master_Input!T63),"",Master_Input!T63)</f>
         <v/>
       </c>
       <c r="F63">
-        <f>SUM(Master_Input!H63,Master_Input!K63,Master_Input!N63)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I63)+_xlfn.NUMBERVALUE(Master_Input!M63)+_xlfn.NUMBERVALUE(Master_Input!Q63)</f>
         <v>0</v>
       </c>
       <c r="G63" t="str">
@@ -2238,11 +2264,11 @@
         <v/>
       </c>
       <c r="E64" t="str">
-        <f>IF(ISBLANK(Master_Input!P64),"",Master_Input!P64)</f>
+        <f>IF(ISBLANK(Master_Input!T64),"",Master_Input!T64)</f>
         <v/>
       </c>
       <c r="F64">
-        <f>SUM(Master_Input!H64,Master_Input!K64,Master_Input!N64)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I64)+_xlfn.NUMBERVALUE(Master_Input!M64)+_xlfn.NUMBERVALUE(Master_Input!Q64)</f>
         <v>0</v>
       </c>
       <c r="G64" t="str">
@@ -2260,11 +2286,11 @@
         <v/>
       </c>
       <c r="E65" t="str">
-        <f>IF(ISBLANK(Master_Input!P65),"",Master_Input!P65)</f>
+        <f>IF(ISBLANK(Master_Input!T65),"",Master_Input!T65)</f>
         <v/>
       </c>
       <c r="F65">
-        <f>SUM(Master_Input!H65,Master_Input!K65,Master_Input!N65)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I65)+_xlfn.NUMBERVALUE(Master_Input!M65)+_xlfn.NUMBERVALUE(Master_Input!Q65)</f>
         <v>0</v>
       </c>
       <c r="G65" t="str">
@@ -2282,11 +2308,11 @@
         <v/>
       </c>
       <c r="E66" t="str">
-        <f>IF(ISBLANK(Master_Input!P66),"",Master_Input!P66)</f>
+        <f>IF(ISBLANK(Master_Input!T66),"",Master_Input!T66)</f>
         <v/>
       </c>
       <c r="F66">
-        <f>SUM(Master_Input!H66,Master_Input!K66,Master_Input!N66)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I66)+_xlfn.NUMBERVALUE(Master_Input!M66)+_xlfn.NUMBERVALUE(Master_Input!Q66)</f>
         <v>0</v>
       </c>
       <c r="G66" t="str">
@@ -2304,11 +2330,11 @@
         <v/>
       </c>
       <c r="E67" t="str">
-        <f>IF(ISBLANK(Master_Input!P67),"",Master_Input!P67)</f>
+        <f>IF(ISBLANK(Master_Input!T67),"",Master_Input!T67)</f>
         <v/>
       </c>
       <c r="F67">
-        <f>SUM(Master_Input!H67,Master_Input!K67,Master_Input!N67)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I67)+_xlfn.NUMBERVALUE(Master_Input!M67)+_xlfn.NUMBERVALUE(Master_Input!Q67)</f>
         <v>0</v>
       </c>
       <c r="G67" t="str">
@@ -2326,11 +2352,11 @@
         <v/>
       </c>
       <c r="E68" t="str">
-        <f>IF(ISBLANK(Master_Input!P68),"",Master_Input!P68)</f>
+        <f>IF(ISBLANK(Master_Input!T68),"",Master_Input!T68)</f>
         <v/>
       </c>
       <c r="F68">
-        <f>SUM(Master_Input!H68,Master_Input!K68,Master_Input!N68)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I68)+_xlfn.NUMBERVALUE(Master_Input!M68)+_xlfn.NUMBERVALUE(Master_Input!Q68)</f>
         <v>0</v>
       </c>
       <c r="G68" t="str">
@@ -2348,11 +2374,11 @@
         <v/>
       </c>
       <c r="E69" t="str">
-        <f>IF(ISBLANK(Master_Input!P69),"",Master_Input!P69)</f>
+        <f>IF(ISBLANK(Master_Input!T69),"",Master_Input!T69)</f>
         <v/>
       </c>
       <c r="F69">
-        <f>SUM(Master_Input!H69,Master_Input!K69,Master_Input!N69)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I69)+_xlfn.NUMBERVALUE(Master_Input!M69)+_xlfn.NUMBERVALUE(Master_Input!Q69)</f>
         <v>0</v>
       </c>
       <c r="G69" t="str">
@@ -2370,11 +2396,11 @@
         <v/>
       </c>
       <c r="E70" t="str">
-        <f>IF(ISBLANK(Master_Input!P70),"",Master_Input!P70)</f>
+        <f>IF(ISBLANK(Master_Input!T70),"",Master_Input!T70)</f>
         <v/>
       </c>
       <c r="F70">
-        <f>SUM(Master_Input!H70,Master_Input!K70,Master_Input!N70)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I70)+_xlfn.NUMBERVALUE(Master_Input!M70)+_xlfn.NUMBERVALUE(Master_Input!Q70)</f>
         <v>0</v>
       </c>
       <c r="G70" t="str">
@@ -2392,11 +2418,11 @@
         <v/>
       </c>
       <c r="E71" t="str">
-        <f>IF(ISBLANK(Master_Input!P71),"",Master_Input!P71)</f>
+        <f>IF(ISBLANK(Master_Input!T71),"",Master_Input!T71)</f>
         <v/>
       </c>
       <c r="F71">
-        <f>SUM(Master_Input!H71,Master_Input!K71,Master_Input!N71)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I71)+_xlfn.NUMBERVALUE(Master_Input!M71)+_xlfn.NUMBERVALUE(Master_Input!Q71)</f>
         <v>0</v>
       </c>
       <c r="G71" t="str">
@@ -2414,11 +2440,11 @@
         <v/>
       </c>
       <c r="E72" t="str">
-        <f>IF(ISBLANK(Master_Input!P72),"",Master_Input!P72)</f>
+        <f>IF(ISBLANK(Master_Input!T72),"",Master_Input!T72)</f>
         <v/>
       </c>
       <c r="F72">
-        <f>SUM(Master_Input!H72,Master_Input!K72,Master_Input!N72)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I72)+_xlfn.NUMBERVALUE(Master_Input!M72)+_xlfn.NUMBERVALUE(Master_Input!Q72)</f>
         <v>0</v>
       </c>
       <c r="G72" t="str">
@@ -2436,11 +2462,11 @@
         <v/>
       </c>
       <c r="E73" t="str">
-        <f>IF(ISBLANK(Master_Input!P73),"",Master_Input!P73)</f>
+        <f>IF(ISBLANK(Master_Input!T73),"",Master_Input!T73)</f>
         <v/>
       </c>
       <c r="F73">
-        <f>SUM(Master_Input!H73,Master_Input!K73,Master_Input!N73)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I73)+_xlfn.NUMBERVALUE(Master_Input!M73)+_xlfn.NUMBERVALUE(Master_Input!Q73)</f>
         <v>0</v>
       </c>
       <c r="G73" t="str">
@@ -2458,11 +2484,11 @@
         <v/>
       </c>
       <c r="E74" t="str">
-        <f>IF(ISBLANK(Master_Input!P74),"",Master_Input!P74)</f>
+        <f>IF(ISBLANK(Master_Input!T74),"",Master_Input!T74)</f>
         <v/>
       </c>
       <c r="F74">
-        <f>SUM(Master_Input!H74,Master_Input!K74,Master_Input!N74)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I74)+_xlfn.NUMBERVALUE(Master_Input!M74)+_xlfn.NUMBERVALUE(Master_Input!Q74)</f>
         <v>0</v>
       </c>
       <c r="G74" t="str">
@@ -2480,11 +2506,11 @@
         <v/>
       </c>
       <c r="E75" t="str">
-        <f>IF(ISBLANK(Master_Input!P75),"",Master_Input!P75)</f>
+        <f>IF(ISBLANK(Master_Input!T75),"",Master_Input!T75)</f>
         <v/>
       </c>
       <c r="F75">
-        <f>SUM(Master_Input!H75,Master_Input!K75,Master_Input!N75)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I75)+_xlfn.NUMBERVALUE(Master_Input!M75)+_xlfn.NUMBERVALUE(Master_Input!Q75)</f>
         <v>0</v>
       </c>
       <c r="G75" t="str">
@@ -2502,11 +2528,11 @@
         <v/>
       </c>
       <c r="E76" t="str">
-        <f>IF(ISBLANK(Master_Input!P76),"",Master_Input!P76)</f>
+        <f>IF(ISBLANK(Master_Input!T76),"",Master_Input!T76)</f>
         <v/>
       </c>
       <c r="F76">
-        <f>SUM(Master_Input!H76,Master_Input!K76,Master_Input!N76)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I76)+_xlfn.NUMBERVALUE(Master_Input!M76)+_xlfn.NUMBERVALUE(Master_Input!Q76)</f>
         <v>0</v>
       </c>
       <c r="G76" t="str">
@@ -2524,11 +2550,11 @@
         <v/>
       </c>
       <c r="E77" t="str">
-        <f>IF(ISBLANK(Master_Input!P77),"",Master_Input!P77)</f>
+        <f>IF(ISBLANK(Master_Input!T77),"",Master_Input!T77)</f>
         <v/>
       </c>
       <c r="F77">
-        <f>SUM(Master_Input!H77,Master_Input!K77,Master_Input!N77)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I77)+_xlfn.NUMBERVALUE(Master_Input!M77)+_xlfn.NUMBERVALUE(Master_Input!Q77)</f>
         <v>0</v>
       </c>
       <c r="G77" t="str">
@@ -2546,11 +2572,11 @@
         <v/>
       </c>
       <c r="E78" t="str">
-        <f>IF(ISBLANK(Master_Input!P78),"",Master_Input!P78)</f>
+        <f>IF(ISBLANK(Master_Input!T78),"",Master_Input!T78)</f>
         <v/>
       </c>
       <c r="F78">
-        <f>SUM(Master_Input!H78,Master_Input!K78,Master_Input!N78)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I78)+_xlfn.NUMBERVALUE(Master_Input!M78)+_xlfn.NUMBERVALUE(Master_Input!Q78)</f>
         <v>0</v>
       </c>
       <c r="G78" t="str">
@@ -2568,11 +2594,11 @@
         <v/>
       </c>
       <c r="E79" t="str">
-        <f>IF(ISBLANK(Master_Input!P79),"",Master_Input!P79)</f>
+        <f>IF(ISBLANK(Master_Input!T79),"",Master_Input!T79)</f>
         <v/>
       </c>
       <c r="F79">
-        <f>SUM(Master_Input!H79,Master_Input!K79,Master_Input!N79)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I79)+_xlfn.NUMBERVALUE(Master_Input!M79)+_xlfn.NUMBERVALUE(Master_Input!Q79)</f>
         <v>0</v>
       </c>
       <c r="G79" t="str">
@@ -2590,11 +2616,11 @@
         <v/>
       </c>
       <c r="E80" t="str">
-        <f>IF(ISBLANK(Master_Input!P80),"",Master_Input!P80)</f>
+        <f>IF(ISBLANK(Master_Input!T80),"",Master_Input!T80)</f>
         <v/>
       </c>
       <c r="F80">
-        <f>SUM(Master_Input!H80,Master_Input!K80,Master_Input!N80)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I80)+_xlfn.NUMBERVALUE(Master_Input!M80)+_xlfn.NUMBERVALUE(Master_Input!Q80)</f>
         <v>0</v>
       </c>
       <c r="G80" t="str">
@@ -2612,11 +2638,11 @@
         <v/>
       </c>
       <c r="E81" t="str">
-        <f>IF(ISBLANK(Master_Input!P81),"",Master_Input!P81)</f>
+        <f>IF(ISBLANK(Master_Input!T81),"",Master_Input!T81)</f>
         <v/>
       </c>
       <c r="F81">
-        <f>SUM(Master_Input!H81,Master_Input!K81,Master_Input!N81)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I81)+_xlfn.NUMBERVALUE(Master_Input!M81)+_xlfn.NUMBERVALUE(Master_Input!Q81)</f>
         <v>0</v>
       </c>
       <c r="G81" t="str">
@@ -2634,11 +2660,11 @@
         <v/>
       </c>
       <c r="E82" t="str">
-        <f>IF(ISBLANK(Master_Input!P82),"",Master_Input!P82)</f>
+        <f>IF(ISBLANK(Master_Input!T82),"",Master_Input!T82)</f>
         <v/>
       </c>
       <c r="F82">
-        <f>SUM(Master_Input!H82,Master_Input!K82,Master_Input!N82)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I82)+_xlfn.NUMBERVALUE(Master_Input!M82)+_xlfn.NUMBERVALUE(Master_Input!Q82)</f>
         <v>0</v>
       </c>
       <c r="G82" t="str">
@@ -2656,11 +2682,11 @@
         <v/>
       </c>
       <c r="E83" t="str">
-        <f>IF(ISBLANK(Master_Input!P83),"",Master_Input!P83)</f>
+        <f>IF(ISBLANK(Master_Input!T83),"",Master_Input!T83)</f>
         <v/>
       </c>
       <c r="F83">
-        <f>SUM(Master_Input!H83,Master_Input!K83,Master_Input!N83)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I83)+_xlfn.NUMBERVALUE(Master_Input!M83)+_xlfn.NUMBERVALUE(Master_Input!Q83)</f>
         <v>0</v>
       </c>
       <c r="G83" t="str">
@@ -2678,11 +2704,11 @@
         <v/>
       </c>
       <c r="E84" t="str">
-        <f>IF(ISBLANK(Master_Input!P84),"",Master_Input!P84)</f>
+        <f>IF(ISBLANK(Master_Input!T84),"",Master_Input!T84)</f>
         <v/>
       </c>
       <c r="F84">
-        <f>SUM(Master_Input!H84,Master_Input!K84,Master_Input!N84)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I84)+_xlfn.NUMBERVALUE(Master_Input!M84)+_xlfn.NUMBERVALUE(Master_Input!Q84)</f>
         <v>0</v>
       </c>
       <c r="G84" t="str">
@@ -2700,11 +2726,11 @@
         <v/>
       </c>
       <c r="E85" t="str">
-        <f>IF(ISBLANK(Master_Input!P85),"",Master_Input!P85)</f>
+        <f>IF(ISBLANK(Master_Input!T85),"",Master_Input!T85)</f>
         <v/>
       </c>
       <c r="F85">
-        <f>SUM(Master_Input!H85,Master_Input!K85,Master_Input!N85)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I85)+_xlfn.NUMBERVALUE(Master_Input!M85)+_xlfn.NUMBERVALUE(Master_Input!Q85)</f>
         <v>0</v>
       </c>
       <c r="G85" t="str">
@@ -2722,11 +2748,11 @@
         <v/>
       </c>
       <c r="E86" t="str">
-        <f>IF(ISBLANK(Master_Input!P86),"",Master_Input!P86)</f>
+        <f>IF(ISBLANK(Master_Input!T86),"",Master_Input!T86)</f>
         <v/>
       </c>
       <c r="F86">
-        <f>SUM(Master_Input!H86,Master_Input!K86,Master_Input!N86)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I86)+_xlfn.NUMBERVALUE(Master_Input!M86)+_xlfn.NUMBERVALUE(Master_Input!Q86)</f>
         <v>0</v>
       </c>
       <c r="G86" t="str">
@@ -2744,11 +2770,11 @@
         <v/>
       </c>
       <c r="E87" t="str">
-        <f>IF(ISBLANK(Master_Input!P87),"",Master_Input!P87)</f>
+        <f>IF(ISBLANK(Master_Input!T87),"",Master_Input!T87)</f>
         <v/>
       </c>
       <c r="F87">
-        <f>SUM(Master_Input!H87,Master_Input!K87,Master_Input!N87)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I87)+_xlfn.NUMBERVALUE(Master_Input!M87)+_xlfn.NUMBERVALUE(Master_Input!Q87)</f>
         <v>0</v>
       </c>
       <c r="G87" t="str">
@@ -2766,11 +2792,11 @@
         <v/>
       </c>
       <c r="E88" t="str">
-        <f>IF(ISBLANK(Master_Input!P88),"",Master_Input!P88)</f>
+        <f>IF(ISBLANK(Master_Input!T88),"",Master_Input!T88)</f>
         <v/>
       </c>
       <c r="F88">
-        <f>SUM(Master_Input!H88,Master_Input!K88,Master_Input!N88)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I88)+_xlfn.NUMBERVALUE(Master_Input!M88)+_xlfn.NUMBERVALUE(Master_Input!Q88)</f>
         <v>0</v>
       </c>
       <c r="G88" t="str">
@@ -2788,11 +2814,11 @@
         <v/>
       </c>
       <c r="E89" t="str">
-        <f>IF(ISBLANK(Master_Input!P89),"",Master_Input!P89)</f>
+        <f>IF(ISBLANK(Master_Input!T89),"",Master_Input!T89)</f>
         <v/>
       </c>
       <c r="F89">
-        <f>SUM(Master_Input!H89,Master_Input!K89,Master_Input!N89)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I89)+_xlfn.NUMBERVALUE(Master_Input!M89)+_xlfn.NUMBERVALUE(Master_Input!Q89)</f>
         <v>0</v>
       </c>
       <c r="G89" t="str">
@@ -2810,11 +2836,11 @@
         <v/>
       </c>
       <c r="E90" t="str">
-        <f>IF(ISBLANK(Master_Input!P90),"",Master_Input!P90)</f>
+        <f>IF(ISBLANK(Master_Input!T90),"",Master_Input!T90)</f>
         <v/>
       </c>
       <c r="F90">
-        <f>SUM(Master_Input!H90,Master_Input!K90,Master_Input!N90)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I90)+_xlfn.NUMBERVALUE(Master_Input!M90)+_xlfn.NUMBERVALUE(Master_Input!Q90)</f>
         <v>0</v>
       </c>
       <c r="G90" t="str">
@@ -2832,11 +2858,11 @@
         <v/>
       </c>
       <c r="E91" t="str">
-        <f>IF(ISBLANK(Master_Input!P91),"",Master_Input!P91)</f>
+        <f>IF(ISBLANK(Master_Input!T91),"",Master_Input!T91)</f>
         <v/>
       </c>
       <c r="F91">
-        <f>SUM(Master_Input!H91,Master_Input!K91,Master_Input!N91)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I91)+_xlfn.NUMBERVALUE(Master_Input!M91)+_xlfn.NUMBERVALUE(Master_Input!Q91)</f>
         <v>0</v>
       </c>
       <c r="G91" t="str">
@@ -2854,11 +2880,11 @@
         <v/>
       </c>
       <c r="E92" t="str">
-        <f>IF(ISBLANK(Master_Input!P92),"",Master_Input!P92)</f>
+        <f>IF(ISBLANK(Master_Input!T92),"",Master_Input!T92)</f>
         <v/>
       </c>
       <c r="F92">
-        <f>SUM(Master_Input!H92,Master_Input!K92,Master_Input!N92)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I92)+_xlfn.NUMBERVALUE(Master_Input!M92)+_xlfn.NUMBERVALUE(Master_Input!Q92)</f>
         <v>0</v>
       </c>
       <c r="G92" t="str">
@@ -2876,11 +2902,11 @@
         <v/>
       </c>
       <c r="E93" t="str">
-        <f>IF(ISBLANK(Master_Input!P93),"",Master_Input!P93)</f>
+        <f>IF(ISBLANK(Master_Input!T93),"",Master_Input!T93)</f>
         <v/>
       </c>
       <c r="F93">
-        <f>SUM(Master_Input!H93,Master_Input!K93,Master_Input!N93)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I93)+_xlfn.NUMBERVALUE(Master_Input!M93)+_xlfn.NUMBERVALUE(Master_Input!Q93)</f>
         <v>0</v>
       </c>
       <c r="G93" t="str">
@@ -2898,11 +2924,11 @@
         <v/>
       </c>
       <c r="E94" t="str">
-        <f>IF(ISBLANK(Master_Input!P94),"",Master_Input!P94)</f>
+        <f>IF(ISBLANK(Master_Input!T94),"",Master_Input!T94)</f>
         <v/>
       </c>
       <c r="F94">
-        <f>SUM(Master_Input!H94,Master_Input!K94,Master_Input!N94)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I94)+_xlfn.NUMBERVALUE(Master_Input!M94)+_xlfn.NUMBERVALUE(Master_Input!Q94)</f>
         <v>0</v>
       </c>
       <c r="G94" t="str">
@@ -2920,11 +2946,11 @@
         <v/>
       </c>
       <c r="E95" t="str">
-        <f>IF(ISBLANK(Master_Input!P95),"",Master_Input!P95)</f>
+        <f>IF(ISBLANK(Master_Input!T95),"",Master_Input!T95)</f>
         <v/>
       </c>
       <c r="F95">
-        <f>SUM(Master_Input!H95,Master_Input!K95,Master_Input!N95)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I95)+_xlfn.NUMBERVALUE(Master_Input!M95)+_xlfn.NUMBERVALUE(Master_Input!Q95)</f>
         <v>0</v>
       </c>
       <c r="G95" t="str">
@@ -2942,11 +2968,11 @@
         <v/>
       </c>
       <c r="E96" t="str">
-        <f>IF(ISBLANK(Master_Input!P96),"",Master_Input!P96)</f>
+        <f>IF(ISBLANK(Master_Input!T96),"",Master_Input!T96)</f>
         <v/>
       </c>
       <c r="F96">
-        <f>SUM(Master_Input!H96,Master_Input!K96,Master_Input!N96)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I96)+_xlfn.NUMBERVALUE(Master_Input!M96)+_xlfn.NUMBERVALUE(Master_Input!Q96)</f>
         <v>0</v>
       </c>
       <c r="G96" t="str">
@@ -2964,11 +2990,11 @@
         <v/>
       </c>
       <c r="E97" t="str">
-        <f>IF(ISBLANK(Master_Input!P97),"",Master_Input!P97)</f>
+        <f>IF(ISBLANK(Master_Input!T97),"",Master_Input!T97)</f>
         <v/>
       </c>
       <c r="F97">
-        <f>SUM(Master_Input!H97,Master_Input!K97,Master_Input!N97)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I97)+_xlfn.NUMBERVALUE(Master_Input!M97)+_xlfn.NUMBERVALUE(Master_Input!Q97)</f>
         <v>0</v>
       </c>
       <c r="G97" t="str">
@@ -2986,11 +3012,11 @@
         <v/>
       </c>
       <c r="E98" t="str">
-        <f>IF(ISBLANK(Master_Input!P98),"",Master_Input!P98)</f>
+        <f>IF(ISBLANK(Master_Input!T98),"",Master_Input!T98)</f>
         <v/>
       </c>
       <c r="F98">
-        <f>SUM(Master_Input!H98,Master_Input!K98,Master_Input!N98)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I98)+_xlfn.NUMBERVALUE(Master_Input!M98)+_xlfn.NUMBERVALUE(Master_Input!Q98)</f>
         <v>0</v>
       </c>
       <c r="G98" t="str">
@@ -3008,11 +3034,11 @@
         <v/>
       </c>
       <c r="E99" t="str">
-        <f>IF(ISBLANK(Master_Input!P99),"",Master_Input!P99)</f>
+        <f>IF(ISBLANK(Master_Input!T99),"",Master_Input!T99)</f>
         <v/>
       </c>
       <c r="F99">
-        <f>SUM(Master_Input!H99,Master_Input!K99,Master_Input!N99)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I99)+_xlfn.NUMBERVALUE(Master_Input!M99)+_xlfn.NUMBERVALUE(Master_Input!Q99)</f>
         <v>0</v>
       </c>
       <c r="G99" t="str">
@@ -3030,11 +3056,11 @@
         <v/>
       </c>
       <c r="E100" t="str">
-        <f>IF(ISBLANK(Master_Input!P100),"",Master_Input!P100)</f>
+        <f>IF(ISBLANK(Master_Input!T100),"",Master_Input!T100)</f>
         <v/>
       </c>
       <c r="F100">
-        <f>SUM(Master_Input!H100,Master_Input!K100,Master_Input!N100)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I100)+_xlfn.NUMBERVALUE(Master_Input!M100)+_xlfn.NUMBERVALUE(Master_Input!Q100)</f>
         <v>0</v>
       </c>
       <c r="G100" t="str">
@@ -3052,11 +3078,11 @@
         <v/>
       </c>
       <c r="E101" t="str">
-        <f>IF(ISBLANK(Master_Input!P101),"",Master_Input!P101)</f>
+        <f>IF(ISBLANK(Master_Input!T101),"",Master_Input!T101)</f>
         <v/>
       </c>
       <c r="F101">
-        <f>SUM(Master_Input!H101,Master_Input!K101,Master_Input!N101)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I101)+_xlfn.NUMBERVALUE(Master_Input!M101)+_xlfn.NUMBERVALUE(Master_Input!Q101)</f>
         <v>0</v>
       </c>
       <c r="G101" t="str">
@@ -3074,11 +3100,11 @@
         <v/>
       </c>
       <c r="E102" t="str">
-        <f>IF(ISBLANK(Master_Input!P102),"",Master_Input!P102)</f>
+        <f>IF(ISBLANK(Master_Input!T102),"",Master_Input!T102)</f>
         <v/>
       </c>
       <c r="F102">
-        <f>SUM(Master_Input!H102,Master_Input!K102,Master_Input!N102)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I102)+_xlfn.NUMBERVALUE(Master_Input!M102)+_xlfn.NUMBERVALUE(Master_Input!Q102)</f>
         <v>0</v>
       </c>
       <c r="G102" t="str">
@@ -3096,11 +3122,11 @@
         <v/>
       </c>
       <c r="E103" t="str">
-        <f>IF(ISBLANK(Master_Input!P103),"",Master_Input!P103)</f>
+        <f>IF(ISBLANK(Master_Input!T103),"",Master_Input!T103)</f>
         <v/>
       </c>
       <c r="F103">
-        <f>SUM(Master_Input!H103,Master_Input!K103,Master_Input!N103)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I103)+_xlfn.NUMBERVALUE(Master_Input!M103)+_xlfn.NUMBERVALUE(Master_Input!Q103)</f>
         <v>0</v>
       </c>
       <c r="G103" t="str">
@@ -3118,11 +3144,11 @@
         <v/>
       </c>
       <c r="E104" t="str">
-        <f>IF(ISBLANK(Master_Input!P104),"",Master_Input!P104)</f>
+        <f>IF(ISBLANK(Master_Input!T104),"",Master_Input!T104)</f>
         <v/>
       </c>
       <c r="F104">
-        <f>SUM(Master_Input!H104,Master_Input!K104,Master_Input!N104)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I104)+_xlfn.NUMBERVALUE(Master_Input!M104)+_xlfn.NUMBERVALUE(Master_Input!Q104)</f>
         <v>0</v>
       </c>
       <c r="G104" t="str">
@@ -3140,11 +3166,11 @@
         <v/>
       </c>
       <c r="E105" t="str">
-        <f>IF(ISBLANK(Master_Input!P105),"",Master_Input!P105)</f>
+        <f>IF(ISBLANK(Master_Input!T105),"",Master_Input!T105)</f>
         <v/>
       </c>
       <c r="F105">
-        <f>SUM(Master_Input!H105,Master_Input!K105,Master_Input!N105)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I105)+_xlfn.NUMBERVALUE(Master_Input!M105)+_xlfn.NUMBERVALUE(Master_Input!Q105)</f>
         <v>0</v>
       </c>
       <c r="G105" t="str">
@@ -3162,11 +3188,11 @@
         <v/>
       </c>
       <c r="E106" t="str">
-        <f>IF(ISBLANK(Master_Input!P106),"",Master_Input!P106)</f>
+        <f>IF(ISBLANK(Master_Input!T106),"",Master_Input!T106)</f>
         <v/>
       </c>
       <c r="F106">
-        <f>SUM(Master_Input!H106,Master_Input!K106,Master_Input!N106)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I106)+_xlfn.NUMBERVALUE(Master_Input!M106)+_xlfn.NUMBERVALUE(Master_Input!Q106)</f>
         <v>0</v>
       </c>
       <c r="G106" t="str">
@@ -3184,11 +3210,11 @@
         <v/>
       </c>
       <c r="E107" t="str">
-        <f>IF(ISBLANK(Master_Input!P107),"",Master_Input!P107)</f>
+        <f>IF(ISBLANK(Master_Input!T107),"",Master_Input!T107)</f>
         <v/>
       </c>
       <c r="F107">
-        <f>SUM(Master_Input!H107,Master_Input!K107,Master_Input!N107)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I107)+_xlfn.NUMBERVALUE(Master_Input!M107)+_xlfn.NUMBERVALUE(Master_Input!Q107)</f>
         <v>0</v>
       </c>
       <c r="G107" t="str">
@@ -3206,11 +3232,11 @@
         <v/>
       </c>
       <c r="E108" t="str">
-        <f>IF(ISBLANK(Master_Input!P108),"",Master_Input!P108)</f>
+        <f>IF(ISBLANK(Master_Input!T108),"",Master_Input!T108)</f>
         <v/>
       </c>
       <c r="F108">
-        <f>SUM(Master_Input!H108,Master_Input!K108,Master_Input!N108)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I108)+_xlfn.NUMBERVALUE(Master_Input!M108)+_xlfn.NUMBERVALUE(Master_Input!Q108)</f>
         <v>0</v>
       </c>
       <c r="G108" t="str">
@@ -3228,11 +3254,11 @@
         <v/>
       </c>
       <c r="E109" t="str">
-        <f>IF(ISBLANK(Master_Input!P109),"",Master_Input!P109)</f>
+        <f>IF(ISBLANK(Master_Input!T109),"",Master_Input!T109)</f>
         <v/>
       </c>
       <c r="F109">
-        <f>SUM(Master_Input!H109,Master_Input!K109,Master_Input!N109)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I109)+_xlfn.NUMBERVALUE(Master_Input!M109)+_xlfn.NUMBERVALUE(Master_Input!Q109)</f>
         <v>0</v>
       </c>
       <c r="G109" t="str">
@@ -3250,11 +3276,11 @@
         <v/>
       </c>
       <c r="E110" t="str">
-        <f>IF(ISBLANK(Master_Input!P110),"",Master_Input!P110)</f>
+        <f>IF(ISBLANK(Master_Input!T110),"",Master_Input!T110)</f>
         <v/>
       </c>
       <c r="F110">
-        <f>SUM(Master_Input!H110,Master_Input!K110,Master_Input!N110)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I110)+_xlfn.NUMBERVALUE(Master_Input!M110)+_xlfn.NUMBERVALUE(Master_Input!Q110)</f>
         <v>0</v>
       </c>
       <c r="G110" t="str">
@@ -3272,11 +3298,11 @@
         <v/>
       </c>
       <c r="E111" t="str">
-        <f>IF(ISBLANK(Master_Input!P111),"",Master_Input!P111)</f>
+        <f>IF(ISBLANK(Master_Input!T111),"",Master_Input!T111)</f>
         <v/>
       </c>
       <c r="F111">
-        <f>SUM(Master_Input!H111,Master_Input!K111,Master_Input!N111)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I111)+_xlfn.NUMBERVALUE(Master_Input!M111)+_xlfn.NUMBERVALUE(Master_Input!Q111)</f>
         <v>0</v>
       </c>
       <c r="G111" t="str">
@@ -3294,11 +3320,11 @@
         <v/>
       </c>
       <c r="E112" t="str">
-        <f>IF(ISBLANK(Master_Input!P112),"",Master_Input!P112)</f>
+        <f>IF(ISBLANK(Master_Input!T112),"",Master_Input!T112)</f>
         <v/>
       </c>
       <c r="F112">
-        <f>SUM(Master_Input!H112,Master_Input!K112,Master_Input!N112)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I112)+_xlfn.NUMBERVALUE(Master_Input!M112)+_xlfn.NUMBERVALUE(Master_Input!Q112)</f>
         <v>0</v>
       </c>
       <c r="G112" t="str">
@@ -3316,11 +3342,11 @@
         <v/>
       </c>
       <c r="E113" t="str">
-        <f>IF(ISBLANK(Master_Input!P113),"",Master_Input!P113)</f>
+        <f>IF(ISBLANK(Master_Input!T113),"",Master_Input!T113)</f>
         <v/>
       </c>
       <c r="F113">
-        <f>SUM(Master_Input!H113,Master_Input!K113,Master_Input!N113)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I113)+_xlfn.NUMBERVALUE(Master_Input!M113)+_xlfn.NUMBERVALUE(Master_Input!Q113)</f>
         <v>0</v>
       </c>
       <c r="G113" t="str">
@@ -3338,11 +3364,11 @@
         <v/>
       </c>
       <c r="E114" t="str">
-        <f>IF(ISBLANK(Master_Input!P114),"",Master_Input!P114)</f>
+        <f>IF(ISBLANK(Master_Input!T114),"",Master_Input!T114)</f>
         <v/>
       </c>
       <c r="F114">
-        <f>SUM(Master_Input!H114,Master_Input!K114,Master_Input!N114)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I114)+_xlfn.NUMBERVALUE(Master_Input!M114)+_xlfn.NUMBERVALUE(Master_Input!Q114)</f>
         <v>0</v>
       </c>
       <c r="G114" t="str">
@@ -3360,11 +3386,11 @@
         <v/>
       </c>
       <c r="E115" t="str">
-        <f>IF(ISBLANK(Master_Input!P115),"",Master_Input!P115)</f>
+        <f>IF(ISBLANK(Master_Input!T115),"",Master_Input!T115)</f>
         <v/>
       </c>
       <c r="F115">
-        <f>SUM(Master_Input!H115,Master_Input!K115,Master_Input!N115)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I115)+_xlfn.NUMBERVALUE(Master_Input!M115)+_xlfn.NUMBERVALUE(Master_Input!Q115)</f>
         <v>0</v>
       </c>
       <c r="G115" t="str">
@@ -3382,11 +3408,11 @@
         <v/>
       </c>
       <c r="E116" t="str">
-        <f>IF(ISBLANK(Master_Input!P116),"",Master_Input!P116)</f>
+        <f>IF(ISBLANK(Master_Input!T116),"",Master_Input!T116)</f>
         <v/>
       </c>
       <c r="F116">
-        <f>SUM(Master_Input!H116,Master_Input!K116,Master_Input!N116)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I116)+_xlfn.NUMBERVALUE(Master_Input!M116)+_xlfn.NUMBERVALUE(Master_Input!Q116)</f>
         <v>0</v>
       </c>
       <c r="G116" t="str">
@@ -3404,11 +3430,11 @@
         <v/>
       </c>
       <c r="E117" t="str">
-        <f>IF(ISBLANK(Master_Input!P117),"",Master_Input!P117)</f>
+        <f>IF(ISBLANK(Master_Input!T117),"",Master_Input!T117)</f>
         <v/>
       </c>
       <c r="F117">
-        <f>SUM(Master_Input!H117,Master_Input!K117,Master_Input!N117)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I117)+_xlfn.NUMBERVALUE(Master_Input!M117)+_xlfn.NUMBERVALUE(Master_Input!Q117)</f>
         <v>0</v>
       </c>
       <c r="G117" t="str">
@@ -3426,11 +3452,11 @@
         <v/>
       </c>
       <c r="E118" t="str">
-        <f>IF(ISBLANK(Master_Input!P118),"",Master_Input!P118)</f>
+        <f>IF(ISBLANK(Master_Input!T118),"",Master_Input!T118)</f>
         <v/>
       </c>
       <c r="F118">
-        <f>SUM(Master_Input!H118,Master_Input!K118,Master_Input!N118)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I118)+_xlfn.NUMBERVALUE(Master_Input!M118)+_xlfn.NUMBERVALUE(Master_Input!Q118)</f>
         <v>0</v>
       </c>
       <c r="G118" t="str">
@@ -3448,11 +3474,11 @@
         <v/>
       </c>
       <c r="E119" t="str">
-        <f>IF(ISBLANK(Master_Input!P119),"",Master_Input!P119)</f>
+        <f>IF(ISBLANK(Master_Input!T119),"",Master_Input!T119)</f>
         <v/>
       </c>
       <c r="F119">
-        <f>SUM(Master_Input!H119,Master_Input!K119,Master_Input!N119)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I119)+_xlfn.NUMBERVALUE(Master_Input!M119)+_xlfn.NUMBERVALUE(Master_Input!Q119)</f>
         <v>0</v>
       </c>
       <c r="G119" t="str">
@@ -3470,11 +3496,11 @@
         <v/>
       </c>
       <c r="E120" t="str">
-        <f>IF(ISBLANK(Master_Input!P120),"",Master_Input!P120)</f>
+        <f>IF(ISBLANK(Master_Input!T120),"",Master_Input!T120)</f>
         <v/>
       </c>
       <c r="F120">
-        <f>SUM(Master_Input!H120,Master_Input!K120,Master_Input!N120)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I120)+_xlfn.NUMBERVALUE(Master_Input!M120)+_xlfn.NUMBERVALUE(Master_Input!Q120)</f>
         <v>0</v>
       </c>
       <c r="G120" t="str">
@@ -3492,11 +3518,11 @@
         <v/>
       </c>
       <c r="E121" t="str">
-        <f>IF(ISBLANK(Master_Input!P121),"",Master_Input!P121)</f>
+        <f>IF(ISBLANK(Master_Input!T121),"",Master_Input!T121)</f>
         <v/>
       </c>
       <c r="F121">
-        <f>SUM(Master_Input!H121,Master_Input!K121,Master_Input!N121)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I121)+_xlfn.NUMBERVALUE(Master_Input!M121)+_xlfn.NUMBERVALUE(Master_Input!Q121)</f>
         <v>0</v>
       </c>
       <c r="G121" t="str">
@@ -3514,11 +3540,11 @@
         <v/>
       </c>
       <c r="E122" t="str">
-        <f>IF(ISBLANK(Master_Input!P122),"",Master_Input!P122)</f>
+        <f>IF(ISBLANK(Master_Input!T122),"",Master_Input!T122)</f>
         <v/>
       </c>
       <c r="F122">
-        <f>SUM(Master_Input!H122,Master_Input!K122,Master_Input!N122)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I122)+_xlfn.NUMBERVALUE(Master_Input!M122)+_xlfn.NUMBERVALUE(Master_Input!Q122)</f>
         <v>0</v>
       </c>
       <c r="G122" t="str">
@@ -3536,11 +3562,11 @@
         <v/>
       </c>
       <c r="E123" t="str">
-        <f>IF(ISBLANK(Master_Input!P123),"",Master_Input!P123)</f>
+        <f>IF(ISBLANK(Master_Input!T123),"",Master_Input!T123)</f>
         <v/>
       </c>
       <c r="F123">
-        <f>SUM(Master_Input!H123,Master_Input!K123,Master_Input!N123)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I123)+_xlfn.NUMBERVALUE(Master_Input!M123)+_xlfn.NUMBERVALUE(Master_Input!Q123)</f>
         <v>0</v>
       </c>
       <c r="G123" t="str">
@@ -3558,11 +3584,11 @@
         <v/>
       </c>
       <c r="E124" t="str">
-        <f>IF(ISBLANK(Master_Input!P124),"",Master_Input!P124)</f>
+        <f>IF(ISBLANK(Master_Input!T124),"",Master_Input!T124)</f>
         <v/>
       </c>
       <c r="F124">
-        <f>SUM(Master_Input!H124,Master_Input!K124,Master_Input!N124)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I124)+_xlfn.NUMBERVALUE(Master_Input!M124)+_xlfn.NUMBERVALUE(Master_Input!Q124)</f>
         <v>0</v>
       </c>
       <c r="G124" t="str">
@@ -3580,11 +3606,11 @@
         <v/>
       </c>
       <c r="E125" t="str">
-        <f>IF(ISBLANK(Master_Input!P125),"",Master_Input!P125)</f>
+        <f>IF(ISBLANK(Master_Input!T125),"",Master_Input!T125)</f>
         <v/>
       </c>
       <c r="F125">
-        <f>SUM(Master_Input!H125,Master_Input!K125,Master_Input!N125)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I125)+_xlfn.NUMBERVALUE(Master_Input!M125)+_xlfn.NUMBERVALUE(Master_Input!Q125)</f>
         <v>0</v>
       </c>
       <c r="G125" t="str">
@@ -3602,11 +3628,11 @@
         <v/>
       </c>
       <c r="E126" t="str">
-        <f>IF(ISBLANK(Master_Input!P126),"",Master_Input!P126)</f>
+        <f>IF(ISBLANK(Master_Input!T126),"",Master_Input!T126)</f>
         <v/>
       </c>
       <c r="F126">
-        <f>SUM(Master_Input!H126,Master_Input!K126,Master_Input!N126)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I126)+_xlfn.NUMBERVALUE(Master_Input!M126)+_xlfn.NUMBERVALUE(Master_Input!Q126)</f>
         <v>0</v>
       </c>
       <c r="G126" t="str">
@@ -3624,11 +3650,11 @@
         <v/>
       </c>
       <c r="E127" t="str">
-        <f>IF(ISBLANK(Master_Input!P127),"",Master_Input!P127)</f>
+        <f>IF(ISBLANK(Master_Input!T127),"",Master_Input!T127)</f>
         <v/>
       </c>
       <c r="F127">
-        <f>SUM(Master_Input!H127,Master_Input!K127,Master_Input!N127)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I127)+_xlfn.NUMBERVALUE(Master_Input!M127)+_xlfn.NUMBERVALUE(Master_Input!Q127)</f>
         <v>0</v>
       </c>
       <c r="G127" t="str">
@@ -3646,11 +3672,11 @@
         <v/>
       </c>
       <c r="E128" t="str">
-        <f>IF(ISBLANK(Master_Input!P128),"",Master_Input!P128)</f>
+        <f>IF(ISBLANK(Master_Input!T128),"",Master_Input!T128)</f>
         <v/>
       </c>
       <c r="F128">
-        <f>SUM(Master_Input!H128,Master_Input!K128,Master_Input!N128)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I128)+_xlfn.NUMBERVALUE(Master_Input!M128)+_xlfn.NUMBERVALUE(Master_Input!Q128)</f>
         <v>0</v>
       </c>
       <c r="G128" t="str">
@@ -3668,11 +3694,11 @@
         <v/>
       </c>
       <c r="E129" t="str">
-        <f>IF(ISBLANK(Master_Input!P129),"",Master_Input!P129)</f>
+        <f>IF(ISBLANK(Master_Input!T129),"",Master_Input!T129)</f>
         <v/>
       </c>
       <c r="F129">
-        <f>SUM(Master_Input!H129,Master_Input!K129,Master_Input!N129)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I129)+_xlfn.NUMBERVALUE(Master_Input!M129)+_xlfn.NUMBERVALUE(Master_Input!Q129)</f>
         <v>0</v>
       </c>
       <c r="G129" t="str">
@@ -3690,11 +3716,11 @@
         <v/>
       </c>
       <c r="E130" t="str">
-        <f>IF(ISBLANK(Master_Input!P130),"",Master_Input!P130)</f>
+        <f>IF(ISBLANK(Master_Input!T130),"",Master_Input!T130)</f>
         <v/>
       </c>
       <c r="F130">
-        <f>SUM(Master_Input!H130,Master_Input!K130,Master_Input!N130)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I130)+_xlfn.NUMBERVALUE(Master_Input!M130)+_xlfn.NUMBERVALUE(Master_Input!Q130)</f>
         <v>0</v>
       </c>
       <c r="G130" t="str">
@@ -3712,11 +3738,11 @@
         <v/>
       </c>
       <c r="E131" t="str">
-        <f>IF(ISBLANK(Master_Input!P131),"",Master_Input!P131)</f>
+        <f>IF(ISBLANK(Master_Input!T131),"",Master_Input!T131)</f>
         <v/>
       </c>
       <c r="F131">
-        <f>SUM(Master_Input!H131,Master_Input!K131,Master_Input!N131)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I131)+_xlfn.NUMBERVALUE(Master_Input!M131)+_xlfn.NUMBERVALUE(Master_Input!Q131)</f>
         <v>0</v>
       </c>
       <c r="G131" t="str">
@@ -3734,11 +3760,11 @@
         <v/>
       </c>
       <c r="E132" t="str">
-        <f>IF(ISBLANK(Master_Input!P132),"",Master_Input!P132)</f>
+        <f>IF(ISBLANK(Master_Input!T132),"",Master_Input!T132)</f>
         <v/>
       </c>
       <c r="F132">
-        <f>SUM(Master_Input!H132,Master_Input!K132,Master_Input!N132)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I132)+_xlfn.NUMBERVALUE(Master_Input!M132)+_xlfn.NUMBERVALUE(Master_Input!Q132)</f>
         <v>0</v>
       </c>
       <c r="G132" t="str">
@@ -3756,11 +3782,11 @@
         <v/>
       </c>
       <c r="E133" t="str">
-        <f>IF(ISBLANK(Master_Input!P133),"",Master_Input!P133)</f>
+        <f>IF(ISBLANK(Master_Input!T133),"",Master_Input!T133)</f>
         <v/>
       </c>
       <c r="F133">
-        <f>SUM(Master_Input!H133,Master_Input!K133,Master_Input!N133)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I133)+_xlfn.NUMBERVALUE(Master_Input!M133)+_xlfn.NUMBERVALUE(Master_Input!Q133)</f>
         <v>0</v>
       </c>
       <c r="G133" t="str">
@@ -3778,11 +3804,11 @@
         <v/>
       </c>
       <c r="E134" t="str">
-        <f>IF(ISBLANK(Master_Input!P134),"",Master_Input!P134)</f>
+        <f>IF(ISBLANK(Master_Input!T134),"",Master_Input!T134)</f>
         <v/>
       </c>
       <c r="F134">
-        <f>SUM(Master_Input!H134,Master_Input!K134,Master_Input!N134)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I134)+_xlfn.NUMBERVALUE(Master_Input!M134)+_xlfn.NUMBERVALUE(Master_Input!Q134)</f>
         <v>0</v>
       </c>
       <c r="G134" t="str">
@@ -3800,11 +3826,11 @@
         <v/>
       </c>
       <c r="E135" t="str">
-        <f>IF(ISBLANK(Master_Input!P135),"",Master_Input!P135)</f>
+        <f>IF(ISBLANK(Master_Input!T135),"",Master_Input!T135)</f>
         <v/>
       </c>
       <c r="F135">
-        <f>SUM(Master_Input!H135,Master_Input!K135,Master_Input!N135)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I135)+_xlfn.NUMBERVALUE(Master_Input!M135)+_xlfn.NUMBERVALUE(Master_Input!Q135)</f>
         <v>0</v>
       </c>
       <c r="G135" t="str">
@@ -3822,11 +3848,11 @@
         <v/>
       </c>
       <c r="E136" t="str">
-        <f>IF(ISBLANK(Master_Input!P136),"",Master_Input!P136)</f>
+        <f>IF(ISBLANK(Master_Input!T136),"",Master_Input!T136)</f>
         <v/>
       </c>
       <c r="F136">
-        <f>SUM(Master_Input!H136,Master_Input!K136,Master_Input!N136)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I136)+_xlfn.NUMBERVALUE(Master_Input!M136)+_xlfn.NUMBERVALUE(Master_Input!Q136)</f>
         <v>0</v>
       </c>
       <c r="G136" t="str">
@@ -3844,11 +3870,11 @@
         <v/>
       </c>
       <c r="E137" t="str">
-        <f>IF(ISBLANK(Master_Input!P137),"",Master_Input!P137)</f>
+        <f>IF(ISBLANK(Master_Input!T137),"",Master_Input!T137)</f>
         <v/>
       </c>
       <c r="F137">
-        <f>SUM(Master_Input!H137,Master_Input!K137,Master_Input!N137)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I137)+_xlfn.NUMBERVALUE(Master_Input!M137)+_xlfn.NUMBERVALUE(Master_Input!Q137)</f>
         <v>0</v>
       </c>
       <c r="G137" t="str">
@@ -3866,11 +3892,11 @@
         <v/>
       </c>
       <c r="E138" t="str">
-        <f>IF(ISBLANK(Master_Input!P138),"",Master_Input!P138)</f>
+        <f>IF(ISBLANK(Master_Input!T138),"",Master_Input!T138)</f>
         <v/>
       </c>
       <c r="F138">
-        <f>SUM(Master_Input!H138,Master_Input!K138,Master_Input!N138)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I138)+_xlfn.NUMBERVALUE(Master_Input!M138)+_xlfn.NUMBERVALUE(Master_Input!Q138)</f>
         <v>0</v>
       </c>
       <c r="G138" t="str">
@@ -3888,11 +3914,11 @@
         <v/>
       </c>
       <c r="E139" t="str">
-        <f>IF(ISBLANK(Master_Input!P139),"",Master_Input!P139)</f>
+        <f>IF(ISBLANK(Master_Input!T139),"",Master_Input!T139)</f>
         <v/>
       </c>
       <c r="F139">
-        <f>SUM(Master_Input!H139,Master_Input!K139,Master_Input!N139)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I139)+_xlfn.NUMBERVALUE(Master_Input!M139)+_xlfn.NUMBERVALUE(Master_Input!Q139)</f>
         <v>0</v>
       </c>
       <c r="G139" t="str">
@@ -3910,11 +3936,11 @@
         <v/>
       </c>
       <c r="E140" t="str">
-        <f>IF(ISBLANK(Master_Input!P140),"",Master_Input!P140)</f>
+        <f>IF(ISBLANK(Master_Input!T140),"",Master_Input!T140)</f>
         <v/>
       </c>
       <c r="F140">
-        <f>SUM(Master_Input!H140,Master_Input!K140,Master_Input!N140)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I140)+_xlfn.NUMBERVALUE(Master_Input!M140)+_xlfn.NUMBERVALUE(Master_Input!Q140)</f>
         <v>0</v>
       </c>
       <c r="G140" t="str">
@@ -3932,11 +3958,11 @@
         <v/>
       </c>
       <c r="E141" t="str">
-        <f>IF(ISBLANK(Master_Input!P141),"",Master_Input!P141)</f>
+        <f>IF(ISBLANK(Master_Input!T141),"",Master_Input!T141)</f>
         <v/>
       </c>
       <c r="F141">
-        <f>SUM(Master_Input!H141,Master_Input!K141,Master_Input!N141)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I141)+_xlfn.NUMBERVALUE(Master_Input!M141)+_xlfn.NUMBERVALUE(Master_Input!Q141)</f>
         <v>0</v>
       </c>
       <c r="G141" t="str">
@@ -3954,11 +3980,11 @@
         <v/>
       </c>
       <c r="E142" t="str">
-        <f>IF(ISBLANK(Master_Input!P142),"",Master_Input!P142)</f>
+        <f>IF(ISBLANK(Master_Input!T142),"",Master_Input!T142)</f>
         <v/>
       </c>
       <c r="F142">
-        <f>SUM(Master_Input!H142,Master_Input!K142,Master_Input!N142)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I142)+_xlfn.NUMBERVALUE(Master_Input!M142)+_xlfn.NUMBERVALUE(Master_Input!Q142)</f>
         <v>0</v>
       </c>
       <c r="G142" t="str">
@@ -3976,11 +4002,11 @@
         <v/>
       </c>
       <c r="E143" t="str">
-        <f>IF(ISBLANK(Master_Input!P143),"",Master_Input!P143)</f>
+        <f>IF(ISBLANK(Master_Input!T143),"",Master_Input!T143)</f>
         <v/>
       </c>
       <c r="F143">
-        <f>SUM(Master_Input!H143,Master_Input!K143,Master_Input!N143)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I143)+_xlfn.NUMBERVALUE(Master_Input!M143)+_xlfn.NUMBERVALUE(Master_Input!Q143)</f>
         <v>0</v>
       </c>
       <c r="G143" t="str">
@@ -3998,11 +4024,11 @@
         <v/>
       </c>
       <c r="E144" t="str">
-        <f>IF(ISBLANK(Master_Input!P144),"",Master_Input!P144)</f>
+        <f>IF(ISBLANK(Master_Input!T144),"",Master_Input!T144)</f>
         <v/>
       </c>
       <c r="F144">
-        <f>SUM(Master_Input!H144,Master_Input!K144,Master_Input!N144)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I144)+_xlfn.NUMBERVALUE(Master_Input!M144)+_xlfn.NUMBERVALUE(Master_Input!Q144)</f>
         <v>0</v>
       </c>
       <c r="G144" t="str">
@@ -4020,11 +4046,11 @@
         <v/>
       </c>
       <c r="E145" t="str">
-        <f>IF(ISBLANK(Master_Input!P145),"",Master_Input!P145)</f>
+        <f>IF(ISBLANK(Master_Input!T145),"",Master_Input!T145)</f>
         <v/>
       </c>
       <c r="F145">
-        <f>SUM(Master_Input!H145,Master_Input!K145,Master_Input!N145)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I145)+_xlfn.NUMBERVALUE(Master_Input!M145)+_xlfn.NUMBERVALUE(Master_Input!Q145)</f>
         <v>0</v>
       </c>
       <c r="G145" t="str">
@@ -4042,11 +4068,11 @@
         <v/>
       </c>
       <c r="E146" t="str">
-        <f>IF(ISBLANK(Master_Input!P146),"",Master_Input!P146)</f>
+        <f>IF(ISBLANK(Master_Input!T146),"",Master_Input!T146)</f>
         <v/>
       </c>
       <c r="F146">
-        <f>SUM(Master_Input!H146,Master_Input!K146,Master_Input!N146)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I146)+_xlfn.NUMBERVALUE(Master_Input!M146)+_xlfn.NUMBERVALUE(Master_Input!Q146)</f>
         <v>0</v>
       </c>
       <c r="G146" t="str">
@@ -4064,11 +4090,11 @@
         <v/>
       </c>
       <c r="E147" t="str">
-        <f>IF(ISBLANK(Master_Input!P147),"",Master_Input!P147)</f>
+        <f>IF(ISBLANK(Master_Input!T147),"",Master_Input!T147)</f>
         <v/>
       </c>
       <c r="F147">
-        <f>SUM(Master_Input!H147,Master_Input!K147,Master_Input!N147)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I147)+_xlfn.NUMBERVALUE(Master_Input!M147)+_xlfn.NUMBERVALUE(Master_Input!Q147)</f>
         <v>0</v>
       </c>
       <c r="G147" t="str">
@@ -4086,11 +4112,11 @@
         <v/>
       </c>
       <c r="E148" t="str">
-        <f>IF(ISBLANK(Master_Input!P148),"",Master_Input!P148)</f>
+        <f>IF(ISBLANK(Master_Input!T148),"",Master_Input!T148)</f>
         <v/>
       </c>
       <c r="F148">
-        <f>SUM(Master_Input!H148,Master_Input!K148,Master_Input!N148)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I148)+_xlfn.NUMBERVALUE(Master_Input!M148)+_xlfn.NUMBERVALUE(Master_Input!Q148)</f>
         <v>0</v>
       </c>
       <c r="G148" t="str">
@@ -4108,11 +4134,11 @@
         <v/>
       </c>
       <c r="E149" t="str">
-        <f>IF(ISBLANK(Master_Input!P149),"",Master_Input!P149)</f>
+        <f>IF(ISBLANK(Master_Input!T149),"",Master_Input!T149)</f>
         <v/>
       </c>
       <c r="F149">
-        <f>SUM(Master_Input!H149,Master_Input!K149,Master_Input!N149)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I149)+_xlfn.NUMBERVALUE(Master_Input!M149)+_xlfn.NUMBERVALUE(Master_Input!Q149)</f>
         <v>0</v>
       </c>
       <c r="G149" t="str">
@@ -4130,11 +4156,11 @@
         <v/>
       </c>
       <c r="E150" t="str">
-        <f>IF(ISBLANK(Master_Input!P150),"",Master_Input!P150)</f>
+        <f>IF(ISBLANK(Master_Input!T150),"",Master_Input!T150)</f>
         <v/>
       </c>
       <c r="F150">
-        <f>SUM(Master_Input!H150,Master_Input!K150,Master_Input!N150)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I150)+_xlfn.NUMBERVALUE(Master_Input!M150)+_xlfn.NUMBERVALUE(Master_Input!Q150)</f>
         <v>0</v>
       </c>
       <c r="G150" t="str">
@@ -4152,11 +4178,11 @@
         <v/>
       </c>
       <c r="E151" t="str">
-        <f>IF(ISBLANK(Master_Input!P151),"",Master_Input!P151)</f>
+        <f>IF(ISBLANK(Master_Input!T151),"",Master_Input!T151)</f>
         <v/>
       </c>
       <c r="F151">
-        <f>SUM(Master_Input!H151,Master_Input!K151,Master_Input!N151)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I151)+_xlfn.NUMBERVALUE(Master_Input!M151)+_xlfn.NUMBERVALUE(Master_Input!Q151)</f>
         <v>0</v>
       </c>
       <c r="G151" t="str">
@@ -4174,11 +4200,11 @@
         <v/>
       </c>
       <c r="E152" t="str">
-        <f>IF(ISBLANK(Master_Input!P152),"",Master_Input!P152)</f>
+        <f>IF(ISBLANK(Master_Input!T152),"",Master_Input!T152)</f>
         <v/>
       </c>
       <c r="F152">
-        <f>SUM(Master_Input!H152,Master_Input!K152,Master_Input!N152)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I152)+_xlfn.NUMBERVALUE(Master_Input!M152)+_xlfn.NUMBERVALUE(Master_Input!Q152)</f>
         <v>0</v>
       </c>
       <c r="G152" t="str">
@@ -4196,11 +4222,11 @@
         <v/>
       </c>
       <c r="E153" t="str">
-        <f>IF(ISBLANK(Master_Input!P153),"",Master_Input!P153)</f>
+        <f>IF(ISBLANK(Master_Input!T153),"",Master_Input!T153)</f>
         <v/>
       </c>
       <c r="F153">
-        <f>SUM(Master_Input!H153,Master_Input!K153,Master_Input!N153)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I153)+_xlfn.NUMBERVALUE(Master_Input!M153)+_xlfn.NUMBERVALUE(Master_Input!Q153)</f>
         <v>0</v>
       </c>
       <c r="G153" t="str">
@@ -4218,11 +4244,11 @@
         <v/>
       </c>
       <c r="E154" t="str">
-        <f>IF(ISBLANK(Master_Input!P154),"",Master_Input!P154)</f>
+        <f>IF(ISBLANK(Master_Input!T154),"",Master_Input!T154)</f>
         <v/>
       </c>
       <c r="F154">
-        <f>SUM(Master_Input!H154,Master_Input!K154,Master_Input!N154)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I154)+_xlfn.NUMBERVALUE(Master_Input!M154)+_xlfn.NUMBERVALUE(Master_Input!Q154)</f>
         <v>0</v>
       </c>
       <c r="G154" t="str">
@@ -4240,11 +4266,11 @@
         <v/>
       </c>
       <c r="E155" t="str">
-        <f>IF(ISBLANK(Master_Input!P155),"",Master_Input!P155)</f>
+        <f>IF(ISBLANK(Master_Input!T155),"",Master_Input!T155)</f>
         <v/>
       </c>
       <c r="F155">
-        <f>SUM(Master_Input!H155,Master_Input!K155,Master_Input!N155)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I155)+_xlfn.NUMBERVALUE(Master_Input!M155)+_xlfn.NUMBERVALUE(Master_Input!Q155)</f>
         <v>0</v>
       </c>
       <c r="G155" t="str">
@@ -4262,11 +4288,11 @@
         <v/>
       </c>
       <c r="E156" t="str">
-        <f>IF(ISBLANK(Master_Input!P156),"",Master_Input!P156)</f>
+        <f>IF(ISBLANK(Master_Input!T156),"",Master_Input!T156)</f>
         <v/>
       </c>
       <c r="F156">
-        <f>SUM(Master_Input!H156,Master_Input!K156,Master_Input!N156)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I156)+_xlfn.NUMBERVALUE(Master_Input!M156)+_xlfn.NUMBERVALUE(Master_Input!Q156)</f>
         <v>0</v>
       </c>
       <c r="G156" t="str">
@@ -4284,11 +4310,11 @@
         <v/>
       </c>
       <c r="E157" t="str">
-        <f>IF(ISBLANK(Master_Input!P157),"",Master_Input!P157)</f>
+        <f>IF(ISBLANK(Master_Input!T157),"",Master_Input!T157)</f>
         <v/>
       </c>
       <c r="F157">
-        <f>SUM(Master_Input!H157,Master_Input!K157,Master_Input!N157)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I157)+_xlfn.NUMBERVALUE(Master_Input!M157)+_xlfn.NUMBERVALUE(Master_Input!Q157)</f>
         <v>0</v>
       </c>
       <c r="G157" t="str">
@@ -4306,11 +4332,11 @@
         <v/>
       </c>
       <c r="E158" t="str">
-        <f>IF(ISBLANK(Master_Input!P158),"",Master_Input!P158)</f>
+        <f>IF(ISBLANK(Master_Input!T158),"",Master_Input!T158)</f>
         <v/>
       </c>
       <c r="F158">
-        <f>SUM(Master_Input!H158,Master_Input!K158,Master_Input!N158)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I158)+_xlfn.NUMBERVALUE(Master_Input!M158)+_xlfn.NUMBERVALUE(Master_Input!Q158)</f>
         <v>0</v>
       </c>
       <c r="G158" t="str">
@@ -4328,11 +4354,11 @@
         <v/>
       </c>
       <c r="E159" t="str">
-        <f>IF(ISBLANK(Master_Input!P159),"",Master_Input!P159)</f>
+        <f>IF(ISBLANK(Master_Input!T159),"",Master_Input!T159)</f>
         <v/>
       </c>
       <c r="F159">
-        <f>SUM(Master_Input!H159,Master_Input!K159,Master_Input!N159)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I159)+_xlfn.NUMBERVALUE(Master_Input!M159)+_xlfn.NUMBERVALUE(Master_Input!Q159)</f>
         <v>0</v>
       </c>
       <c r="G159" t="str">
@@ -4350,11 +4376,11 @@
         <v/>
       </c>
       <c r="E160" t="str">
-        <f>IF(ISBLANK(Master_Input!P160),"",Master_Input!P160)</f>
+        <f>IF(ISBLANK(Master_Input!T160),"",Master_Input!T160)</f>
         <v/>
       </c>
       <c r="F160">
-        <f>SUM(Master_Input!H160,Master_Input!K160,Master_Input!N160)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I160)+_xlfn.NUMBERVALUE(Master_Input!M160)+_xlfn.NUMBERVALUE(Master_Input!Q160)</f>
         <v>0</v>
       </c>
       <c r="G160" t="str">
@@ -4372,11 +4398,11 @@
         <v/>
       </c>
       <c r="E161" t="str">
-        <f>IF(ISBLANK(Master_Input!P161),"",Master_Input!P161)</f>
+        <f>IF(ISBLANK(Master_Input!T161),"",Master_Input!T161)</f>
         <v/>
       </c>
       <c r="F161">
-        <f>SUM(Master_Input!H161,Master_Input!K161,Master_Input!N161)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I161)+_xlfn.NUMBERVALUE(Master_Input!M161)+_xlfn.NUMBERVALUE(Master_Input!Q161)</f>
         <v>0</v>
       </c>
       <c r="G161" t="str">
@@ -4394,11 +4420,11 @@
         <v/>
       </c>
       <c r="E162" t="str">
-        <f>IF(ISBLANK(Master_Input!P162),"",Master_Input!P162)</f>
+        <f>IF(ISBLANK(Master_Input!T162),"",Master_Input!T162)</f>
         <v/>
       </c>
       <c r="F162">
-        <f>SUM(Master_Input!H162,Master_Input!K162,Master_Input!N162)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I162)+_xlfn.NUMBERVALUE(Master_Input!M162)+_xlfn.NUMBERVALUE(Master_Input!Q162)</f>
         <v>0</v>
       </c>
       <c r="G162" t="str">
@@ -4416,11 +4442,11 @@
         <v/>
       </c>
       <c r="E163" t="str">
-        <f>IF(ISBLANK(Master_Input!P163),"",Master_Input!P163)</f>
+        <f>IF(ISBLANK(Master_Input!T163),"",Master_Input!T163)</f>
         <v/>
       </c>
       <c r="F163">
-        <f>SUM(Master_Input!H163,Master_Input!K163,Master_Input!N163)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I163)+_xlfn.NUMBERVALUE(Master_Input!M163)+_xlfn.NUMBERVALUE(Master_Input!Q163)</f>
         <v>0</v>
       </c>
       <c r="G163" t="str">
@@ -4438,11 +4464,11 @@
         <v/>
       </c>
       <c r="E164" t="str">
-        <f>IF(ISBLANK(Master_Input!P164),"",Master_Input!P164)</f>
+        <f>IF(ISBLANK(Master_Input!T164),"",Master_Input!T164)</f>
         <v/>
       </c>
       <c r="F164">
-        <f>SUM(Master_Input!H164,Master_Input!K164,Master_Input!N164)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I164)+_xlfn.NUMBERVALUE(Master_Input!M164)+_xlfn.NUMBERVALUE(Master_Input!Q164)</f>
         <v>0</v>
       </c>
       <c r="G164" t="str">
@@ -4460,11 +4486,11 @@
         <v/>
       </c>
       <c r="E165" t="str">
-        <f>IF(ISBLANK(Master_Input!P165),"",Master_Input!P165)</f>
+        <f>IF(ISBLANK(Master_Input!T165),"",Master_Input!T165)</f>
         <v/>
       </c>
       <c r="F165">
-        <f>SUM(Master_Input!H165,Master_Input!K165,Master_Input!N165)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I165)+_xlfn.NUMBERVALUE(Master_Input!M165)+_xlfn.NUMBERVALUE(Master_Input!Q165)</f>
         <v>0</v>
       </c>
       <c r="G165" t="str">
@@ -4482,11 +4508,11 @@
         <v/>
       </c>
       <c r="E166" t="str">
-        <f>IF(ISBLANK(Master_Input!P166),"",Master_Input!P166)</f>
+        <f>IF(ISBLANK(Master_Input!T166),"",Master_Input!T166)</f>
         <v/>
       </c>
       <c r="F166">
-        <f>SUM(Master_Input!H166,Master_Input!K166,Master_Input!N166)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I166)+_xlfn.NUMBERVALUE(Master_Input!M166)+_xlfn.NUMBERVALUE(Master_Input!Q166)</f>
         <v>0</v>
       </c>
       <c r="G166" t="str">
@@ -4504,11 +4530,11 @@
         <v/>
       </c>
       <c r="E167" t="str">
-        <f>IF(ISBLANK(Master_Input!P167),"",Master_Input!P167)</f>
+        <f>IF(ISBLANK(Master_Input!T167),"",Master_Input!T167)</f>
         <v/>
       </c>
       <c r="F167">
-        <f>SUM(Master_Input!H167,Master_Input!K167,Master_Input!N167)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I167)+_xlfn.NUMBERVALUE(Master_Input!M167)+_xlfn.NUMBERVALUE(Master_Input!Q167)</f>
         <v>0</v>
       </c>
       <c r="G167" t="str">
@@ -4526,11 +4552,11 @@
         <v/>
       </c>
       <c r="E168" t="str">
-        <f>IF(ISBLANK(Master_Input!P168),"",Master_Input!P168)</f>
+        <f>IF(ISBLANK(Master_Input!T168),"",Master_Input!T168)</f>
         <v/>
       </c>
       <c r="F168">
-        <f>SUM(Master_Input!H168,Master_Input!K168,Master_Input!N168)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I168)+_xlfn.NUMBERVALUE(Master_Input!M168)+_xlfn.NUMBERVALUE(Master_Input!Q168)</f>
         <v>0</v>
       </c>
       <c r="G168" t="str">
@@ -4548,11 +4574,11 @@
         <v/>
       </c>
       <c r="E169" t="str">
-        <f>IF(ISBLANK(Master_Input!P169),"",Master_Input!P169)</f>
+        <f>IF(ISBLANK(Master_Input!T169),"",Master_Input!T169)</f>
         <v/>
       </c>
       <c r="F169">
-        <f>SUM(Master_Input!H169,Master_Input!K169,Master_Input!N169)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I169)+_xlfn.NUMBERVALUE(Master_Input!M169)+_xlfn.NUMBERVALUE(Master_Input!Q169)</f>
         <v>0</v>
       </c>
       <c r="G169" t="str">
@@ -4570,11 +4596,11 @@
         <v/>
       </c>
       <c r="E170" t="str">
-        <f>IF(ISBLANK(Master_Input!P170),"",Master_Input!P170)</f>
+        <f>IF(ISBLANK(Master_Input!T170),"",Master_Input!T170)</f>
         <v/>
       </c>
       <c r="F170">
-        <f>SUM(Master_Input!H170,Master_Input!K170,Master_Input!N170)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I170)+_xlfn.NUMBERVALUE(Master_Input!M170)+_xlfn.NUMBERVALUE(Master_Input!Q170)</f>
         <v>0</v>
       </c>
       <c r="G170" t="str">
@@ -4592,11 +4618,11 @@
         <v/>
       </c>
       <c r="E171" t="str">
-        <f>IF(ISBLANK(Master_Input!P171),"",Master_Input!P171)</f>
+        <f>IF(ISBLANK(Master_Input!T171),"",Master_Input!T171)</f>
         <v/>
       </c>
       <c r="F171">
-        <f>SUM(Master_Input!H171,Master_Input!K171,Master_Input!N171)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I171)+_xlfn.NUMBERVALUE(Master_Input!M171)+_xlfn.NUMBERVALUE(Master_Input!Q171)</f>
         <v>0</v>
       </c>
       <c r="G171" t="str">
@@ -4614,11 +4640,11 @@
         <v/>
       </c>
       <c r="E172" t="str">
-        <f>IF(ISBLANK(Master_Input!P172),"",Master_Input!P172)</f>
+        <f>IF(ISBLANK(Master_Input!T172),"",Master_Input!T172)</f>
         <v/>
       </c>
       <c r="F172">
-        <f>SUM(Master_Input!H172,Master_Input!K172,Master_Input!N172)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I172)+_xlfn.NUMBERVALUE(Master_Input!M172)+_xlfn.NUMBERVALUE(Master_Input!Q172)</f>
         <v>0</v>
       </c>
       <c r="G172" t="str">
@@ -4636,11 +4662,11 @@
         <v/>
       </c>
       <c r="E173" t="str">
-        <f>IF(ISBLANK(Master_Input!P173),"",Master_Input!P173)</f>
+        <f>IF(ISBLANK(Master_Input!T173),"",Master_Input!T173)</f>
         <v/>
       </c>
       <c r="F173">
-        <f>SUM(Master_Input!H173,Master_Input!K173,Master_Input!N173)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I173)+_xlfn.NUMBERVALUE(Master_Input!M173)+_xlfn.NUMBERVALUE(Master_Input!Q173)</f>
         <v>0</v>
       </c>
       <c r="G173" t="str">
@@ -4658,11 +4684,11 @@
         <v/>
       </c>
       <c r="E174" t="str">
-        <f>IF(ISBLANK(Master_Input!P174),"",Master_Input!P174)</f>
+        <f>IF(ISBLANK(Master_Input!T174),"",Master_Input!T174)</f>
         <v/>
       </c>
       <c r="F174">
-        <f>SUM(Master_Input!H174,Master_Input!K174,Master_Input!N174)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I174)+_xlfn.NUMBERVALUE(Master_Input!M174)+_xlfn.NUMBERVALUE(Master_Input!Q174)</f>
         <v>0</v>
       </c>
       <c r="G174" t="str">
@@ -4680,11 +4706,11 @@
         <v/>
       </c>
       <c r="E175" t="str">
-        <f>IF(ISBLANK(Master_Input!P175),"",Master_Input!P175)</f>
+        <f>IF(ISBLANK(Master_Input!T175),"",Master_Input!T175)</f>
         <v/>
       </c>
       <c r="F175">
-        <f>SUM(Master_Input!H175,Master_Input!K175,Master_Input!N175)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I175)+_xlfn.NUMBERVALUE(Master_Input!M175)+_xlfn.NUMBERVALUE(Master_Input!Q175)</f>
         <v>0</v>
       </c>
       <c r="G175" t="str">
@@ -4702,11 +4728,11 @@
         <v/>
       </c>
       <c r="E176" t="str">
-        <f>IF(ISBLANK(Master_Input!P176),"",Master_Input!P176)</f>
+        <f>IF(ISBLANK(Master_Input!T176),"",Master_Input!T176)</f>
         <v/>
       </c>
       <c r="F176">
-        <f>SUM(Master_Input!H176,Master_Input!K176,Master_Input!N176)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I176)+_xlfn.NUMBERVALUE(Master_Input!M176)+_xlfn.NUMBERVALUE(Master_Input!Q176)</f>
         <v>0</v>
       </c>
       <c r="G176" t="str">
@@ -4724,11 +4750,11 @@
         <v/>
       </c>
       <c r="E177" t="str">
-        <f>IF(ISBLANK(Master_Input!P177),"",Master_Input!P177)</f>
+        <f>IF(ISBLANK(Master_Input!T177),"",Master_Input!T177)</f>
         <v/>
       </c>
       <c r="F177">
-        <f>SUM(Master_Input!H177,Master_Input!K177,Master_Input!N177)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I177)+_xlfn.NUMBERVALUE(Master_Input!M177)+_xlfn.NUMBERVALUE(Master_Input!Q177)</f>
         <v>0</v>
       </c>
       <c r="G177" t="str">
@@ -4746,11 +4772,11 @@
         <v/>
       </c>
       <c r="E178" t="str">
-        <f>IF(ISBLANK(Master_Input!P178),"",Master_Input!P178)</f>
+        <f>IF(ISBLANK(Master_Input!T178),"",Master_Input!T178)</f>
         <v/>
       </c>
       <c r="F178">
-        <f>SUM(Master_Input!H178,Master_Input!K178,Master_Input!N178)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I178)+_xlfn.NUMBERVALUE(Master_Input!M178)+_xlfn.NUMBERVALUE(Master_Input!Q178)</f>
         <v>0</v>
       </c>
       <c r="G178" t="str">
@@ -4768,11 +4794,11 @@
         <v/>
       </c>
       <c r="E179" t="str">
-        <f>IF(ISBLANK(Master_Input!P179),"",Master_Input!P179)</f>
+        <f>IF(ISBLANK(Master_Input!T179),"",Master_Input!T179)</f>
         <v/>
       </c>
       <c r="F179">
-        <f>SUM(Master_Input!H179,Master_Input!K179,Master_Input!N179)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I179)+_xlfn.NUMBERVALUE(Master_Input!M179)+_xlfn.NUMBERVALUE(Master_Input!Q179)</f>
         <v>0</v>
       </c>
       <c r="G179" t="str">
@@ -4790,11 +4816,11 @@
         <v/>
       </c>
       <c r="E180" t="str">
-        <f>IF(ISBLANK(Master_Input!P180),"",Master_Input!P180)</f>
+        <f>IF(ISBLANK(Master_Input!T180),"",Master_Input!T180)</f>
         <v/>
       </c>
       <c r="F180">
-        <f>SUM(Master_Input!H180,Master_Input!K180,Master_Input!N180)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I180)+_xlfn.NUMBERVALUE(Master_Input!M180)+_xlfn.NUMBERVALUE(Master_Input!Q180)</f>
         <v>0</v>
       </c>
       <c r="G180" t="str">
@@ -4812,11 +4838,11 @@
         <v/>
       </c>
       <c r="E181" t="str">
-        <f>IF(ISBLANK(Master_Input!P181),"",Master_Input!P181)</f>
+        <f>IF(ISBLANK(Master_Input!T181),"",Master_Input!T181)</f>
         <v/>
       </c>
       <c r="F181">
-        <f>SUM(Master_Input!H181,Master_Input!K181,Master_Input!N181)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I181)+_xlfn.NUMBERVALUE(Master_Input!M181)+_xlfn.NUMBERVALUE(Master_Input!Q181)</f>
         <v>0</v>
       </c>
       <c r="G181" t="str">
@@ -4834,11 +4860,11 @@
         <v/>
       </c>
       <c r="E182" t="str">
-        <f>IF(ISBLANK(Master_Input!P182),"",Master_Input!P182)</f>
+        <f>IF(ISBLANK(Master_Input!T182),"",Master_Input!T182)</f>
         <v/>
       </c>
       <c r="F182">
-        <f>SUM(Master_Input!H182,Master_Input!K182,Master_Input!N182)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I182)+_xlfn.NUMBERVALUE(Master_Input!M182)+_xlfn.NUMBERVALUE(Master_Input!Q182)</f>
         <v>0</v>
       </c>
       <c r="G182" t="str">
@@ -4856,11 +4882,11 @@
         <v/>
       </c>
       <c r="E183" t="str">
-        <f>IF(ISBLANK(Master_Input!P183),"",Master_Input!P183)</f>
+        <f>IF(ISBLANK(Master_Input!T183),"",Master_Input!T183)</f>
         <v/>
       </c>
       <c r="F183">
-        <f>SUM(Master_Input!H183,Master_Input!K183,Master_Input!N183)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I183)+_xlfn.NUMBERVALUE(Master_Input!M183)+_xlfn.NUMBERVALUE(Master_Input!Q183)</f>
         <v>0</v>
       </c>
       <c r="G183" t="str">
@@ -4878,11 +4904,11 @@
         <v/>
       </c>
       <c r="E184" t="str">
-        <f>IF(ISBLANK(Master_Input!P184),"",Master_Input!P184)</f>
+        <f>IF(ISBLANK(Master_Input!T184),"",Master_Input!T184)</f>
         <v/>
       </c>
       <c r="F184">
-        <f>SUM(Master_Input!H184,Master_Input!K184,Master_Input!N184)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I184)+_xlfn.NUMBERVALUE(Master_Input!M184)+_xlfn.NUMBERVALUE(Master_Input!Q184)</f>
         <v>0</v>
       </c>
       <c r="G184" t="str">
@@ -4900,11 +4926,11 @@
         <v/>
       </c>
       <c r="E185" t="str">
-        <f>IF(ISBLANK(Master_Input!P185),"",Master_Input!P185)</f>
+        <f>IF(ISBLANK(Master_Input!T185),"",Master_Input!T185)</f>
         <v/>
       </c>
       <c r="F185">
-        <f>SUM(Master_Input!H185,Master_Input!K185,Master_Input!N185)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I185)+_xlfn.NUMBERVALUE(Master_Input!M185)+_xlfn.NUMBERVALUE(Master_Input!Q185)</f>
         <v>0</v>
       </c>
       <c r="G185" t="str">
@@ -4922,11 +4948,11 @@
         <v/>
       </c>
       <c r="E186" t="str">
-        <f>IF(ISBLANK(Master_Input!P186),"",Master_Input!P186)</f>
+        <f>IF(ISBLANK(Master_Input!T186),"",Master_Input!T186)</f>
         <v/>
       </c>
       <c r="F186">
-        <f>SUM(Master_Input!H186,Master_Input!K186,Master_Input!N186)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I186)+_xlfn.NUMBERVALUE(Master_Input!M186)+_xlfn.NUMBERVALUE(Master_Input!Q186)</f>
         <v>0</v>
       </c>
       <c r="G186" t="str">
@@ -4944,11 +4970,11 @@
         <v/>
       </c>
       <c r="E187" t="str">
-        <f>IF(ISBLANK(Master_Input!P187),"",Master_Input!P187)</f>
+        <f>IF(ISBLANK(Master_Input!T187),"",Master_Input!T187)</f>
         <v/>
       </c>
       <c r="F187">
-        <f>SUM(Master_Input!H187,Master_Input!K187,Master_Input!N187)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I187)+_xlfn.NUMBERVALUE(Master_Input!M187)+_xlfn.NUMBERVALUE(Master_Input!Q187)</f>
         <v>0</v>
       </c>
       <c r="G187" t="str">
@@ -4966,11 +4992,11 @@
         <v/>
       </c>
       <c r="E188" t="str">
-        <f>IF(ISBLANK(Master_Input!P188),"",Master_Input!P188)</f>
+        <f>IF(ISBLANK(Master_Input!T188),"",Master_Input!T188)</f>
         <v/>
       </c>
       <c r="F188">
-        <f>SUM(Master_Input!H188,Master_Input!K188,Master_Input!N188)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I188)+_xlfn.NUMBERVALUE(Master_Input!M188)+_xlfn.NUMBERVALUE(Master_Input!Q188)</f>
         <v>0</v>
       </c>
       <c r="G188" t="str">
@@ -4988,11 +5014,11 @@
         <v/>
       </c>
       <c r="E189" t="str">
-        <f>IF(ISBLANK(Master_Input!P189),"",Master_Input!P189)</f>
+        <f>IF(ISBLANK(Master_Input!T189),"",Master_Input!T189)</f>
         <v/>
       </c>
       <c r="F189">
-        <f>SUM(Master_Input!H189,Master_Input!K189,Master_Input!N189)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I189)+_xlfn.NUMBERVALUE(Master_Input!M189)+_xlfn.NUMBERVALUE(Master_Input!Q189)</f>
         <v>0</v>
       </c>
       <c r="G189" t="str">
@@ -5010,11 +5036,11 @@
         <v/>
       </c>
       <c r="E190" t="str">
-        <f>IF(ISBLANK(Master_Input!P190),"",Master_Input!P190)</f>
+        <f>IF(ISBLANK(Master_Input!T190),"",Master_Input!T190)</f>
         <v/>
       </c>
       <c r="F190">
-        <f>SUM(Master_Input!H190,Master_Input!K190,Master_Input!N190)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I190)+_xlfn.NUMBERVALUE(Master_Input!M190)+_xlfn.NUMBERVALUE(Master_Input!Q190)</f>
         <v>0</v>
       </c>
       <c r="G190" t="str">
@@ -5032,11 +5058,11 @@
         <v/>
       </c>
       <c r="E191" t="str">
-        <f>IF(ISBLANK(Master_Input!P191),"",Master_Input!P191)</f>
+        <f>IF(ISBLANK(Master_Input!T191),"",Master_Input!T191)</f>
         <v/>
       </c>
       <c r="F191">
-        <f>SUM(Master_Input!H191,Master_Input!K191,Master_Input!N191)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I191)+_xlfn.NUMBERVALUE(Master_Input!M191)+_xlfn.NUMBERVALUE(Master_Input!Q191)</f>
         <v>0</v>
       </c>
       <c r="G191" t="str">
@@ -5054,11 +5080,11 @@
         <v/>
       </c>
       <c r="E192" t="str">
-        <f>IF(ISBLANK(Master_Input!P192),"",Master_Input!P192)</f>
+        <f>IF(ISBLANK(Master_Input!T192),"",Master_Input!T192)</f>
         <v/>
       </c>
       <c r="F192">
-        <f>SUM(Master_Input!H192,Master_Input!K192,Master_Input!N192)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I192)+_xlfn.NUMBERVALUE(Master_Input!M192)+_xlfn.NUMBERVALUE(Master_Input!Q192)</f>
         <v>0</v>
       </c>
       <c r="G192" t="str">
@@ -5076,11 +5102,11 @@
         <v/>
       </c>
       <c r="E193" t="str">
-        <f>IF(ISBLANK(Master_Input!P193),"",Master_Input!P193)</f>
+        <f>IF(ISBLANK(Master_Input!T193),"",Master_Input!T193)</f>
         <v/>
       </c>
       <c r="F193">
-        <f>SUM(Master_Input!H193,Master_Input!K193,Master_Input!N193)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I193)+_xlfn.NUMBERVALUE(Master_Input!M193)+_xlfn.NUMBERVALUE(Master_Input!Q193)</f>
         <v>0</v>
       </c>
       <c r="G193" t="str">
@@ -5098,11 +5124,11 @@
         <v/>
       </c>
       <c r="E194" t="str">
-        <f>IF(ISBLANK(Master_Input!P194),"",Master_Input!P194)</f>
+        <f>IF(ISBLANK(Master_Input!T194),"",Master_Input!T194)</f>
         <v/>
       </c>
       <c r="F194">
-        <f>SUM(Master_Input!H194,Master_Input!K194,Master_Input!N194)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I194)+_xlfn.NUMBERVALUE(Master_Input!M194)+_xlfn.NUMBERVALUE(Master_Input!Q194)</f>
         <v>0</v>
       </c>
       <c r="G194" t="str">
@@ -5120,11 +5146,11 @@
         <v/>
       </c>
       <c r="E195" t="str">
-        <f>IF(ISBLANK(Master_Input!P195),"",Master_Input!P195)</f>
+        <f>IF(ISBLANK(Master_Input!T195),"",Master_Input!T195)</f>
         <v/>
       </c>
       <c r="F195">
-        <f>SUM(Master_Input!H195,Master_Input!K195,Master_Input!N195)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I195)+_xlfn.NUMBERVALUE(Master_Input!M195)+_xlfn.NUMBERVALUE(Master_Input!Q195)</f>
         <v>0</v>
       </c>
       <c r="G195" t="str">
@@ -5142,11 +5168,11 @@
         <v/>
       </c>
       <c r="E196" t="str">
-        <f>IF(ISBLANK(Master_Input!P196),"",Master_Input!P196)</f>
+        <f>IF(ISBLANK(Master_Input!T196),"",Master_Input!T196)</f>
         <v/>
       </c>
       <c r="F196">
-        <f>SUM(Master_Input!H196,Master_Input!K196,Master_Input!N196)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I196)+_xlfn.NUMBERVALUE(Master_Input!M196)+_xlfn.NUMBERVALUE(Master_Input!Q196)</f>
         <v>0</v>
       </c>
       <c r="G196" t="str">
@@ -5164,11 +5190,11 @@
         <v/>
       </c>
       <c r="E197" t="str">
-        <f>IF(ISBLANK(Master_Input!P197),"",Master_Input!P197)</f>
+        <f>IF(ISBLANK(Master_Input!T197),"",Master_Input!T197)</f>
         <v/>
       </c>
       <c r="F197">
-        <f>SUM(Master_Input!H197,Master_Input!K197,Master_Input!N197)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I197)+_xlfn.NUMBERVALUE(Master_Input!M197)+_xlfn.NUMBERVALUE(Master_Input!Q197)</f>
         <v>0</v>
       </c>
       <c r="G197" t="str">
@@ -5186,11 +5212,11 @@
         <v/>
       </c>
       <c r="E198" t="str">
-        <f>IF(ISBLANK(Master_Input!P198),"",Master_Input!P198)</f>
+        <f>IF(ISBLANK(Master_Input!T198),"",Master_Input!T198)</f>
         <v/>
       </c>
       <c r="F198">
-        <f>SUM(Master_Input!H198,Master_Input!K198,Master_Input!N198)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I198)+_xlfn.NUMBERVALUE(Master_Input!M198)+_xlfn.NUMBERVALUE(Master_Input!Q198)</f>
         <v>0</v>
       </c>
       <c r="G198" t="str">
@@ -5208,11 +5234,11 @@
         <v/>
       </c>
       <c r="E199" t="str">
-        <f>IF(ISBLANK(Master_Input!P199),"",Master_Input!P199)</f>
+        <f>IF(ISBLANK(Master_Input!T199),"",Master_Input!T199)</f>
         <v/>
       </c>
       <c r="F199">
-        <f>SUM(Master_Input!H199,Master_Input!K199,Master_Input!N199)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I199)+_xlfn.NUMBERVALUE(Master_Input!M199)+_xlfn.NUMBERVALUE(Master_Input!Q199)</f>
         <v>0</v>
       </c>
       <c r="G199" t="str">
@@ -5230,11 +5256,11 @@
         <v/>
       </c>
       <c r="E200" t="str">
-        <f>IF(ISBLANK(Master_Input!P200),"",Master_Input!P200)</f>
+        <f>IF(ISBLANK(Master_Input!T200),"",Master_Input!T200)</f>
         <v/>
       </c>
       <c r="F200">
-        <f>SUM(Master_Input!H200,Master_Input!K200,Master_Input!N200)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I200)+_xlfn.NUMBERVALUE(Master_Input!M200)+_xlfn.NUMBERVALUE(Master_Input!Q200)</f>
         <v>0</v>
       </c>
       <c r="G200" t="str">
@@ -5252,11 +5278,11 @@
         <v/>
       </c>
       <c r="E201" t="str">
-        <f>IF(ISBLANK(Master_Input!P201),"",Master_Input!P201)</f>
+        <f>IF(ISBLANK(Master_Input!T201),"",Master_Input!T201)</f>
         <v/>
       </c>
       <c r="F201">
-        <f>SUM(Master_Input!H201,Master_Input!K201,Master_Input!N201)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I201)+_xlfn.NUMBERVALUE(Master_Input!M201)+_xlfn.NUMBERVALUE(Master_Input!Q201)</f>
         <v>0</v>
       </c>
       <c r="G201" t="str">
@@ -5274,11 +5300,11 @@
         <v/>
       </c>
       <c r="E202" t="str">
-        <f>IF(ISBLANK(Master_Input!P202),"",Master_Input!P202)</f>
+        <f>IF(ISBLANK(Master_Input!T202),"",Master_Input!T202)</f>
         <v/>
       </c>
       <c r="F202">
-        <f>SUM(Master_Input!H202,Master_Input!K202,Master_Input!N202)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I202)+_xlfn.NUMBERVALUE(Master_Input!M202)+_xlfn.NUMBERVALUE(Master_Input!Q202)</f>
         <v>0</v>
       </c>
       <c r="G202" t="str">
@@ -5296,11 +5322,11 @@
         <v/>
       </c>
       <c r="E203" t="str">
-        <f>IF(ISBLANK(Master_Input!P203),"",Master_Input!P203)</f>
+        <f>IF(ISBLANK(Master_Input!T203),"",Master_Input!T203)</f>
         <v/>
       </c>
       <c r="F203">
-        <f>SUM(Master_Input!H203,Master_Input!K203,Master_Input!N203)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I203)+_xlfn.NUMBERVALUE(Master_Input!M203)+_xlfn.NUMBERVALUE(Master_Input!Q203)</f>
         <v>0</v>
       </c>
       <c r="G203" t="str">
@@ -5318,11 +5344,11 @@
         <v/>
       </c>
       <c r="E204" t="str">
-        <f>IF(ISBLANK(Master_Input!P204),"",Master_Input!P204)</f>
+        <f>IF(ISBLANK(Master_Input!T204),"",Master_Input!T204)</f>
         <v/>
       </c>
       <c r="F204">
-        <f>SUM(Master_Input!H204,Master_Input!K204,Master_Input!N204)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I204)+_xlfn.NUMBERVALUE(Master_Input!M204)+_xlfn.NUMBERVALUE(Master_Input!Q204)</f>
         <v>0</v>
       </c>
       <c r="G204" t="str">
@@ -5340,11 +5366,11 @@
         <v/>
       </c>
       <c r="E205" t="str">
-        <f>IF(ISBLANK(Master_Input!P205),"",Master_Input!P205)</f>
+        <f>IF(ISBLANK(Master_Input!T205),"",Master_Input!T205)</f>
         <v/>
       </c>
       <c r="F205">
-        <f>SUM(Master_Input!H205,Master_Input!K205,Master_Input!N205)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I205)+_xlfn.NUMBERVALUE(Master_Input!M205)+_xlfn.NUMBERVALUE(Master_Input!Q205)</f>
         <v>0</v>
       </c>
       <c r="G205" t="str">
@@ -5362,11 +5388,11 @@
         <v/>
       </c>
       <c r="E206" t="str">
-        <f>IF(ISBLANK(Master_Input!P206),"",Master_Input!P206)</f>
+        <f>IF(ISBLANK(Master_Input!T206),"",Master_Input!T206)</f>
         <v/>
       </c>
       <c r="F206">
-        <f>SUM(Master_Input!H206,Master_Input!K206,Master_Input!N206)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I206)+_xlfn.NUMBERVALUE(Master_Input!M206)+_xlfn.NUMBERVALUE(Master_Input!Q206)</f>
         <v>0</v>
       </c>
       <c r="G206" t="str">
@@ -5384,11 +5410,11 @@
         <v/>
       </c>
       <c r="E207" t="str">
-        <f>IF(ISBLANK(Master_Input!P207),"",Master_Input!P207)</f>
+        <f>IF(ISBLANK(Master_Input!T207),"",Master_Input!T207)</f>
         <v/>
       </c>
       <c r="F207">
-        <f>SUM(Master_Input!H207,Master_Input!K207,Master_Input!N207)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I207)+_xlfn.NUMBERVALUE(Master_Input!M207)+_xlfn.NUMBERVALUE(Master_Input!Q207)</f>
         <v>0</v>
       </c>
       <c r="G207" t="str">
@@ -5406,11 +5432,11 @@
         <v/>
       </c>
       <c r="E208" t="str">
-        <f>IF(ISBLANK(Master_Input!P208),"",Master_Input!P208)</f>
+        <f>IF(ISBLANK(Master_Input!T208),"",Master_Input!T208)</f>
         <v/>
       </c>
       <c r="F208">
-        <f>SUM(Master_Input!H208,Master_Input!K208,Master_Input!N208)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I208)+_xlfn.NUMBERVALUE(Master_Input!M208)+_xlfn.NUMBERVALUE(Master_Input!Q208)</f>
         <v>0</v>
       </c>
       <c r="G208" t="str">
@@ -5428,11 +5454,11 @@
         <v/>
       </c>
       <c r="E209" t="str">
-        <f>IF(ISBLANK(Master_Input!P209),"",Master_Input!P209)</f>
+        <f>IF(ISBLANK(Master_Input!T209),"",Master_Input!T209)</f>
         <v/>
       </c>
       <c r="F209">
-        <f>SUM(Master_Input!H209,Master_Input!K209,Master_Input!N209)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I209)+_xlfn.NUMBERVALUE(Master_Input!M209)+_xlfn.NUMBERVALUE(Master_Input!Q209)</f>
         <v>0</v>
       </c>
       <c r="G209" t="str">
@@ -5450,11 +5476,11 @@
         <v/>
       </c>
       <c r="E210" t="str">
-        <f>IF(ISBLANK(Master_Input!P210),"",Master_Input!P210)</f>
+        <f>IF(ISBLANK(Master_Input!T210),"",Master_Input!T210)</f>
         <v/>
       </c>
       <c r="F210">
-        <f>SUM(Master_Input!H210,Master_Input!K210,Master_Input!N210)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I210)+_xlfn.NUMBERVALUE(Master_Input!M210)+_xlfn.NUMBERVALUE(Master_Input!Q210)</f>
         <v>0</v>
       </c>
       <c r="G210" t="str">
@@ -5472,11 +5498,11 @@
         <v/>
       </c>
       <c r="E211" t="str">
-        <f>IF(ISBLANK(Master_Input!P211),"",Master_Input!P211)</f>
+        <f>IF(ISBLANK(Master_Input!T211),"",Master_Input!T211)</f>
         <v/>
       </c>
       <c r="F211">
-        <f>SUM(Master_Input!H211,Master_Input!K211,Master_Input!N211)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I211)+_xlfn.NUMBERVALUE(Master_Input!M211)+_xlfn.NUMBERVALUE(Master_Input!Q211)</f>
         <v>0</v>
       </c>
       <c r="G211" t="str">
@@ -5494,11 +5520,11 @@
         <v/>
       </c>
       <c r="E212" t="str">
-        <f>IF(ISBLANK(Master_Input!P212),"",Master_Input!P212)</f>
+        <f>IF(ISBLANK(Master_Input!T212),"",Master_Input!T212)</f>
         <v/>
       </c>
       <c r="F212">
-        <f>SUM(Master_Input!H212,Master_Input!K212,Master_Input!N212)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I212)+_xlfn.NUMBERVALUE(Master_Input!M212)+_xlfn.NUMBERVALUE(Master_Input!Q212)</f>
         <v>0</v>
       </c>
       <c r="G212" t="str">
@@ -5516,11 +5542,11 @@
         <v/>
       </c>
       <c r="E213" t="str">
-        <f>IF(ISBLANK(Master_Input!P213),"",Master_Input!P213)</f>
+        <f>IF(ISBLANK(Master_Input!T213),"",Master_Input!T213)</f>
         <v/>
       </c>
       <c r="F213">
-        <f>SUM(Master_Input!H213,Master_Input!K213,Master_Input!N213)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I213)+_xlfn.NUMBERVALUE(Master_Input!M213)+_xlfn.NUMBERVALUE(Master_Input!Q213)</f>
         <v>0</v>
       </c>
       <c r="G213" t="str">
@@ -5538,11 +5564,11 @@
         <v/>
       </c>
       <c r="E214" t="str">
-        <f>IF(ISBLANK(Master_Input!P214),"",Master_Input!P214)</f>
+        <f>IF(ISBLANK(Master_Input!T214),"",Master_Input!T214)</f>
         <v/>
       </c>
       <c r="F214">
-        <f>SUM(Master_Input!H214,Master_Input!K214,Master_Input!N214)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I214)+_xlfn.NUMBERVALUE(Master_Input!M214)+_xlfn.NUMBERVALUE(Master_Input!Q214)</f>
         <v>0</v>
       </c>
       <c r="G214" t="str">
@@ -5560,11 +5586,11 @@
         <v/>
       </c>
       <c r="E215" t="str">
-        <f>IF(ISBLANK(Master_Input!P215),"",Master_Input!P215)</f>
+        <f>IF(ISBLANK(Master_Input!T215),"",Master_Input!T215)</f>
         <v/>
       </c>
       <c r="F215">
-        <f>SUM(Master_Input!H215,Master_Input!K215,Master_Input!N215)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I215)+_xlfn.NUMBERVALUE(Master_Input!M215)+_xlfn.NUMBERVALUE(Master_Input!Q215)</f>
         <v>0</v>
       </c>
       <c r="G215" t="str">
@@ -5582,11 +5608,11 @@
         <v/>
       </c>
       <c r="E216" t="str">
-        <f>IF(ISBLANK(Master_Input!P216),"",Master_Input!P216)</f>
+        <f>IF(ISBLANK(Master_Input!T216),"",Master_Input!T216)</f>
         <v/>
       </c>
       <c r="F216">
-        <f>SUM(Master_Input!H216,Master_Input!K216,Master_Input!N216)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I216)+_xlfn.NUMBERVALUE(Master_Input!M216)+_xlfn.NUMBERVALUE(Master_Input!Q216)</f>
         <v>0</v>
       </c>
       <c r="G216" t="str">
@@ -5604,11 +5630,11 @@
         <v/>
       </c>
       <c r="E217" t="str">
-        <f>IF(ISBLANK(Master_Input!P217),"",Master_Input!P217)</f>
+        <f>IF(ISBLANK(Master_Input!T217),"",Master_Input!T217)</f>
         <v/>
       </c>
       <c r="F217">
-        <f>SUM(Master_Input!H217,Master_Input!K217,Master_Input!N217)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I217)+_xlfn.NUMBERVALUE(Master_Input!M217)+_xlfn.NUMBERVALUE(Master_Input!Q217)</f>
         <v>0</v>
       </c>
       <c r="G217" t="str">
@@ -5626,11 +5652,11 @@
         <v/>
       </c>
       <c r="E218" t="str">
-        <f>IF(ISBLANK(Master_Input!P218),"",Master_Input!P218)</f>
+        <f>IF(ISBLANK(Master_Input!T218),"",Master_Input!T218)</f>
         <v/>
       </c>
       <c r="F218">
-        <f>SUM(Master_Input!H218,Master_Input!K218,Master_Input!N218)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I218)+_xlfn.NUMBERVALUE(Master_Input!M218)+_xlfn.NUMBERVALUE(Master_Input!Q218)</f>
         <v>0</v>
       </c>
       <c r="G218" t="str">
@@ -5648,11 +5674,11 @@
         <v/>
       </c>
       <c r="E219" t="str">
-        <f>IF(ISBLANK(Master_Input!P219),"",Master_Input!P219)</f>
+        <f>IF(ISBLANK(Master_Input!T219),"",Master_Input!T219)</f>
         <v/>
       </c>
       <c r="F219">
-        <f>SUM(Master_Input!H219,Master_Input!K219,Master_Input!N219)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I219)+_xlfn.NUMBERVALUE(Master_Input!M219)+_xlfn.NUMBERVALUE(Master_Input!Q219)</f>
         <v>0</v>
       </c>
       <c r="G219" t="str">
@@ -5670,11 +5696,11 @@
         <v/>
       </c>
       <c r="E220" t="str">
-        <f>IF(ISBLANK(Master_Input!P220),"",Master_Input!P220)</f>
+        <f>IF(ISBLANK(Master_Input!T220),"",Master_Input!T220)</f>
         <v/>
       </c>
       <c r="F220">
-        <f>SUM(Master_Input!H220,Master_Input!K220,Master_Input!N220)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I220)+_xlfn.NUMBERVALUE(Master_Input!M220)+_xlfn.NUMBERVALUE(Master_Input!Q220)</f>
         <v>0</v>
       </c>
       <c r="G220" t="str">
@@ -5692,11 +5718,11 @@
         <v/>
       </c>
       <c r="E221" t="str">
-        <f>IF(ISBLANK(Master_Input!P221),"",Master_Input!P221)</f>
+        <f>IF(ISBLANK(Master_Input!T221),"",Master_Input!T221)</f>
         <v/>
       </c>
       <c r="F221">
-        <f>SUM(Master_Input!H221,Master_Input!K221,Master_Input!N221)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I221)+_xlfn.NUMBERVALUE(Master_Input!M221)+_xlfn.NUMBERVALUE(Master_Input!Q221)</f>
         <v>0</v>
       </c>
       <c r="G221" t="str">
@@ -5714,11 +5740,11 @@
         <v/>
       </c>
       <c r="E222" t="str">
-        <f>IF(ISBLANK(Master_Input!P222),"",Master_Input!P222)</f>
+        <f>IF(ISBLANK(Master_Input!T222),"",Master_Input!T222)</f>
         <v/>
       </c>
       <c r="F222">
-        <f>SUM(Master_Input!H222,Master_Input!K222,Master_Input!N222)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I222)+_xlfn.NUMBERVALUE(Master_Input!M222)+_xlfn.NUMBERVALUE(Master_Input!Q222)</f>
         <v>0</v>
       </c>
       <c r="G222" t="str">
@@ -5736,11 +5762,11 @@
         <v/>
       </c>
       <c r="E223" t="str">
-        <f>IF(ISBLANK(Master_Input!P223),"",Master_Input!P223)</f>
+        <f>IF(ISBLANK(Master_Input!T223),"",Master_Input!T223)</f>
         <v/>
       </c>
       <c r="F223">
-        <f>SUM(Master_Input!H223,Master_Input!K223,Master_Input!N223)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I223)+_xlfn.NUMBERVALUE(Master_Input!M223)+_xlfn.NUMBERVALUE(Master_Input!Q223)</f>
         <v>0</v>
       </c>
       <c r="G223" t="str">
@@ -5758,11 +5784,11 @@
         <v/>
       </c>
       <c r="E224" t="str">
-        <f>IF(ISBLANK(Master_Input!P224),"",Master_Input!P224)</f>
+        <f>IF(ISBLANK(Master_Input!T224),"",Master_Input!T224)</f>
         <v/>
       </c>
       <c r="F224">
-        <f>SUM(Master_Input!H224,Master_Input!K224,Master_Input!N224)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I224)+_xlfn.NUMBERVALUE(Master_Input!M224)+_xlfn.NUMBERVALUE(Master_Input!Q224)</f>
         <v>0</v>
       </c>
       <c r="G224" t="str">
@@ -5780,11 +5806,11 @@
         <v/>
       </c>
       <c r="E225" t="str">
-        <f>IF(ISBLANK(Master_Input!P225),"",Master_Input!P225)</f>
+        <f>IF(ISBLANK(Master_Input!T225),"",Master_Input!T225)</f>
         <v/>
       </c>
       <c r="F225">
-        <f>SUM(Master_Input!H225,Master_Input!K225,Master_Input!N225)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I225)+_xlfn.NUMBERVALUE(Master_Input!M225)+_xlfn.NUMBERVALUE(Master_Input!Q225)</f>
         <v>0</v>
       </c>
       <c r="G225" t="str">
@@ -5802,11 +5828,11 @@
         <v/>
       </c>
       <c r="E226" t="str">
-        <f>IF(ISBLANK(Master_Input!P226),"",Master_Input!P226)</f>
+        <f>IF(ISBLANK(Master_Input!T226),"",Master_Input!T226)</f>
         <v/>
       </c>
       <c r="F226">
-        <f>SUM(Master_Input!H226,Master_Input!K226,Master_Input!N226)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I226)+_xlfn.NUMBERVALUE(Master_Input!M226)+_xlfn.NUMBERVALUE(Master_Input!Q226)</f>
         <v>0</v>
       </c>
       <c r="G226" t="str">
@@ -5824,11 +5850,11 @@
         <v/>
       </c>
       <c r="E227" t="str">
-        <f>IF(ISBLANK(Master_Input!P227),"",Master_Input!P227)</f>
+        <f>IF(ISBLANK(Master_Input!T227),"",Master_Input!T227)</f>
         <v/>
       </c>
       <c r="F227">
-        <f>SUM(Master_Input!H227,Master_Input!K227,Master_Input!N227)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I227)+_xlfn.NUMBERVALUE(Master_Input!M227)+_xlfn.NUMBERVALUE(Master_Input!Q227)</f>
         <v>0</v>
       </c>
       <c r="G227" t="str">
@@ -5846,11 +5872,11 @@
         <v/>
       </c>
       <c r="E228" t="str">
-        <f>IF(ISBLANK(Master_Input!P228),"",Master_Input!P228)</f>
+        <f>IF(ISBLANK(Master_Input!T228),"",Master_Input!T228)</f>
         <v/>
       </c>
       <c r="F228">
-        <f>SUM(Master_Input!H228,Master_Input!K228,Master_Input!N228)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I228)+_xlfn.NUMBERVALUE(Master_Input!M228)+_xlfn.NUMBERVALUE(Master_Input!Q228)</f>
         <v>0</v>
       </c>
       <c r="G228" t="str">
@@ -5868,11 +5894,11 @@
         <v/>
       </c>
       <c r="E229" t="str">
-        <f>IF(ISBLANK(Master_Input!P229),"",Master_Input!P229)</f>
+        <f>IF(ISBLANK(Master_Input!T229),"",Master_Input!T229)</f>
         <v/>
       </c>
       <c r="F229">
-        <f>SUM(Master_Input!H229,Master_Input!K229,Master_Input!N229)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I229)+_xlfn.NUMBERVALUE(Master_Input!M229)+_xlfn.NUMBERVALUE(Master_Input!Q229)</f>
         <v>0</v>
       </c>
       <c r="G229" t="str">
@@ -5890,11 +5916,11 @@
         <v/>
       </c>
       <c r="E230" t="str">
-        <f>IF(ISBLANK(Master_Input!P230),"",Master_Input!P230)</f>
+        <f>IF(ISBLANK(Master_Input!T230),"",Master_Input!T230)</f>
         <v/>
       </c>
       <c r="F230">
-        <f>SUM(Master_Input!H230,Master_Input!K230,Master_Input!N230)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I230)+_xlfn.NUMBERVALUE(Master_Input!M230)+_xlfn.NUMBERVALUE(Master_Input!Q230)</f>
         <v>0</v>
       </c>
       <c r="G230" t="str">
@@ -5912,11 +5938,11 @@
         <v/>
       </c>
       <c r="E231" t="str">
-        <f>IF(ISBLANK(Master_Input!P231),"",Master_Input!P231)</f>
+        <f>IF(ISBLANK(Master_Input!T231),"",Master_Input!T231)</f>
         <v/>
       </c>
       <c r="F231">
-        <f>SUM(Master_Input!H231,Master_Input!K231,Master_Input!N231)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I231)+_xlfn.NUMBERVALUE(Master_Input!M231)+_xlfn.NUMBERVALUE(Master_Input!Q231)</f>
         <v>0</v>
       </c>
       <c r="G231" t="str">
@@ -5934,11 +5960,11 @@
         <v/>
       </c>
       <c r="E232" t="str">
-        <f>IF(ISBLANK(Master_Input!P232),"",Master_Input!P232)</f>
+        <f>IF(ISBLANK(Master_Input!T232),"",Master_Input!T232)</f>
         <v/>
       </c>
       <c r="F232">
-        <f>SUM(Master_Input!H232,Master_Input!K232,Master_Input!N232)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I232)+_xlfn.NUMBERVALUE(Master_Input!M232)+_xlfn.NUMBERVALUE(Master_Input!Q232)</f>
         <v>0</v>
       </c>
       <c r="G232" t="str">
@@ -5956,11 +5982,11 @@
         <v/>
       </c>
       <c r="E233" t="str">
-        <f>IF(ISBLANK(Master_Input!P233),"",Master_Input!P233)</f>
+        <f>IF(ISBLANK(Master_Input!T233),"",Master_Input!T233)</f>
         <v/>
       </c>
       <c r="F233">
-        <f>SUM(Master_Input!H233,Master_Input!K233,Master_Input!N233)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I233)+_xlfn.NUMBERVALUE(Master_Input!M233)+_xlfn.NUMBERVALUE(Master_Input!Q233)</f>
         <v>0</v>
       </c>
       <c r="G233" t="str">
@@ -5978,11 +6004,11 @@
         <v/>
       </c>
       <c r="E234" t="str">
-        <f>IF(ISBLANK(Master_Input!P234),"",Master_Input!P234)</f>
+        <f>IF(ISBLANK(Master_Input!T234),"",Master_Input!T234)</f>
         <v/>
       </c>
       <c r="F234">
-        <f>SUM(Master_Input!H234,Master_Input!K234,Master_Input!N234)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I234)+_xlfn.NUMBERVALUE(Master_Input!M234)+_xlfn.NUMBERVALUE(Master_Input!Q234)</f>
         <v>0</v>
       </c>
       <c r="G234" t="str">
@@ -6000,11 +6026,11 @@
         <v/>
       </c>
       <c r="E235" t="str">
-        <f>IF(ISBLANK(Master_Input!P235),"",Master_Input!P235)</f>
+        <f>IF(ISBLANK(Master_Input!T235),"",Master_Input!T235)</f>
         <v/>
       </c>
       <c r="F235">
-        <f>SUM(Master_Input!H235,Master_Input!K235,Master_Input!N235)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I235)+_xlfn.NUMBERVALUE(Master_Input!M235)+_xlfn.NUMBERVALUE(Master_Input!Q235)</f>
         <v>0</v>
       </c>
       <c r="G235" t="str">
@@ -6022,11 +6048,11 @@
         <v/>
       </c>
       <c r="E236" t="str">
-        <f>IF(ISBLANK(Master_Input!P236),"",Master_Input!P236)</f>
+        <f>IF(ISBLANK(Master_Input!T236),"",Master_Input!T236)</f>
         <v/>
       </c>
       <c r="F236">
-        <f>SUM(Master_Input!H236,Master_Input!K236,Master_Input!N236)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I236)+_xlfn.NUMBERVALUE(Master_Input!M236)+_xlfn.NUMBERVALUE(Master_Input!Q236)</f>
         <v>0</v>
       </c>
       <c r="G236" t="str">
@@ -6044,11 +6070,11 @@
         <v/>
       </c>
       <c r="E237" t="str">
-        <f>IF(ISBLANK(Master_Input!P237),"",Master_Input!P237)</f>
+        <f>IF(ISBLANK(Master_Input!T237),"",Master_Input!T237)</f>
         <v/>
       </c>
       <c r="F237">
-        <f>SUM(Master_Input!H237,Master_Input!K237,Master_Input!N237)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I237)+_xlfn.NUMBERVALUE(Master_Input!M237)+_xlfn.NUMBERVALUE(Master_Input!Q237)</f>
         <v>0</v>
       </c>
       <c r="G237" t="str">
@@ -6066,11 +6092,11 @@
         <v/>
       </c>
       <c r="E238" t="str">
-        <f>IF(ISBLANK(Master_Input!P238),"",Master_Input!P238)</f>
+        <f>IF(ISBLANK(Master_Input!T238),"",Master_Input!T238)</f>
         <v/>
       </c>
       <c r="F238">
-        <f>SUM(Master_Input!H238,Master_Input!K238,Master_Input!N238)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I238)+_xlfn.NUMBERVALUE(Master_Input!M238)+_xlfn.NUMBERVALUE(Master_Input!Q238)</f>
         <v>0</v>
       </c>
       <c r="G238" t="str">
@@ -6088,11 +6114,11 @@
         <v/>
       </c>
       <c r="E239" t="str">
-        <f>IF(ISBLANK(Master_Input!P239),"",Master_Input!P239)</f>
+        <f>IF(ISBLANK(Master_Input!T239),"",Master_Input!T239)</f>
         <v/>
       </c>
       <c r="F239">
-        <f>SUM(Master_Input!H239,Master_Input!K239,Master_Input!N239)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I239)+_xlfn.NUMBERVALUE(Master_Input!M239)+_xlfn.NUMBERVALUE(Master_Input!Q239)</f>
         <v>0</v>
       </c>
       <c r="G239" t="str">
@@ -6110,11 +6136,11 @@
         <v/>
       </c>
       <c r="E240" t="str">
-        <f>IF(ISBLANK(Master_Input!P240),"",Master_Input!P240)</f>
+        <f>IF(ISBLANK(Master_Input!T240),"",Master_Input!T240)</f>
         <v/>
       </c>
       <c r="F240">
-        <f>SUM(Master_Input!H240,Master_Input!K240,Master_Input!N240)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I240)+_xlfn.NUMBERVALUE(Master_Input!M240)+_xlfn.NUMBERVALUE(Master_Input!Q240)</f>
         <v>0</v>
       </c>
       <c r="G240" t="str">
@@ -6132,11 +6158,11 @@
         <v/>
       </c>
       <c r="E241" t="str">
-        <f>IF(ISBLANK(Master_Input!P241),"",Master_Input!P241)</f>
+        <f>IF(ISBLANK(Master_Input!T241),"",Master_Input!T241)</f>
         <v/>
       </c>
       <c r="F241">
-        <f>SUM(Master_Input!H241,Master_Input!K241,Master_Input!N241)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I241)+_xlfn.NUMBERVALUE(Master_Input!M241)+_xlfn.NUMBERVALUE(Master_Input!Q241)</f>
         <v>0</v>
       </c>
       <c r="G241" t="str">
@@ -6154,11 +6180,11 @@
         <v/>
       </c>
       <c r="E242" t="str">
-        <f>IF(ISBLANK(Master_Input!P242),"",Master_Input!P242)</f>
+        <f>IF(ISBLANK(Master_Input!T242),"",Master_Input!T242)</f>
         <v/>
       </c>
       <c r="F242">
-        <f>SUM(Master_Input!H242,Master_Input!K242,Master_Input!N242)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I242)+_xlfn.NUMBERVALUE(Master_Input!M242)+_xlfn.NUMBERVALUE(Master_Input!Q242)</f>
         <v>0</v>
       </c>
       <c r="G242" t="str">
@@ -6176,11 +6202,11 @@
         <v/>
       </c>
       <c r="E243" t="str">
-        <f>IF(ISBLANK(Master_Input!P243),"",Master_Input!P243)</f>
+        <f>IF(ISBLANK(Master_Input!T243),"",Master_Input!T243)</f>
         <v/>
       </c>
       <c r="F243">
-        <f>SUM(Master_Input!H243,Master_Input!K243,Master_Input!N243)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I243)+_xlfn.NUMBERVALUE(Master_Input!M243)+_xlfn.NUMBERVALUE(Master_Input!Q243)</f>
         <v>0</v>
       </c>
       <c r="G243" t="str">
@@ -6198,11 +6224,11 @@
         <v/>
       </c>
       <c r="E244" t="str">
-        <f>IF(ISBLANK(Master_Input!P244),"",Master_Input!P244)</f>
+        <f>IF(ISBLANK(Master_Input!T244),"",Master_Input!T244)</f>
         <v/>
       </c>
       <c r="F244">
-        <f>SUM(Master_Input!H244,Master_Input!K244,Master_Input!N244)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I244)+_xlfn.NUMBERVALUE(Master_Input!M244)+_xlfn.NUMBERVALUE(Master_Input!Q244)</f>
         <v>0</v>
       </c>
       <c r="G244" t="str">
@@ -6220,11 +6246,11 @@
         <v/>
       </c>
       <c r="E245" t="str">
-        <f>IF(ISBLANK(Master_Input!P245),"",Master_Input!P245)</f>
+        <f>IF(ISBLANK(Master_Input!T245),"",Master_Input!T245)</f>
         <v/>
       </c>
       <c r="F245">
-        <f>SUM(Master_Input!H245,Master_Input!K245,Master_Input!N245)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I245)+_xlfn.NUMBERVALUE(Master_Input!M245)+_xlfn.NUMBERVALUE(Master_Input!Q245)</f>
         <v>0</v>
       </c>
       <c r="G245" t="str">
@@ -6242,11 +6268,11 @@
         <v/>
       </c>
       <c r="E246" t="str">
-        <f>IF(ISBLANK(Master_Input!P246),"",Master_Input!P246)</f>
+        <f>IF(ISBLANK(Master_Input!T246),"",Master_Input!T246)</f>
         <v/>
       </c>
       <c r="F246">
-        <f>SUM(Master_Input!H246,Master_Input!K246,Master_Input!N246)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I246)+_xlfn.NUMBERVALUE(Master_Input!M246)+_xlfn.NUMBERVALUE(Master_Input!Q246)</f>
         <v>0</v>
       </c>
       <c r="G246" t="str">
@@ -6264,11 +6290,11 @@
         <v/>
       </c>
       <c r="E247" t="str">
-        <f>IF(ISBLANK(Master_Input!P247),"",Master_Input!P247)</f>
+        <f>IF(ISBLANK(Master_Input!T247),"",Master_Input!T247)</f>
         <v/>
       </c>
       <c r="F247">
-        <f>SUM(Master_Input!H247,Master_Input!K247,Master_Input!N247)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I247)+_xlfn.NUMBERVALUE(Master_Input!M247)+_xlfn.NUMBERVALUE(Master_Input!Q247)</f>
         <v>0</v>
       </c>
       <c r="G247" t="str">
@@ -6286,11 +6312,11 @@
         <v/>
       </c>
       <c r="E248" t="str">
-        <f>IF(ISBLANK(Master_Input!P248),"",Master_Input!P248)</f>
+        <f>IF(ISBLANK(Master_Input!T248),"",Master_Input!T248)</f>
         <v/>
       </c>
       <c r="F248">
-        <f>SUM(Master_Input!H248,Master_Input!K248,Master_Input!N248)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I248)+_xlfn.NUMBERVALUE(Master_Input!M248)+_xlfn.NUMBERVALUE(Master_Input!Q248)</f>
         <v>0</v>
       </c>
       <c r="G248" t="str">
@@ -6308,11 +6334,11 @@
         <v/>
       </c>
       <c r="E249" t="str">
-        <f>IF(ISBLANK(Master_Input!P249),"",Master_Input!P249)</f>
+        <f>IF(ISBLANK(Master_Input!T249),"",Master_Input!T249)</f>
         <v/>
       </c>
       <c r="F249">
-        <f>SUM(Master_Input!H249,Master_Input!K249,Master_Input!N249)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I249)+_xlfn.NUMBERVALUE(Master_Input!M249)+_xlfn.NUMBERVALUE(Master_Input!Q249)</f>
         <v>0</v>
       </c>
       <c r="G249" t="str">
@@ -6330,11 +6356,11 @@
         <v/>
       </c>
       <c r="E250" t="str">
-        <f>IF(ISBLANK(Master_Input!P250),"",Master_Input!P250)</f>
+        <f>IF(ISBLANK(Master_Input!T250),"",Master_Input!T250)</f>
         <v/>
       </c>
       <c r="F250">
-        <f>SUM(Master_Input!H250,Master_Input!K250,Master_Input!N250)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I250)+_xlfn.NUMBERVALUE(Master_Input!M250)+_xlfn.NUMBERVALUE(Master_Input!Q250)</f>
         <v>0</v>
       </c>
       <c r="G250" t="str">
@@ -6352,11 +6378,11 @@
         <v/>
       </c>
       <c r="E251" t="str">
-        <f>IF(ISBLANK(Master_Input!P251),"",Master_Input!P251)</f>
+        <f>IF(ISBLANK(Master_Input!T251),"",Master_Input!T251)</f>
         <v/>
       </c>
       <c r="F251">
-        <f>SUM(Master_Input!H251,Master_Input!K251,Master_Input!N251)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I251)+_xlfn.NUMBERVALUE(Master_Input!M251)+_xlfn.NUMBERVALUE(Master_Input!Q251)</f>
         <v>0</v>
       </c>
       <c r="G251" t="str">
@@ -6374,11 +6400,11 @@
         <v/>
       </c>
       <c r="E252" t="str">
-        <f>IF(ISBLANK(Master_Input!P252),"",Master_Input!P252)</f>
+        <f>IF(ISBLANK(Master_Input!T252),"",Master_Input!T252)</f>
         <v/>
       </c>
       <c r="F252">
-        <f>SUM(Master_Input!H252,Master_Input!K252,Master_Input!N252)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I252)+_xlfn.NUMBERVALUE(Master_Input!M252)+_xlfn.NUMBERVALUE(Master_Input!Q252)</f>
         <v>0</v>
       </c>
       <c r="G252" t="str">
@@ -6396,11 +6422,11 @@
         <v/>
       </c>
       <c r="E253" t="str">
-        <f>IF(ISBLANK(Master_Input!P253),"",Master_Input!P253)</f>
+        <f>IF(ISBLANK(Master_Input!T253),"",Master_Input!T253)</f>
         <v/>
       </c>
       <c r="F253">
-        <f>SUM(Master_Input!H253,Master_Input!K253,Master_Input!N253)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I253)+_xlfn.NUMBERVALUE(Master_Input!M253)+_xlfn.NUMBERVALUE(Master_Input!Q253)</f>
         <v>0</v>
       </c>
       <c r="G253" t="str">
@@ -6418,11 +6444,11 @@
         <v/>
       </c>
       <c r="E254" t="str">
-        <f>IF(ISBLANK(Master_Input!P254),"",Master_Input!P254)</f>
+        <f>IF(ISBLANK(Master_Input!T254),"",Master_Input!T254)</f>
         <v/>
       </c>
       <c r="F254">
-        <f>SUM(Master_Input!H254,Master_Input!K254,Master_Input!N254)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I254)+_xlfn.NUMBERVALUE(Master_Input!M254)+_xlfn.NUMBERVALUE(Master_Input!Q254)</f>
         <v>0</v>
       </c>
       <c r="G254" t="str">
@@ -6440,11 +6466,11 @@
         <v/>
       </c>
       <c r="E255" t="str">
-        <f>IF(ISBLANK(Master_Input!P255),"",Master_Input!P255)</f>
+        <f>IF(ISBLANK(Master_Input!T255),"",Master_Input!T255)</f>
         <v/>
       </c>
       <c r="F255">
-        <f>SUM(Master_Input!H255,Master_Input!K255,Master_Input!N255)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I255)+_xlfn.NUMBERVALUE(Master_Input!M255)+_xlfn.NUMBERVALUE(Master_Input!Q255)</f>
         <v>0</v>
       </c>
       <c r="G255" t="str">
@@ -6462,11 +6488,11 @@
         <v/>
       </c>
       <c r="E256" t="str">
-        <f>IF(ISBLANK(Master_Input!P256),"",Master_Input!P256)</f>
+        <f>IF(ISBLANK(Master_Input!T256),"",Master_Input!T256)</f>
         <v/>
       </c>
       <c r="F256">
-        <f>SUM(Master_Input!H256,Master_Input!K256,Master_Input!N256)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I256)+_xlfn.NUMBERVALUE(Master_Input!M256)+_xlfn.NUMBERVALUE(Master_Input!Q256)</f>
         <v>0</v>
       </c>
       <c r="G256" t="str">
@@ -6484,11 +6510,11 @@
         <v/>
       </c>
       <c r="E257" t="str">
-        <f>IF(ISBLANK(Master_Input!P257),"",Master_Input!P257)</f>
+        <f>IF(ISBLANK(Master_Input!T257),"",Master_Input!T257)</f>
         <v/>
       </c>
       <c r="F257">
-        <f>SUM(Master_Input!H257,Master_Input!K257,Master_Input!N257)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I257)+_xlfn.NUMBERVALUE(Master_Input!M257)+_xlfn.NUMBERVALUE(Master_Input!Q257)</f>
         <v>0</v>
       </c>
       <c r="G257" t="str">
@@ -6506,11 +6532,11 @@
         <v/>
       </c>
       <c r="E258" t="str">
-        <f>IF(ISBLANK(Master_Input!P258),"",Master_Input!P258)</f>
+        <f>IF(ISBLANK(Master_Input!T258),"",Master_Input!T258)</f>
         <v/>
       </c>
       <c r="F258">
-        <f>SUM(Master_Input!H258,Master_Input!K258,Master_Input!N258)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I258)+_xlfn.NUMBERVALUE(Master_Input!M258)+_xlfn.NUMBERVALUE(Master_Input!Q258)</f>
         <v>0</v>
       </c>
       <c r="G258" t="str">
@@ -6528,11 +6554,11 @@
         <v/>
       </c>
       <c r="E259" t="str">
-        <f>IF(ISBLANK(Master_Input!P259),"",Master_Input!P259)</f>
+        <f>IF(ISBLANK(Master_Input!T259),"",Master_Input!T259)</f>
         <v/>
       </c>
       <c r="F259">
-        <f>SUM(Master_Input!H259,Master_Input!K259,Master_Input!N259)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I259)+_xlfn.NUMBERVALUE(Master_Input!M259)+_xlfn.NUMBERVALUE(Master_Input!Q259)</f>
         <v>0</v>
       </c>
       <c r="G259" t="str">
@@ -6550,11 +6576,11 @@
         <v/>
       </c>
       <c r="E260" t="str">
-        <f>IF(ISBLANK(Master_Input!P260),"",Master_Input!P260)</f>
+        <f>IF(ISBLANK(Master_Input!T260),"",Master_Input!T260)</f>
         <v/>
       </c>
       <c r="F260">
-        <f>SUM(Master_Input!H260,Master_Input!K260,Master_Input!N260)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I260)+_xlfn.NUMBERVALUE(Master_Input!M260)+_xlfn.NUMBERVALUE(Master_Input!Q260)</f>
         <v>0</v>
       </c>
       <c r="G260" t="str">
@@ -6572,11 +6598,11 @@
         <v/>
       </c>
       <c r="E261" t="str">
-        <f>IF(ISBLANK(Master_Input!P261),"",Master_Input!P261)</f>
+        <f>IF(ISBLANK(Master_Input!T261),"",Master_Input!T261)</f>
         <v/>
       </c>
       <c r="F261">
-        <f>SUM(Master_Input!H261,Master_Input!K261,Master_Input!N261)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I261)+_xlfn.NUMBERVALUE(Master_Input!M261)+_xlfn.NUMBERVALUE(Master_Input!Q261)</f>
         <v>0</v>
       </c>
       <c r="G261" t="str">
@@ -6594,11 +6620,11 @@
         <v/>
       </c>
       <c r="E262" t="str">
-        <f>IF(ISBLANK(Master_Input!P262),"",Master_Input!P262)</f>
+        <f>IF(ISBLANK(Master_Input!T262),"",Master_Input!T262)</f>
         <v/>
       </c>
       <c r="F262">
-        <f>SUM(Master_Input!H262,Master_Input!K262,Master_Input!N262)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I262)+_xlfn.NUMBERVALUE(Master_Input!M262)+_xlfn.NUMBERVALUE(Master_Input!Q262)</f>
         <v>0</v>
       </c>
       <c r="G262" t="str">
@@ -6616,11 +6642,11 @@
         <v/>
       </c>
       <c r="E263" t="str">
-        <f>IF(ISBLANK(Master_Input!P263),"",Master_Input!P263)</f>
+        <f>IF(ISBLANK(Master_Input!T263),"",Master_Input!T263)</f>
         <v/>
       </c>
       <c r="F263">
-        <f>SUM(Master_Input!H263,Master_Input!K263,Master_Input!N263)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I263)+_xlfn.NUMBERVALUE(Master_Input!M263)+_xlfn.NUMBERVALUE(Master_Input!Q263)</f>
         <v>0</v>
       </c>
       <c r="G263" t="str">
@@ -6638,11 +6664,11 @@
         <v/>
       </c>
       <c r="E264" t="str">
-        <f>IF(ISBLANK(Master_Input!P264),"",Master_Input!P264)</f>
+        <f>IF(ISBLANK(Master_Input!T264),"",Master_Input!T264)</f>
         <v/>
       </c>
       <c r="F264">
-        <f>SUM(Master_Input!H264,Master_Input!K264,Master_Input!N264)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I264)+_xlfn.NUMBERVALUE(Master_Input!M264)+_xlfn.NUMBERVALUE(Master_Input!Q264)</f>
         <v>0</v>
       </c>
       <c r="G264" t="str">
@@ -6660,11 +6686,11 @@
         <v/>
       </c>
       <c r="E265" t="str">
-        <f>IF(ISBLANK(Master_Input!P265),"",Master_Input!P265)</f>
+        <f>IF(ISBLANK(Master_Input!T265),"",Master_Input!T265)</f>
         <v/>
       </c>
       <c r="F265">
-        <f>SUM(Master_Input!H265,Master_Input!K265,Master_Input!N265)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I265)+_xlfn.NUMBERVALUE(Master_Input!M265)+_xlfn.NUMBERVALUE(Master_Input!Q265)</f>
         <v>0</v>
       </c>
       <c r="G265" t="str">
@@ -6682,11 +6708,11 @@
         <v/>
       </c>
       <c r="E266" t="str">
-        <f>IF(ISBLANK(Master_Input!P266),"",Master_Input!P266)</f>
+        <f>IF(ISBLANK(Master_Input!T266),"",Master_Input!T266)</f>
         <v/>
       </c>
       <c r="F266">
-        <f>SUM(Master_Input!H266,Master_Input!K266,Master_Input!N266)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I266)+_xlfn.NUMBERVALUE(Master_Input!M266)+_xlfn.NUMBERVALUE(Master_Input!Q266)</f>
         <v>0</v>
       </c>
       <c r="G266" t="str">
@@ -6704,11 +6730,11 @@
         <v/>
       </c>
       <c r="E267" t="str">
-        <f>IF(ISBLANK(Master_Input!P267),"",Master_Input!P267)</f>
+        <f>IF(ISBLANK(Master_Input!T267),"",Master_Input!T267)</f>
         <v/>
       </c>
       <c r="F267">
-        <f>SUM(Master_Input!H267,Master_Input!K267,Master_Input!N267)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I267)+_xlfn.NUMBERVALUE(Master_Input!M267)+_xlfn.NUMBERVALUE(Master_Input!Q267)</f>
         <v>0</v>
       </c>
       <c r="G267" t="str">
@@ -6726,11 +6752,11 @@
         <v/>
       </c>
       <c r="E268" t="str">
-        <f>IF(ISBLANK(Master_Input!P268),"",Master_Input!P268)</f>
+        <f>IF(ISBLANK(Master_Input!T268),"",Master_Input!T268)</f>
         <v/>
       </c>
       <c r="F268">
-        <f>SUM(Master_Input!H268,Master_Input!K268,Master_Input!N268)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I268)+_xlfn.NUMBERVALUE(Master_Input!M268)+_xlfn.NUMBERVALUE(Master_Input!Q268)</f>
         <v>0</v>
       </c>
       <c r="G268" t="str">
@@ -6748,11 +6774,11 @@
         <v/>
       </c>
       <c r="E269" t="str">
-        <f>IF(ISBLANK(Master_Input!P269),"",Master_Input!P269)</f>
+        <f>IF(ISBLANK(Master_Input!T269),"",Master_Input!T269)</f>
         <v/>
       </c>
       <c r="F269">
-        <f>SUM(Master_Input!H269,Master_Input!K269,Master_Input!N269)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I269)+_xlfn.NUMBERVALUE(Master_Input!M269)+_xlfn.NUMBERVALUE(Master_Input!Q269)</f>
         <v>0</v>
       </c>
       <c r="G269" t="str">
@@ -6770,11 +6796,11 @@
         <v/>
       </c>
       <c r="E270" t="str">
-        <f>IF(ISBLANK(Master_Input!P270),"",Master_Input!P270)</f>
+        <f>IF(ISBLANK(Master_Input!T270),"",Master_Input!T270)</f>
         <v/>
       </c>
       <c r="F270">
-        <f>SUM(Master_Input!H270,Master_Input!K270,Master_Input!N270)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I270)+_xlfn.NUMBERVALUE(Master_Input!M270)+_xlfn.NUMBERVALUE(Master_Input!Q270)</f>
         <v>0</v>
       </c>
       <c r="G270" t="str">
@@ -6792,11 +6818,11 @@
         <v/>
       </c>
       <c r="E271" t="str">
-        <f>IF(ISBLANK(Master_Input!P271),"",Master_Input!P271)</f>
+        <f>IF(ISBLANK(Master_Input!T271),"",Master_Input!T271)</f>
         <v/>
       </c>
       <c r="F271">
-        <f>SUM(Master_Input!H271,Master_Input!K271,Master_Input!N271)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I271)+_xlfn.NUMBERVALUE(Master_Input!M271)+_xlfn.NUMBERVALUE(Master_Input!Q271)</f>
         <v>0</v>
       </c>
       <c r="G271" t="str">
@@ -6814,11 +6840,11 @@
         <v/>
       </c>
       <c r="E272" t="str">
-        <f>IF(ISBLANK(Master_Input!P272),"",Master_Input!P272)</f>
+        <f>IF(ISBLANK(Master_Input!T272),"",Master_Input!T272)</f>
         <v/>
       </c>
       <c r="F272">
-        <f>SUM(Master_Input!H272,Master_Input!K272,Master_Input!N272)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I272)+_xlfn.NUMBERVALUE(Master_Input!M272)+_xlfn.NUMBERVALUE(Master_Input!Q272)</f>
         <v>0</v>
       </c>
       <c r="G272" t="str">
@@ -6836,11 +6862,11 @@
         <v/>
       </c>
       <c r="E273" t="str">
-        <f>IF(ISBLANK(Master_Input!P273),"",Master_Input!P273)</f>
+        <f>IF(ISBLANK(Master_Input!T273),"",Master_Input!T273)</f>
         <v/>
       </c>
       <c r="F273">
-        <f>SUM(Master_Input!H273,Master_Input!K273,Master_Input!N273)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I273)+_xlfn.NUMBERVALUE(Master_Input!M273)+_xlfn.NUMBERVALUE(Master_Input!Q273)</f>
         <v>0</v>
       </c>
       <c r="G273" t="str">
@@ -6858,11 +6884,11 @@
         <v/>
       </c>
       <c r="E274" t="str">
-        <f>IF(ISBLANK(Master_Input!P274),"",Master_Input!P274)</f>
+        <f>IF(ISBLANK(Master_Input!T274),"",Master_Input!T274)</f>
         <v/>
       </c>
       <c r="F274">
-        <f>SUM(Master_Input!H274,Master_Input!K274,Master_Input!N274)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I274)+_xlfn.NUMBERVALUE(Master_Input!M274)+_xlfn.NUMBERVALUE(Master_Input!Q274)</f>
         <v>0</v>
       </c>
       <c r="G274" t="str">
@@ -6880,11 +6906,11 @@
         <v/>
       </c>
       <c r="E275" t="str">
-        <f>IF(ISBLANK(Master_Input!P275),"",Master_Input!P275)</f>
+        <f>IF(ISBLANK(Master_Input!T275),"",Master_Input!T275)</f>
         <v/>
       </c>
       <c r="F275">
-        <f>SUM(Master_Input!H275,Master_Input!K275,Master_Input!N275)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I275)+_xlfn.NUMBERVALUE(Master_Input!M275)+_xlfn.NUMBERVALUE(Master_Input!Q275)</f>
         <v>0</v>
       </c>
       <c r="G275" t="str">
@@ -6902,11 +6928,11 @@
         <v/>
       </c>
       <c r="E276" t="str">
-        <f>IF(ISBLANK(Master_Input!P276),"",Master_Input!P276)</f>
+        <f>IF(ISBLANK(Master_Input!T276),"",Master_Input!T276)</f>
         <v/>
       </c>
       <c r="F276">
-        <f>SUM(Master_Input!H276,Master_Input!K276,Master_Input!N276)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I276)+_xlfn.NUMBERVALUE(Master_Input!M276)+_xlfn.NUMBERVALUE(Master_Input!Q276)</f>
         <v>0</v>
       </c>
       <c r="G276" t="str">
@@ -6924,11 +6950,11 @@
         <v/>
       </c>
       <c r="E277" t="str">
-        <f>IF(ISBLANK(Master_Input!P277),"",Master_Input!P277)</f>
+        <f>IF(ISBLANK(Master_Input!T277),"",Master_Input!T277)</f>
         <v/>
       </c>
       <c r="F277">
-        <f>SUM(Master_Input!H277,Master_Input!K277,Master_Input!N277)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I277)+_xlfn.NUMBERVALUE(Master_Input!M277)+_xlfn.NUMBERVALUE(Master_Input!Q277)</f>
         <v>0</v>
       </c>
       <c r="G277" t="str">
@@ -6946,11 +6972,11 @@
         <v/>
       </c>
       <c r="E278" t="str">
-        <f>IF(ISBLANK(Master_Input!P278),"",Master_Input!P278)</f>
+        <f>IF(ISBLANK(Master_Input!T278),"",Master_Input!T278)</f>
         <v/>
       </c>
       <c r="F278">
-        <f>SUM(Master_Input!H278,Master_Input!K278,Master_Input!N278)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I278)+_xlfn.NUMBERVALUE(Master_Input!M278)+_xlfn.NUMBERVALUE(Master_Input!Q278)</f>
         <v>0</v>
       </c>
       <c r="G278" t="str">
@@ -6968,11 +6994,11 @@
         <v/>
       </c>
       <c r="E279" t="str">
-        <f>IF(ISBLANK(Master_Input!P279),"",Master_Input!P279)</f>
+        <f>IF(ISBLANK(Master_Input!T279),"",Master_Input!T279)</f>
         <v/>
       </c>
       <c r="F279">
-        <f>SUM(Master_Input!H279,Master_Input!K279,Master_Input!N279)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I279)+_xlfn.NUMBERVALUE(Master_Input!M279)+_xlfn.NUMBERVALUE(Master_Input!Q279)</f>
         <v>0</v>
       </c>
       <c r="G279" t="str">
@@ -6990,11 +7016,11 @@
         <v/>
       </c>
       <c r="E280" t="str">
-        <f>IF(ISBLANK(Master_Input!P280),"",Master_Input!P280)</f>
+        <f>IF(ISBLANK(Master_Input!T280),"",Master_Input!T280)</f>
         <v/>
       </c>
       <c r="F280">
-        <f>SUM(Master_Input!H280,Master_Input!K280,Master_Input!N280)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I280)+_xlfn.NUMBERVALUE(Master_Input!M280)+_xlfn.NUMBERVALUE(Master_Input!Q280)</f>
         <v>0</v>
       </c>
       <c r="G280" t="str">
@@ -7012,11 +7038,11 @@
         <v/>
       </c>
       <c r="E281" t="str">
-        <f>IF(ISBLANK(Master_Input!P281),"",Master_Input!P281)</f>
+        <f>IF(ISBLANK(Master_Input!T281),"",Master_Input!T281)</f>
         <v/>
       </c>
       <c r="F281">
-        <f>SUM(Master_Input!H281,Master_Input!K281,Master_Input!N281)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I281)+_xlfn.NUMBERVALUE(Master_Input!M281)+_xlfn.NUMBERVALUE(Master_Input!Q281)</f>
         <v>0</v>
       </c>
       <c r="G281" t="str">
@@ -7034,11 +7060,11 @@
         <v/>
       </c>
       <c r="E282" t="str">
-        <f>IF(ISBLANK(Master_Input!P282),"",Master_Input!P282)</f>
+        <f>IF(ISBLANK(Master_Input!T282),"",Master_Input!T282)</f>
         <v/>
       </c>
       <c r="F282">
-        <f>SUM(Master_Input!H282,Master_Input!K282,Master_Input!N282)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I282)+_xlfn.NUMBERVALUE(Master_Input!M282)+_xlfn.NUMBERVALUE(Master_Input!Q282)</f>
         <v>0</v>
       </c>
       <c r="G282" t="str">
@@ -7056,11 +7082,11 @@
         <v/>
       </c>
       <c r="E283" t="str">
-        <f>IF(ISBLANK(Master_Input!P283),"",Master_Input!P283)</f>
+        <f>IF(ISBLANK(Master_Input!T283),"",Master_Input!T283)</f>
         <v/>
       </c>
       <c r="F283">
-        <f>SUM(Master_Input!H283,Master_Input!K283,Master_Input!N283)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I283)+_xlfn.NUMBERVALUE(Master_Input!M283)+_xlfn.NUMBERVALUE(Master_Input!Q283)</f>
         <v>0</v>
       </c>
       <c r="G283" t="str">
@@ -7078,11 +7104,11 @@
         <v/>
       </c>
       <c r="E284" t="str">
-        <f>IF(ISBLANK(Master_Input!P284),"",Master_Input!P284)</f>
+        <f>IF(ISBLANK(Master_Input!T284),"",Master_Input!T284)</f>
         <v/>
       </c>
       <c r="F284">
-        <f>SUM(Master_Input!H284,Master_Input!K284,Master_Input!N284)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I284)+_xlfn.NUMBERVALUE(Master_Input!M284)+_xlfn.NUMBERVALUE(Master_Input!Q284)</f>
         <v>0</v>
       </c>
       <c r="G284" t="str">
@@ -7100,11 +7126,11 @@
         <v/>
       </c>
       <c r="E285" t="str">
-        <f>IF(ISBLANK(Master_Input!P285),"",Master_Input!P285)</f>
+        <f>IF(ISBLANK(Master_Input!T285),"",Master_Input!T285)</f>
         <v/>
       </c>
       <c r="F285">
-        <f>SUM(Master_Input!H285,Master_Input!K285,Master_Input!N285)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I285)+_xlfn.NUMBERVALUE(Master_Input!M285)+_xlfn.NUMBERVALUE(Master_Input!Q285)</f>
         <v>0</v>
       </c>
       <c r="G285" t="str">
@@ -7122,11 +7148,11 @@
         <v/>
       </c>
       <c r="E286" t="str">
-        <f>IF(ISBLANK(Master_Input!P286),"",Master_Input!P286)</f>
+        <f>IF(ISBLANK(Master_Input!T286),"",Master_Input!T286)</f>
         <v/>
       </c>
       <c r="F286">
-        <f>SUM(Master_Input!H286,Master_Input!K286,Master_Input!N286)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I286)+_xlfn.NUMBERVALUE(Master_Input!M286)+_xlfn.NUMBERVALUE(Master_Input!Q286)</f>
         <v>0</v>
       </c>
       <c r="G286" t="str">
@@ -7144,11 +7170,11 @@
         <v/>
       </c>
       <c r="E287" t="str">
-        <f>IF(ISBLANK(Master_Input!P287),"",Master_Input!P287)</f>
+        <f>IF(ISBLANK(Master_Input!T287),"",Master_Input!T287)</f>
         <v/>
       </c>
       <c r="F287">
-        <f>SUM(Master_Input!H287,Master_Input!K287,Master_Input!N287)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I287)+_xlfn.NUMBERVALUE(Master_Input!M287)+_xlfn.NUMBERVALUE(Master_Input!Q287)</f>
         <v>0</v>
       </c>
       <c r="G287" t="str">
@@ -7166,11 +7192,11 @@
         <v/>
       </c>
       <c r="E288" t="str">
-        <f>IF(ISBLANK(Master_Input!P288),"",Master_Input!P288)</f>
+        <f>IF(ISBLANK(Master_Input!T288),"",Master_Input!T288)</f>
         <v/>
       </c>
       <c r="F288">
-        <f>SUM(Master_Input!H288,Master_Input!K288,Master_Input!N288)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I288)+_xlfn.NUMBERVALUE(Master_Input!M288)+_xlfn.NUMBERVALUE(Master_Input!Q288)</f>
         <v>0</v>
       </c>
       <c r="G288" t="str">
@@ -7188,11 +7214,11 @@
         <v/>
       </c>
       <c r="E289" t="str">
-        <f>IF(ISBLANK(Master_Input!P289),"",Master_Input!P289)</f>
+        <f>IF(ISBLANK(Master_Input!T289),"",Master_Input!T289)</f>
         <v/>
       </c>
       <c r="F289">
-        <f>SUM(Master_Input!H289,Master_Input!K289,Master_Input!N289)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I289)+_xlfn.NUMBERVALUE(Master_Input!M289)+_xlfn.NUMBERVALUE(Master_Input!Q289)</f>
         <v>0</v>
       </c>
       <c r="G289" t="str">
@@ -7210,11 +7236,11 @@
         <v/>
       </c>
       <c r="E290" t="str">
-        <f>IF(ISBLANK(Master_Input!P290),"",Master_Input!P290)</f>
+        <f>IF(ISBLANK(Master_Input!T290),"",Master_Input!T290)</f>
         <v/>
       </c>
       <c r="F290">
-        <f>SUM(Master_Input!H290,Master_Input!K290,Master_Input!N290)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I290)+_xlfn.NUMBERVALUE(Master_Input!M290)+_xlfn.NUMBERVALUE(Master_Input!Q290)</f>
         <v>0</v>
       </c>
       <c r="G290" t="str">
@@ -7232,11 +7258,11 @@
         <v/>
       </c>
       <c r="E291" t="str">
-        <f>IF(ISBLANK(Master_Input!P291),"",Master_Input!P291)</f>
+        <f>IF(ISBLANK(Master_Input!T291),"",Master_Input!T291)</f>
         <v/>
       </c>
       <c r="F291">
-        <f>SUM(Master_Input!H291,Master_Input!K291,Master_Input!N291)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I291)+_xlfn.NUMBERVALUE(Master_Input!M291)+_xlfn.NUMBERVALUE(Master_Input!Q291)</f>
         <v>0</v>
       </c>
       <c r="G291" t="str">
@@ -7254,11 +7280,11 @@
         <v/>
       </c>
       <c r="E292" t="str">
-        <f>IF(ISBLANK(Master_Input!P292),"",Master_Input!P292)</f>
+        <f>IF(ISBLANK(Master_Input!T292),"",Master_Input!T292)</f>
         <v/>
       </c>
       <c r="F292">
-        <f>SUM(Master_Input!H292,Master_Input!K292,Master_Input!N292)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I292)+_xlfn.NUMBERVALUE(Master_Input!M292)+_xlfn.NUMBERVALUE(Master_Input!Q292)</f>
         <v>0</v>
       </c>
       <c r="G292" t="str">
@@ -7276,11 +7302,11 @@
         <v/>
       </c>
       <c r="E293" t="str">
-        <f>IF(ISBLANK(Master_Input!P293),"",Master_Input!P293)</f>
+        <f>IF(ISBLANK(Master_Input!T293),"",Master_Input!T293)</f>
         <v/>
       </c>
       <c r="F293">
-        <f>SUM(Master_Input!H293,Master_Input!K293,Master_Input!N293)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I293)+_xlfn.NUMBERVALUE(Master_Input!M293)+_xlfn.NUMBERVALUE(Master_Input!Q293)</f>
         <v>0</v>
       </c>
       <c r="G293" t="str">
@@ -7298,11 +7324,11 @@
         <v/>
       </c>
       <c r="E294" t="str">
-        <f>IF(ISBLANK(Master_Input!P294),"",Master_Input!P294)</f>
+        <f>IF(ISBLANK(Master_Input!T294),"",Master_Input!T294)</f>
         <v/>
       </c>
       <c r="F294">
-        <f>SUM(Master_Input!H294,Master_Input!K294,Master_Input!N294)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I294)+_xlfn.NUMBERVALUE(Master_Input!M294)+_xlfn.NUMBERVALUE(Master_Input!Q294)</f>
         <v>0</v>
       </c>
       <c r="G294" t="str">
@@ -7320,11 +7346,11 @@
         <v/>
       </c>
       <c r="E295" t="str">
-        <f>IF(ISBLANK(Master_Input!P295),"",Master_Input!P295)</f>
+        <f>IF(ISBLANK(Master_Input!T295),"",Master_Input!T295)</f>
         <v/>
       </c>
       <c r="F295">
-        <f>SUM(Master_Input!H295,Master_Input!K295,Master_Input!N295)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I295)+_xlfn.NUMBERVALUE(Master_Input!M295)+_xlfn.NUMBERVALUE(Master_Input!Q295)</f>
         <v>0</v>
       </c>
       <c r="G295" t="str">
@@ -7342,11 +7368,11 @@
         <v/>
       </c>
       <c r="E296" t="str">
-        <f>IF(ISBLANK(Master_Input!P296),"",Master_Input!P296)</f>
+        <f>IF(ISBLANK(Master_Input!T296),"",Master_Input!T296)</f>
         <v/>
       </c>
       <c r="F296">
-        <f>SUM(Master_Input!H296,Master_Input!K296,Master_Input!N296)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I296)+_xlfn.NUMBERVALUE(Master_Input!M296)+_xlfn.NUMBERVALUE(Master_Input!Q296)</f>
         <v>0</v>
       </c>
       <c r="G296" t="str">
@@ -7364,11 +7390,11 @@
         <v/>
       </c>
       <c r="E297" t="str">
-        <f>IF(ISBLANK(Master_Input!P297),"",Master_Input!P297)</f>
+        <f>IF(ISBLANK(Master_Input!T297),"",Master_Input!T297)</f>
         <v/>
       </c>
       <c r="F297">
-        <f>SUM(Master_Input!H297,Master_Input!K297,Master_Input!N297)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I297)+_xlfn.NUMBERVALUE(Master_Input!M297)+_xlfn.NUMBERVALUE(Master_Input!Q297)</f>
         <v>0</v>
       </c>
       <c r="G297" t="str">
@@ -7386,11 +7412,11 @@
         <v/>
       </c>
       <c r="E298" t="str">
-        <f>IF(ISBLANK(Master_Input!P298),"",Master_Input!P298)</f>
+        <f>IF(ISBLANK(Master_Input!T298),"",Master_Input!T298)</f>
         <v/>
       </c>
       <c r="F298">
-        <f>SUM(Master_Input!H298,Master_Input!K298,Master_Input!N298)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I298)+_xlfn.NUMBERVALUE(Master_Input!M298)+_xlfn.NUMBERVALUE(Master_Input!Q298)</f>
         <v>0</v>
       </c>
       <c r="G298" t="str">
@@ -7408,11 +7434,11 @@
         <v/>
       </c>
       <c r="E299" t="str">
-        <f>IF(ISBLANK(Master_Input!P299),"",Master_Input!P299)</f>
+        <f>IF(ISBLANK(Master_Input!T299),"",Master_Input!T299)</f>
         <v/>
       </c>
       <c r="F299">
-        <f>SUM(Master_Input!H299,Master_Input!K299,Master_Input!N299)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I299)+_xlfn.NUMBERVALUE(Master_Input!M299)+_xlfn.NUMBERVALUE(Master_Input!Q299)</f>
         <v>0</v>
       </c>
       <c r="G299" t="str">
@@ -7430,11 +7456,11 @@
         <v/>
       </c>
       <c r="E300" t="str">
-        <f>IF(ISBLANK(Master_Input!P300),"",Master_Input!P300)</f>
+        <f>IF(ISBLANK(Master_Input!T300),"",Master_Input!T300)</f>
         <v/>
       </c>
       <c r="F300">
-        <f>SUM(Master_Input!H300,Master_Input!K300,Master_Input!N300)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I300)+_xlfn.NUMBERVALUE(Master_Input!M300)+_xlfn.NUMBERVALUE(Master_Input!Q300)</f>
         <v>0</v>
       </c>
       <c r="G300" t="str">
@@ -7452,11 +7478,11 @@
         <v/>
       </c>
       <c r="E301" t="str">
-        <f>IF(ISBLANK(Master_Input!P301),"",Master_Input!P301)</f>
+        <f>IF(ISBLANK(Master_Input!T301),"",Master_Input!T301)</f>
         <v/>
       </c>
       <c r="F301">
-        <f>SUM(Master_Input!H301,Master_Input!K301,Master_Input!N301)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I301)+_xlfn.NUMBERVALUE(Master_Input!M301)+_xlfn.NUMBERVALUE(Master_Input!Q301)</f>
         <v>0</v>
       </c>
       <c r="G301" t="str">
@@ -7474,11 +7500,11 @@
         <v/>
       </c>
       <c r="E302" t="str">
-        <f>IF(ISBLANK(Master_Input!P302),"",Master_Input!P302)</f>
+        <f>IF(ISBLANK(Master_Input!T302),"",Master_Input!T302)</f>
         <v/>
       </c>
       <c r="F302">
-        <f>SUM(Master_Input!H302,Master_Input!K302,Master_Input!N302)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I302)+_xlfn.NUMBERVALUE(Master_Input!M302)+_xlfn.NUMBERVALUE(Master_Input!Q302)</f>
         <v>0</v>
       </c>
       <c r="G302" t="str">
@@ -7496,11 +7522,11 @@
         <v/>
       </c>
       <c r="E303" t="str">
-        <f>IF(ISBLANK(Master_Input!P303),"",Master_Input!P303)</f>
+        <f>IF(ISBLANK(Master_Input!T303),"",Master_Input!T303)</f>
         <v/>
       </c>
       <c r="F303">
-        <f>SUM(Master_Input!H303,Master_Input!K303,Master_Input!N303)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I303)+_xlfn.NUMBERVALUE(Master_Input!M303)+_xlfn.NUMBERVALUE(Master_Input!Q303)</f>
         <v>0</v>
       </c>
       <c r="G303" t="str">
@@ -7518,11 +7544,11 @@
         <v/>
       </c>
       <c r="E304" t="str">
-        <f>IF(ISBLANK(Master_Input!P304),"",Master_Input!P304)</f>
+        <f>IF(ISBLANK(Master_Input!T304),"",Master_Input!T304)</f>
         <v/>
       </c>
       <c r="F304">
-        <f>SUM(Master_Input!H304,Master_Input!K304,Master_Input!N304)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I304)+_xlfn.NUMBERVALUE(Master_Input!M304)+_xlfn.NUMBERVALUE(Master_Input!Q304)</f>
         <v>0</v>
       </c>
       <c r="G304" t="str">
@@ -7540,11 +7566,11 @@
         <v/>
       </c>
       <c r="E305" t="str">
-        <f>IF(ISBLANK(Master_Input!P305),"",Master_Input!P305)</f>
+        <f>IF(ISBLANK(Master_Input!T305),"",Master_Input!T305)</f>
         <v/>
       </c>
       <c r="F305">
-        <f>SUM(Master_Input!H305,Master_Input!K305,Master_Input!N305)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I305)+_xlfn.NUMBERVALUE(Master_Input!M305)+_xlfn.NUMBERVALUE(Master_Input!Q305)</f>
         <v>0</v>
       </c>
       <c r="G305" t="str">
@@ -7562,11 +7588,11 @@
         <v/>
       </c>
       <c r="E306" t="str">
-        <f>IF(ISBLANK(Master_Input!P306),"",Master_Input!P306)</f>
+        <f>IF(ISBLANK(Master_Input!T306),"",Master_Input!T306)</f>
         <v/>
       </c>
       <c r="F306">
-        <f>SUM(Master_Input!H306,Master_Input!K306,Master_Input!N306)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I306)+_xlfn.NUMBERVALUE(Master_Input!M306)+_xlfn.NUMBERVALUE(Master_Input!Q306)</f>
         <v>0</v>
       </c>
       <c r="G306" t="str">
@@ -7584,11 +7610,11 @@
         <v/>
       </c>
       <c r="E307" t="str">
-        <f>IF(ISBLANK(Master_Input!P307),"",Master_Input!P307)</f>
+        <f>IF(ISBLANK(Master_Input!T307),"",Master_Input!T307)</f>
         <v/>
       </c>
       <c r="F307">
-        <f>SUM(Master_Input!H307,Master_Input!K307,Master_Input!N307)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I307)+_xlfn.NUMBERVALUE(Master_Input!M307)+_xlfn.NUMBERVALUE(Master_Input!Q307)</f>
         <v>0</v>
       </c>
       <c r="G307" t="str">
@@ -7606,11 +7632,11 @@
         <v/>
       </c>
       <c r="E308" t="str">
-        <f>IF(ISBLANK(Master_Input!P308),"",Master_Input!P308)</f>
+        <f>IF(ISBLANK(Master_Input!T308),"",Master_Input!T308)</f>
         <v/>
       </c>
       <c r="F308">
-        <f>SUM(Master_Input!H308,Master_Input!K308,Master_Input!N308)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I308)+_xlfn.NUMBERVALUE(Master_Input!M308)+_xlfn.NUMBERVALUE(Master_Input!Q308)</f>
         <v>0</v>
       </c>
       <c r="G308" t="str">
@@ -7628,11 +7654,11 @@
         <v/>
       </c>
       <c r="E309" t="str">
-        <f>IF(ISBLANK(Master_Input!P309),"",Master_Input!P309)</f>
+        <f>IF(ISBLANK(Master_Input!T309),"",Master_Input!T309)</f>
         <v/>
       </c>
       <c r="F309">
-        <f>SUM(Master_Input!H309,Master_Input!K309,Master_Input!N309)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I309)+_xlfn.NUMBERVALUE(Master_Input!M309)+_xlfn.NUMBERVALUE(Master_Input!Q309)</f>
         <v>0</v>
       </c>
       <c r="G309" t="str">
@@ -7650,11 +7676,11 @@
         <v/>
       </c>
       <c r="E310" t="str">
-        <f>IF(ISBLANK(Master_Input!P310),"",Master_Input!P310)</f>
+        <f>IF(ISBLANK(Master_Input!T310),"",Master_Input!T310)</f>
         <v/>
       </c>
       <c r="F310">
-        <f>SUM(Master_Input!H310,Master_Input!K310,Master_Input!N310)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I310)+_xlfn.NUMBERVALUE(Master_Input!M310)+_xlfn.NUMBERVALUE(Master_Input!Q310)</f>
         <v>0</v>
       </c>
       <c r="G310" t="str">
@@ -7672,11 +7698,11 @@
         <v/>
       </c>
       <c r="E311" t="str">
-        <f>IF(ISBLANK(Master_Input!P311),"",Master_Input!P311)</f>
+        <f>IF(ISBLANK(Master_Input!T311),"",Master_Input!T311)</f>
         <v/>
       </c>
       <c r="F311">
-        <f>SUM(Master_Input!H311,Master_Input!K311,Master_Input!N311)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I311)+_xlfn.NUMBERVALUE(Master_Input!M311)+_xlfn.NUMBERVALUE(Master_Input!Q311)</f>
         <v>0</v>
       </c>
       <c r="G311" t="str">
@@ -7694,11 +7720,11 @@
         <v/>
       </c>
       <c r="E312" t="str">
-        <f>IF(ISBLANK(Master_Input!P312),"",Master_Input!P312)</f>
+        <f>IF(ISBLANK(Master_Input!T312),"",Master_Input!T312)</f>
         <v/>
       </c>
       <c r="F312">
-        <f>SUM(Master_Input!H312,Master_Input!K312,Master_Input!N312)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I312)+_xlfn.NUMBERVALUE(Master_Input!M312)+_xlfn.NUMBERVALUE(Master_Input!Q312)</f>
         <v>0</v>
       </c>
       <c r="G312" t="str">
@@ -7716,11 +7742,11 @@
         <v/>
       </c>
       <c r="E313" t="str">
-        <f>IF(ISBLANK(Master_Input!P313),"",Master_Input!P313)</f>
+        <f>IF(ISBLANK(Master_Input!T313),"",Master_Input!T313)</f>
         <v/>
       </c>
       <c r="F313">
-        <f>SUM(Master_Input!H313,Master_Input!K313,Master_Input!N313)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I313)+_xlfn.NUMBERVALUE(Master_Input!M313)+_xlfn.NUMBERVALUE(Master_Input!Q313)</f>
         <v>0</v>
       </c>
       <c r="G313" t="str">
@@ -7738,11 +7764,11 @@
         <v/>
       </c>
       <c r="E314" t="str">
-        <f>IF(ISBLANK(Master_Input!P314),"",Master_Input!P314)</f>
+        <f>IF(ISBLANK(Master_Input!T314),"",Master_Input!T314)</f>
         <v/>
       </c>
       <c r="F314">
-        <f>SUM(Master_Input!H314,Master_Input!K314,Master_Input!N314)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I314)+_xlfn.NUMBERVALUE(Master_Input!M314)+_xlfn.NUMBERVALUE(Master_Input!Q314)</f>
         <v>0</v>
       </c>
       <c r="G314" t="str">
@@ -7760,11 +7786,11 @@
         <v/>
       </c>
       <c r="E315" t="str">
-        <f>IF(ISBLANK(Master_Input!P315),"",Master_Input!P315)</f>
+        <f>IF(ISBLANK(Master_Input!T315),"",Master_Input!T315)</f>
         <v/>
       </c>
       <c r="F315">
-        <f>SUM(Master_Input!H315,Master_Input!K315,Master_Input!N315)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I315)+_xlfn.NUMBERVALUE(Master_Input!M315)+_xlfn.NUMBERVALUE(Master_Input!Q315)</f>
         <v>0</v>
       </c>
       <c r="G315" t="str">
@@ -7782,11 +7808,11 @@
         <v/>
       </c>
       <c r="E316" t="str">
-        <f>IF(ISBLANK(Master_Input!P316),"",Master_Input!P316)</f>
+        <f>IF(ISBLANK(Master_Input!T316),"",Master_Input!T316)</f>
         <v/>
       </c>
       <c r="F316">
-        <f>SUM(Master_Input!H316,Master_Input!K316,Master_Input!N316)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I316)+_xlfn.NUMBERVALUE(Master_Input!M316)+_xlfn.NUMBERVALUE(Master_Input!Q316)</f>
         <v>0</v>
       </c>
       <c r="G316" t="str">
@@ -7804,11 +7830,11 @@
         <v/>
       </c>
       <c r="E317" t="str">
-        <f>IF(ISBLANK(Master_Input!P317),"",Master_Input!P317)</f>
+        <f>IF(ISBLANK(Master_Input!T317),"",Master_Input!T317)</f>
         <v/>
       </c>
       <c r="F317">
-        <f>SUM(Master_Input!H317,Master_Input!K317,Master_Input!N317)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I317)+_xlfn.NUMBERVALUE(Master_Input!M317)+_xlfn.NUMBERVALUE(Master_Input!Q317)</f>
         <v>0</v>
       </c>
       <c r="G317" t="str">
@@ -7826,11 +7852,11 @@
         <v/>
       </c>
       <c r="E318" t="str">
-        <f>IF(ISBLANK(Master_Input!P318),"",Master_Input!P318)</f>
+        <f>IF(ISBLANK(Master_Input!T318),"",Master_Input!T318)</f>
         <v/>
       </c>
       <c r="F318">
-        <f>SUM(Master_Input!H318,Master_Input!K318,Master_Input!N318)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I318)+_xlfn.NUMBERVALUE(Master_Input!M318)+_xlfn.NUMBERVALUE(Master_Input!Q318)</f>
         <v>0</v>
       </c>
       <c r="G318" t="str">
@@ -7848,11 +7874,11 @@
         <v/>
       </c>
       <c r="E319" t="str">
-        <f>IF(ISBLANK(Master_Input!P319),"",Master_Input!P319)</f>
+        <f>IF(ISBLANK(Master_Input!T319),"",Master_Input!T319)</f>
         <v/>
       </c>
       <c r="F319">
-        <f>SUM(Master_Input!H319,Master_Input!K319,Master_Input!N319)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I319)+_xlfn.NUMBERVALUE(Master_Input!M319)+_xlfn.NUMBERVALUE(Master_Input!Q319)</f>
         <v>0</v>
       </c>
       <c r="G319" t="str">
@@ -7870,11 +7896,11 @@
         <v/>
       </c>
       <c r="E320" t="str">
-        <f>IF(ISBLANK(Master_Input!P320),"",Master_Input!P320)</f>
+        <f>IF(ISBLANK(Master_Input!T320),"",Master_Input!T320)</f>
         <v/>
       </c>
       <c r="F320">
-        <f>SUM(Master_Input!H320,Master_Input!K320,Master_Input!N320)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I320)+_xlfn.NUMBERVALUE(Master_Input!M320)+_xlfn.NUMBERVALUE(Master_Input!Q320)</f>
         <v>0</v>
       </c>
       <c r="G320" t="str">
@@ -7892,11 +7918,11 @@
         <v/>
       </c>
       <c r="E321" t="str">
-        <f>IF(ISBLANK(Master_Input!P321),"",Master_Input!P321)</f>
+        <f>IF(ISBLANK(Master_Input!T321),"",Master_Input!T321)</f>
         <v/>
       </c>
       <c r="F321">
-        <f>SUM(Master_Input!H321,Master_Input!K321,Master_Input!N321)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I321)+_xlfn.NUMBERVALUE(Master_Input!M321)+_xlfn.NUMBERVALUE(Master_Input!Q321)</f>
         <v>0</v>
       </c>
       <c r="G321" t="str">
@@ -7914,11 +7940,11 @@
         <v/>
       </c>
       <c r="E322" t="str">
-        <f>IF(ISBLANK(Master_Input!P322),"",Master_Input!P322)</f>
+        <f>IF(ISBLANK(Master_Input!T322),"",Master_Input!T322)</f>
         <v/>
       </c>
       <c r="F322">
-        <f>SUM(Master_Input!H322,Master_Input!K322,Master_Input!N322)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I322)+_xlfn.NUMBERVALUE(Master_Input!M322)+_xlfn.NUMBERVALUE(Master_Input!Q322)</f>
         <v>0</v>
       </c>
       <c r="G322" t="str">
@@ -7936,11 +7962,11 @@
         <v/>
       </c>
       <c r="E323" t="str">
-        <f>IF(ISBLANK(Master_Input!P323),"",Master_Input!P323)</f>
+        <f>IF(ISBLANK(Master_Input!T323),"",Master_Input!T323)</f>
         <v/>
       </c>
       <c r="F323">
-        <f>SUM(Master_Input!H323,Master_Input!K323,Master_Input!N323)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I323)+_xlfn.NUMBERVALUE(Master_Input!M323)+_xlfn.NUMBERVALUE(Master_Input!Q323)</f>
         <v>0</v>
       </c>
       <c r="G323" t="str">
@@ -7958,11 +7984,11 @@
         <v/>
       </c>
       <c r="E324" t="str">
-        <f>IF(ISBLANK(Master_Input!P324),"",Master_Input!P324)</f>
+        <f>IF(ISBLANK(Master_Input!T324),"",Master_Input!T324)</f>
         <v/>
       </c>
       <c r="F324">
-        <f>SUM(Master_Input!H324,Master_Input!K324,Master_Input!N324)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I324)+_xlfn.NUMBERVALUE(Master_Input!M324)+_xlfn.NUMBERVALUE(Master_Input!Q324)</f>
         <v>0</v>
       </c>
       <c r="G324" t="str">
@@ -7980,11 +8006,11 @@
         <v/>
       </c>
       <c r="E325" t="str">
-        <f>IF(ISBLANK(Master_Input!P325),"",Master_Input!P325)</f>
+        <f>IF(ISBLANK(Master_Input!T325),"",Master_Input!T325)</f>
         <v/>
       </c>
       <c r="F325">
-        <f>SUM(Master_Input!H325,Master_Input!K325,Master_Input!N325)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I325)+_xlfn.NUMBERVALUE(Master_Input!M325)+_xlfn.NUMBERVALUE(Master_Input!Q325)</f>
         <v>0</v>
       </c>
       <c r="G325" t="str">
@@ -8002,11 +8028,11 @@
         <v/>
       </c>
       <c r="E326" t="str">
-        <f>IF(ISBLANK(Master_Input!P326),"",Master_Input!P326)</f>
+        <f>IF(ISBLANK(Master_Input!T326),"",Master_Input!T326)</f>
         <v/>
       </c>
       <c r="F326">
-        <f>SUM(Master_Input!H326,Master_Input!K326,Master_Input!N326)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I326)+_xlfn.NUMBERVALUE(Master_Input!M326)+_xlfn.NUMBERVALUE(Master_Input!Q326)</f>
         <v>0</v>
       </c>
       <c r="G326" t="str">
@@ -8024,11 +8050,11 @@
         <v/>
       </c>
       <c r="E327" t="str">
-        <f>IF(ISBLANK(Master_Input!P327),"",Master_Input!P327)</f>
+        <f>IF(ISBLANK(Master_Input!T327),"",Master_Input!T327)</f>
         <v/>
       </c>
       <c r="F327">
-        <f>SUM(Master_Input!H327,Master_Input!K327,Master_Input!N327)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I327)+_xlfn.NUMBERVALUE(Master_Input!M327)+_xlfn.NUMBERVALUE(Master_Input!Q327)</f>
         <v>0</v>
       </c>
       <c r="G327" t="str">
@@ -8046,11 +8072,11 @@
         <v/>
       </c>
       <c r="E328" t="str">
-        <f>IF(ISBLANK(Master_Input!P328),"",Master_Input!P328)</f>
+        <f>IF(ISBLANK(Master_Input!T328),"",Master_Input!T328)</f>
         <v/>
       </c>
       <c r="F328">
-        <f>SUM(Master_Input!H328,Master_Input!K328,Master_Input!N328)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I328)+_xlfn.NUMBERVALUE(Master_Input!M328)+_xlfn.NUMBERVALUE(Master_Input!Q328)</f>
         <v>0</v>
       </c>
       <c r="G328" t="str">
@@ -8068,11 +8094,11 @@
         <v/>
       </c>
       <c r="E329" t="str">
-        <f>IF(ISBLANK(Master_Input!P329),"",Master_Input!P329)</f>
+        <f>IF(ISBLANK(Master_Input!T329),"",Master_Input!T329)</f>
         <v/>
       </c>
       <c r="F329">
-        <f>SUM(Master_Input!H329,Master_Input!K329,Master_Input!N329)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I329)+_xlfn.NUMBERVALUE(Master_Input!M329)+_xlfn.NUMBERVALUE(Master_Input!Q329)</f>
         <v>0</v>
       </c>
       <c r="G329" t="str">
@@ -8090,11 +8116,11 @@
         <v/>
       </c>
       <c r="E330" t="str">
-        <f>IF(ISBLANK(Master_Input!P330),"",Master_Input!P330)</f>
+        <f>IF(ISBLANK(Master_Input!T330),"",Master_Input!T330)</f>
         <v/>
       </c>
       <c r="F330">
-        <f>SUM(Master_Input!H330,Master_Input!K330,Master_Input!N330)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I330)+_xlfn.NUMBERVALUE(Master_Input!M330)+_xlfn.NUMBERVALUE(Master_Input!Q330)</f>
         <v>0</v>
       </c>
       <c r="G330" t="str">
@@ -8112,11 +8138,11 @@
         <v/>
       </c>
       <c r="E331" t="str">
-        <f>IF(ISBLANK(Master_Input!P331),"",Master_Input!P331)</f>
+        <f>IF(ISBLANK(Master_Input!T331),"",Master_Input!T331)</f>
         <v/>
       </c>
       <c r="F331">
-        <f>SUM(Master_Input!H331,Master_Input!K331,Master_Input!N331)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I331)+_xlfn.NUMBERVALUE(Master_Input!M331)+_xlfn.NUMBERVALUE(Master_Input!Q331)</f>
         <v>0</v>
       </c>
       <c r="G331" t="str">
@@ -8134,11 +8160,11 @@
         <v/>
       </c>
       <c r="E332" t="str">
-        <f>IF(ISBLANK(Master_Input!P332),"",Master_Input!P332)</f>
+        <f>IF(ISBLANK(Master_Input!T332),"",Master_Input!T332)</f>
         <v/>
       </c>
       <c r="F332">
-        <f>SUM(Master_Input!H332,Master_Input!K332,Master_Input!N332)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I332)+_xlfn.NUMBERVALUE(Master_Input!M332)+_xlfn.NUMBERVALUE(Master_Input!Q332)</f>
         <v>0</v>
       </c>
       <c r="G332" t="str">
@@ -8156,11 +8182,11 @@
         <v/>
       </c>
       <c r="E333" t="str">
-        <f>IF(ISBLANK(Master_Input!P333),"",Master_Input!P333)</f>
+        <f>IF(ISBLANK(Master_Input!T333),"",Master_Input!T333)</f>
         <v/>
       </c>
       <c r="F333">
-        <f>SUM(Master_Input!H333,Master_Input!K333,Master_Input!N333)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I333)+_xlfn.NUMBERVALUE(Master_Input!M333)+_xlfn.NUMBERVALUE(Master_Input!Q333)</f>
         <v>0</v>
       </c>
       <c r="G333" t="str">
@@ -8178,11 +8204,11 @@
         <v/>
       </c>
       <c r="E334" t="str">
-        <f>IF(ISBLANK(Master_Input!P334),"",Master_Input!P334)</f>
+        <f>IF(ISBLANK(Master_Input!T334),"",Master_Input!T334)</f>
         <v/>
       </c>
       <c r="F334">
-        <f>SUM(Master_Input!H334,Master_Input!K334,Master_Input!N334)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I334)+_xlfn.NUMBERVALUE(Master_Input!M334)+_xlfn.NUMBERVALUE(Master_Input!Q334)</f>
         <v>0</v>
       </c>
       <c r="G334" t="str">
@@ -8200,11 +8226,11 @@
         <v/>
       </c>
       <c r="E335" t="str">
-        <f>IF(ISBLANK(Master_Input!P335),"",Master_Input!P335)</f>
+        <f>IF(ISBLANK(Master_Input!T335),"",Master_Input!T335)</f>
         <v/>
       </c>
       <c r="F335">
-        <f>SUM(Master_Input!H335,Master_Input!K335,Master_Input!N335)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I335)+_xlfn.NUMBERVALUE(Master_Input!M335)+_xlfn.NUMBERVALUE(Master_Input!Q335)</f>
         <v>0</v>
       </c>
       <c r="G335" t="str">
@@ -8222,11 +8248,11 @@
         <v/>
       </c>
       <c r="E336" t="str">
-        <f>IF(ISBLANK(Master_Input!P336),"",Master_Input!P336)</f>
+        <f>IF(ISBLANK(Master_Input!T336),"",Master_Input!T336)</f>
         <v/>
       </c>
       <c r="F336">
-        <f>SUM(Master_Input!H336,Master_Input!K336,Master_Input!N336)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I336)+_xlfn.NUMBERVALUE(Master_Input!M336)+_xlfn.NUMBERVALUE(Master_Input!Q336)</f>
         <v>0</v>
       </c>
       <c r="G336" t="str">
@@ -8244,11 +8270,11 @@
         <v/>
       </c>
       <c r="E337" t="str">
-        <f>IF(ISBLANK(Master_Input!P337),"",Master_Input!P337)</f>
+        <f>IF(ISBLANK(Master_Input!T337),"",Master_Input!T337)</f>
         <v/>
       </c>
       <c r="F337">
-        <f>SUM(Master_Input!H337,Master_Input!K337,Master_Input!N337)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I337)+_xlfn.NUMBERVALUE(Master_Input!M337)+_xlfn.NUMBERVALUE(Master_Input!Q337)</f>
         <v>0</v>
       </c>
       <c r="G337" t="str">
@@ -8266,11 +8292,11 @@
         <v/>
       </c>
       <c r="E338" t="str">
-        <f>IF(ISBLANK(Master_Input!P338),"",Master_Input!P338)</f>
+        <f>IF(ISBLANK(Master_Input!T338),"",Master_Input!T338)</f>
         <v/>
       </c>
       <c r="F338">
-        <f>SUM(Master_Input!H338,Master_Input!K338,Master_Input!N338)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I338)+_xlfn.NUMBERVALUE(Master_Input!M338)+_xlfn.NUMBERVALUE(Master_Input!Q338)</f>
         <v>0</v>
       </c>
       <c r="G338" t="str">
@@ -8288,11 +8314,11 @@
         <v/>
       </c>
       <c r="E339" t="str">
-        <f>IF(ISBLANK(Master_Input!P339),"",Master_Input!P339)</f>
+        <f>IF(ISBLANK(Master_Input!T339),"",Master_Input!T339)</f>
         <v/>
       </c>
       <c r="F339">
-        <f>SUM(Master_Input!H339,Master_Input!K339,Master_Input!N339)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I339)+_xlfn.NUMBERVALUE(Master_Input!M339)+_xlfn.NUMBERVALUE(Master_Input!Q339)</f>
         <v>0</v>
       </c>
       <c r="G339" t="str">
@@ -8310,11 +8336,11 @@
         <v/>
       </c>
       <c r="E340" t="str">
-        <f>IF(ISBLANK(Master_Input!P340),"",Master_Input!P340)</f>
+        <f>IF(ISBLANK(Master_Input!T340),"",Master_Input!T340)</f>
         <v/>
       </c>
       <c r="F340">
-        <f>SUM(Master_Input!H340,Master_Input!K340,Master_Input!N340)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I340)+_xlfn.NUMBERVALUE(Master_Input!M340)+_xlfn.NUMBERVALUE(Master_Input!Q340)</f>
         <v>0</v>
       </c>
       <c r="G340" t="str">
@@ -8332,11 +8358,11 @@
         <v/>
       </c>
       <c r="E341" t="str">
-        <f>IF(ISBLANK(Master_Input!P341),"",Master_Input!P341)</f>
+        <f>IF(ISBLANK(Master_Input!T341),"",Master_Input!T341)</f>
         <v/>
       </c>
       <c r="F341">
-        <f>SUM(Master_Input!H341,Master_Input!K341,Master_Input!N341)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I341)+_xlfn.NUMBERVALUE(Master_Input!M341)+_xlfn.NUMBERVALUE(Master_Input!Q341)</f>
         <v>0</v>
       </c>
       <c r="G341" t="str">
@@ -8354,11 +8380,11 @@
         <v/>
       </c>
       <c r="E342" t="str">
-        <f>IF(ISBLANK(Master_Input!P342),"",Master_Input!P342)</f>
+        <f>IF(ISBLANK(Master_Input!T342),"",Master_Input!T342)</f>
         <v/>
       </c>
       <c r="F342">
-        <f>SUM(Master_Input!H342,Master_Input!K342,Master_Input!N342)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I342)+_xlfn.NUMBERVALUE(Master_Input!M342)+_xlfn.NUMBERVALUE(Master_Input!Q342)</f>
         <v>0</v>
       </c>
       <c r="G342" t="str">
@@ -8376,11 +8402,11 @@
         <v/>
       </c>
       <c r="E343" t="str">
-        <f>IF(ISBLANK(Master_Input!P343),"",Master_Input!P343)</f>
+        <f>IF(ISBLANK(Master_Input!T343),"",Master_Input!T343)</f>
         <v/>
       </c>
       <c r="F343">
-        <f>SUM(Master_Input!H343,Master_Input!K343,Master_Input!N343)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I343)+_xlfn.NUMBERVALUE(Master_Input!M343)+_xlfn.NUMBERVALUE(Master_Input!Q343)</f>
         <v>0</v>
       </c>
       <c r="G343" t="str">
@@ -8398,11 +8424,11 @@
         <v/>
       </c>
       <c r="E344" t="str">
-        <f>IF(ISBLANK(Master_Input!P344),"",Master_Input!P344)</f>
+        <f>IF(ISBLANK(Master_Input!T344),"",Master_Input!T344)</f>
         <v/>
       </c>
       <c r="F344">
-        <f>SUM(Master_Input!H344,Master_Input!K344,Master_Input!N344)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I344)+_xlfn.NUMBERVALUE(Master_Input!M344)+_xlfn.NUMBERVALUE(Master_Input!Q344)</f>
         <v>0</v>
       </c>
       <c r="G344" t="str">
@@ -8420,11 +8446,11 @@
         <v/>
       </c>
       <c r="E345" t="str">
-        <f>IF(ISBLANK(Master_Input!P345),"",Master_Input!P345)</f>
+        <f>IF(ISBLANK(Master_Input!T345),"",Master_Input!T345)</f>
         <v/>
       </c>
       <c r="F345">
-        <f>SUM(Master_Input!H345,Master_Input!K345,Master_Input!N345)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I345)+_xlfn.NUMBERVALUE(Master_Input!M345)+_xlfn.NUMBERVALUE(Master_Input!Q345)</f>
         <v>0</v>
       </c>
       <c r="G345" t="str">
@@ -8442,11 +8468,11 @@
         <v/>
       </c>
       <c r="E346" t="str">
-        <f>IF(ISBLANK(Master_Input!P346),"",Master_Input!P346)</f>
+        <f>IF(ISBLANK(Master_Input!T346),"",Master_Input!T346)</f>
         <v/>
       </c>
       <c r="F346">
-        <f>SUM(Master_Input!H346,Master_Input!K346,Master_Input!N346)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I346)+_xlfn.NUMBERVALUE(Master_Input!M346)+_xlfn.NUMBERVALUE(Master_Input!Q346)</f>
         <v>0</v>
       </c>
       <c r="G346" t="str">
@@ -8464,11 +8490,11 @@
         <v/>
       </c>
       <c r="E347" t="str">
-        <f>IF(ISBLANK(Master_Input!P347),"",Master_Input!P347)</f>
+        <f>IF(ISBLANK(Master_Input!T347),"",Master_Input!T347)</f>
         <v/>
       </c>
       <c r="F347">
-        <f>SUM(Master_Input!H347,Master_Input!K347,Master_Input!N347)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I347)+_xlfn.NUMBERVALUE(Master_Input!M347)+_xlfn.NUMBERVALUE(Master_Input!Q347)</f>
         <v>0</v>
       </c>
       <c r="G347" t="str">
@@ -8486,11 +8512,11 @@
         <v/>
       </c>
       <c r="E348" t="str">
-        <f>IF(ISBLANK(Master_Input!P348),"",Master_Input!P348)</f>
+        <f>IF(ISBLANK(Master_Input!T348),"",Master_Input!T348)</f>
         <v/>
       </c>
       <c r="F348">
-        <f>SUM(Master_Input!H348,Master_Input!K348,Master_Input!N348)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I348)+_xlfn.NUMBERVALUE(Master_Input!M348)+_xlfn.NUMBERVALUE(Master_Input!Q348)</f>
         <v>0</v>
       </c>
       <c r="G348" t="str">
@@ -8508,11 +8534,11 @@
         <v/>
       </c>
       <c r="E349" t="str">
-        <f>IF(ISBLANK(Master_Input!P349),"",Master_Input!P349)</f>
+        <f>IF(ISBLANK(Master_Input!T349),"",Master_Input!T349)</f>
         <v/>
       </c>
       <c r="F349">
-        <f>SUM(Master_Input!H349,Master_Input!K349,Master_Input!N349)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I349)+_xlfn.NUMBERVALUE(Master_Input!M349)+_xlfn.NUMBERVALUE(Master_Input!Q349)</f>
         <v>0</v>
       </c>
       <c r="G349" t="str">
@@ -8530,11 +8556,11 @@
         <v/>
       </c>
       <c r="E350" t="str">
-        <f>IF(ISBLANK(Master_Input!P350),"",Master_Input!P350)</f>
+        <f>IF(ISBLANK(Master_Input!T350),"",Master_Input!T350)</f>
         <v/>
       </c>
       <c r="F350">
-        <f>SUM(Master_Input!H350,Master_Input!K350,Master_Input!N350)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I350)+_xlfn.NUMBERVALUE(Master_Input!M350)+_xlfn.NUMBERVALUE(Master_Input!Q350)</f>
         <v>0</v>
       </c>
       <c r="G350" t="str">
@@ -8552,11 +8578,11 @@
         <v/>
       </c>
       <c r="E351" t="str">
-        <f>IF(ISBLANK(Master_Input!P351),"",Master_Input!P351)</f>
+        <f>IF(ISBLANK(Master_Input!T351),"",Master_Input!T351)</f>
         <v/>
       </c>
       <c r="F351">
-        <f>SUM(Master_Input!H351,Master_Input!K351,Master_Input!N351)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I351)+_xlfn.NUMBERVALUE(Master_Input!M351)+_xlfn.NUMBERVALUE(Master_Input!Q351)</f>
         <v>0</v>
       </c>
       <c r="G351" t="str">
@@ -8574,11 +8600,11 @@
         <v/>
       </c>
       <c r="E352" t="str">
-        <f>IF(ISBLANK(Master_Input!P352),"",Master_Input!P352)</f>
+        <f>IF(ISBLANK(Master_Input!T352),"",Master_Input!T352)</f>
         <v/>
       </c>
       <c r="F352">
-        <f>SUM(Master_Input!H352,Master_Input!K352,Master_Input!N352)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I352)+_xlfn.NUMBERVALUE(Master_Input!M352)+_xlfn.NUMBERVALUE(Master_Input!Q352)</f>
         <v>0</v>
       </c>
       <c r="G352" t="str">
@@ -8596,11 +8622,11 @@
         <v/>
       </c>
       <c r="E353" t="str">
-        <f>IF(ISBLANK(Master_Input!P353),"",Master_Input!P353)</f>
+        <f>IF(ISBLANK(Master_Input!T353),"",Master_Input!T353)</f>
         <v/>
       </c>
       <c r="F353">
-        <f>SUM(Master_Input!H353,Master_Input!K353,Master_Input!N353)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I353)+_xlfn.NUMBERVALUE(Master_Input!M353)+_xlfn.NUMBERVALUE(Master_Input!Q353)</f>
         <v>0</v>
       </c>
       <c r="G353" t="str">
@@ -8618,11 +8644,11 @@
         <v/>
       </c>
       <c r="E354" t="str">
-        <f>IF(ISBLANK(Master_Input!P354),"",Master_Input!P354)</f>
+        <f>IF(ISBLANK(Master_Input!T354),"",Master_Input!T354)</f>
         <v/>
       </c>
       <c r="F354">
-        <f>SUM(Master_Input!H354,Master_Input!K354,Master_Input!N354)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I354)+_xlfn.NUMBERVALUE(Master_Input!M354)+_xlfn.NUMBERVALUE(Master_Input!Q354)</f>
         <v>0</v>
       </c>
       <c r="G354" t="str">
@@ -8640,11 +8666,11 @@
         <v/>
       </c>
       <c r="E355" t="str">
-        <f>IF(ISBLANK(Master_Input!P355),"",Master_Input!P355)</f>
+        <f>IF(ISBLANK(Master_Input!T355),"",Master_Input!T355)</f>
         <v/>
       </c>
       <c r="F355">
-        <f>SUM(Master_Input!H355,Master_Input!K355,Master_Input!N355)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I355)+_xlfn.NUMBERVALUE(Master_Input!M355)+_xlfn.NUMBERVALUE(Master_Input!Q355)</f>
         <v>0</v>
       </c>
       <c r="G355" t="str">
@@ -8662,11 +8688,11 @@
         <v/>
       </c>
       <c r="E356" t="str">
-        <f>IF(ISBLANK(Master_Input!P356),"",Master_Input!P356)</f>
+        <f>IF(ISBLANK(Master_Input!T356),"",Master_Input!T356)</f>
         <v/>
       </c>
       <c r="F356">
-        <f>SUM(Master_Input!H356,Master_Input!K356,Master_Input!N356)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I356)+_xlfn.NUMBERVALUE(Master_Input!M356)+_xlfn.NUMBERVALUE(Master_Input!Q356)</f>
         <v>0</v>
       </c>
       <c r="G356" t="str">
@@ -8684,11 +8710,11 @@
         <v/>
       </c>
       <c r="E357" t="str">
-        <f>IF(ISBLANK(Master_Input!P357),"",Master_Input!P357)</f>
+        <f>IF(ISBLANK(Master_Input!T357),"",Master_Input!T357)</f>
         <v/>
       </c>
       <c r="F357">
-        <f>SUM(Master_Input!H357,Master_Input!K357,Master_Input!N357)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I357)+_xlfn.NUMBERVALUE(Master_Input!M357)+_xlfn.NUMBERVALUE(Master_Input!Q357)</f>
         <v>0</v>
       </c>
       <c r="G357" t="str">
@@ -8706,11 +8732,11 @@
         <v/>
       </c>
       <c r="E358" t="str">
-        <f>IF(ISBLANK(Master_Input!P358),"",Master_Input!P358)</f>
+        <f>IF(ISBLANK(Master_Input!T358),"",Master_Input!T358)</f>
         <v/>
       </c>
       <c r="F358">
-        <f>SUM(Master_Input!H358,Master_Input!K358,Master_Input!N358)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I358)+_xlfn.NUMBERVALUE(Master_Input!M358)+_xlfn.NUMBERVALUE(Master_Input!Q358)</f>
         <v>0</v>
       </c>
       <c r="G358" t="str">
@@ -8728,11 +8754,11 @@
         <v/>
       </c>
       <c r="E359" t="str">
-        <f>IF(ISBLANK(Master_Input!P359),"",Master_Input!P359)</f>
+        <f>IF(ISBLANK(Master_Input!T359),"",Master_Input!T359)</f>
         <v/>
       </c>
       <c r="F359">
-        <f>SUM(Master_Input!H359,Master_Input!K359,Master_Input!N359)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I359)+_xlfn.NUMBERVALUE(Master_Input!M359)+_xlfn.NUMBERVALUE(Master_Input!Q359)</f>
         <v>0</v>
       </c>
       <c r="G359" t="str">
@@ -8750,11 +8776,11 @@
         <v/>
       </c>
       <c r="E360" t="str">
-        <f>IF(ISBLANK(Master_Input!P360),"",Master_Input!P360)</f>
+        <f>IF(ISBLANK(Master_Input!T360),"",Master_Input!T360)</f>
         <v/>
       </c>
       <c r="F360">
-        <f>SUM(Master_Input!H360,Master_Input!K360,Master_Input!N360)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I360)+_xlfn.NUMBERVALUE(Master_Input!M360)+_xlfn.NUMBERVALUE(Master_Input!Q360)</f>
         <v>0</v>
       </c>
       <c r="G360" t="str">
@@ -8772,11 +8798,11 @@
         <v/>
       </c>
       <c r="E361" t="str">
-        <f>IF(ISBLANK(Master_Input!P361),"",Master_Input!P361)</f>
+        <f>IF(ISBLANK(Master_Input!T361),"",Master_Input!T361)</f>
         <v/>
       </c>
       <c r="F361">
-        <f>SUM(Master_Input!H361,Master_Input!K361,Master_Input!N361)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I361)+_xlfn.NUMBERVALUE(Master_Input!M361)+_xlfn.NUMBERVALUE(Master_Input!Q361)</f>
         <v>0</v>
       </c>
       <c r="G361" t="str">
@@ -8794,11 +8820,11 @@
         <v/>
       </c>
       <c r="E362" t="str">
-        <f>IF(ISBLANK(Master_Input!P362),"",Master_Input!P362)</f>
+        <f>IF(ISBLANK(Master_Input!T362),"",Master_Input!T362)</f>
         <v/>
       </c>
       <c r="F362">
-        <f>SUM(Master_Input!H362,Master_Input!K362,Master_Input!N362)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I362)+_xlfn.NUMBERVALUE(Master_Input!M362)+_xlfn.NUMBERVALUE(Master_Input!Q362)</f>
         <v>0</v>
       </c>
       <c r="G362" t="str">
@@ -8816,11 +8842,11 @@
         <v/>
       </c>
       <c r="E363" t="str">
-        <f>IF(ISBLANK(Master_Input!P363),"",Master_Input!P363)</f>
+        <f>IF(ISBLANK(Master_Input!T363),"",Master_Input!T363)</f>
         <v/>
       </c>
       <c r="F363">
-        <f>SUM(Master_Input!H363,Master_Input!K363,Master_Input!N363)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I363)+_xlfn.NUMBERVALUE(Master_Input!M363)+_xlfn.NUMBERVALUE(Master_Input!Q363)</f>
         <v>0</v>
       </c>
       <c r="G363" t="str">
@@ -8838,11 +8864,11 @@
         <v/>
       </c>
       <c r="E364" t="str">
-        <f>IF(ISBLANK(Master_Input!P364),"",Master_Input!P364)</f>
+        <f>IF(ISBLANK(Master_Input!T364),"",Master_Input!T364)</f>
         <v/>
       </c>
       <c r="F364">
-        <f>SUM(Master_Input!H364,Master_Input!K364,Master_Input!N364)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I364)+_xlfn.NUMBERVALUE(Master_Input!M364)+_xlfn.NUMBERVALUE(Master_Input!Q364)</f>
         <v>0</v>
       </c>
       <c r="G364" t="str">
@@ -8860,11 +8886,11 @@
         <v/>
       </c>
       <c r="E365" t="str">
-        <f>IF(ISBLANK(Master_Input!P365),"",Master_Input!P365)</f>
+        <f>IF(ISBLANK(Master_Input!T365),"",Master_Input!T365)</f>
         <v/>
       </c>
       <c r="F365">
-        <f>SUM(Master_Input!H365,Master_Input!K365,Master_Input!N365)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I365)+_xlfn.NUMBERVALUE(Master_Input!M365)+_xlfn.NUMBERVALUE(Master_Input!Q365)</f>
         <v>0</v>
       </c>
       <c r="G365" t="str">
@@ -8882,11 +8908,11 @@
         <v/>
       </c>
       <c r="E366" t="str">
-        <f>IF(ISBLANK(Master_Input!P366),"",Master_Input!P366)</f>
+        <f>IF(ISBLANK(Master_Input!T366),"",Master_Input!T366)</f>
         <v/>
       </c>
       <c r="F366">
-        <f>SUM(Master_Input!H366,Master_Input!K366,Master_Input!N366)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I366)+_xlfn.NUMBERVALUE(Master_Input!M366)+_xlfn.NUMBERVALUE(Master_Input!Q366)</f>
         <v>0</v>
       </c>
       <c r="G366" t="str">
@@ -8904,11 +8930,11 @@
         <v/>
       </c>
       <c r="E367" t="str">
-        <f>IF(ISBLANK(Master_Input!P367),"",Master_Input!P367)</f>
+        <f>IF(ISBLANK(Master_Input!T367),"",Master_Input!T367)</f>
         <v/>
       </c>
       <c r="F367">
-        <f>SUM(Master_Input!H367,Master_Input!K367,Master_Input!N367)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I367)+_xlfn.NUMBERVALUE(Master_Input!M367)+_xlfn.NUMBERVALUE(Master_Input!Q367)</f>
         <v>0</v>
       </c>
       <c r="G367" t="str">
@@ -8926,11 +8952,11 @@
         <v/>
       </c>
       <c r="E368" t="str">
-        <f>IF(ISBLANK(Master_Input!P368),"",Master_Input!P368)</f>
+        <f>IF(ISBLANK(Master_Input!T368),"",Master_Input!T368)</f>
         <v/>
       </c>
       <c r="F368">
-        <f>SUM(Master_Input!H368,Master_Input!K368,Master_Input!N368)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I368)+_xlfn.NUMBERVALUE(Master_Input!M368)+_xlfn.NUMBERVALUE(Master_Input!Q368)</f>
         <v>0</v>
       </c>
       <c r="G368" t="str">
@@ -8948,11 +8974,11 @@
         <v/>
       </c>
       <c r="E369" t="str">
-        <f>IF(ISBLANK(Master_Input!P369),"",Master_Input!P369)</f>
+        <f>IF(ISBLANK(Master_Input!T369),"",Master_Input!T369)</f>
         <v/>
       </c>
       <c r="F369">
-        <f>SUM(Master_Input!H369,Master_Input!K369,Master_Input!N369)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I369)+_xlfn.NUMBERVALUE(Master_Input!M369)+_xlfn.NUMBERVALUE(Master_Input!Q369)</f>
         <v>0</v>
       </c>
       <c r="G369" t="str">
@@ -8970,11 +8996,11 @@
         <v/>
       </c>
       <c r="E370" t="str">
-        <f>IF(ISBLANK(Master_Input!P370),"",Master_Input!P370)</f>
+        <f>IF(ISBLANK(Master_Input!T370),"",Master_Input!T370)</f>
         <v/>
       </c>
       <c r="F370">
-        <f>SUM(Master_Input!H370,Master_Input!K370,Master_Input!N370)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I370)+_xlfn.NUMBERVALUE(Master_Input!M370)+_xlfn.NUMBERVALUE(Master_Input!Q370)</f>
         <v>0</v>
       </c>
       <c r="G370" t="str">
@@ -8992,11 +9018,11 @@
         <v/>
       </c>
       <c r="E371" t="str">
-        <f>IF(ISBLANK(Master_Input!P371),"",Master_Input!P371)</f>
+        <f>IF(ISBLANK(Master_Input!T371),"",Master_Input!T371)</f>
         <v/>
       </c>
       <c r="F371">
-        <f>SUM(Master_Input!H371,Master_Input!K371,Master_Input!N371)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I371)+_xlfn.NUMBERVALUE(Master_Input!M371)+_xlfn.NUMBERVALUE(Master_Input!Q371)</f>
         <v>0</v>
       </c>
       <c r="G371" t="str">
@@ -9014,11 +9040,11 @@
         <v/>
       </c>
       <c r="E372" t="str">
-        <f>IF(ISBLANK(Master_Input!P372),"",Master_Input!P372)</f>
+        <f>IF(ISBLANK(Master_Input!T372),"",Master_Input!T372)</f>
         <v/>
       </c>
       <c r="F372">
-        <f>SUM(Master_Input!H372,Master_Input!K372,Master_Input!N372)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I372)+_xlfn.NUMBERVALUE(Master_Input!M372)+_xlfn.NUMBERVALUE(Master_Input!Q372)</f>
         <v>0</v>
       </c>
       <c r="G372" t="str">
@@ -9036,11 +9062,11 @@
         <v/>
       </c>
       <c r="E373" t="str">
-        <f>IF(ISBLANK(Master_Input!P373),"",Master_Input!P373)</f>
+        <f>IF(ISBLANK(Master_Input!T373),"",Master_Input!T373)</f>
         <v/>
       </c>
       <c r="F373">
-        <f>SUM(Master_Input!H373,Master_Input!K373,Master_Input!N373)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I373)+_xlfn.NUMBERVALUE(Master_Input!M373)+_xlfn.NUMBERVALUE(Master_Input!Q373)</f>
         <v>0</v>
       </c>
       <c r="G373" t="str">
@@ -9058,11 +9084,11 @@
         <v/>
       </c>
       <c r="E374" t="str">
-        <f>IF(ISBLANK(Master_Input!P374),"",Master_Input!P374)</f>
+        <f>IF(ISBLANK(Master_Input!T374),"",Master_Input!T374)</f>
         <v/>
       </c>
       <c r="F374">
-        <f>SUM(Master_Input!H374,Master_Input!K374,Master_Input!N374)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I374)+_xlfn.NUMBERVALUE(Master_Input!M374)+_xlfn.NUMBERVALUE(Master_Input!Q374)</f>
         <v>0</v>
       </c>
       <c r="G374" t="str">
@@ -9080,11 +9106,11 @@
         <v/>
       </c>
       <c r="E375" t="str">
-        <f>IF(ISBLANK(Master_Input!P375),"",Master_Input!P375)</f>
+        <f>IF(ISBLANK(Master_Input!T375),"",Master_Input!T375)</f>
         <v/>
       </c>
       <c r="F375">
-        <f>SUM(Master_Input!H375,Master_Input!K375,Master_Input!N375)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I375)+_xlfn.NUMBERVALUE(Master_Input!M375)+_xlfn.NUMBERVALUE(Master_Input!Q375)</f>
         <v>0</v>
       </c>
       <c r="G375" t="str">
@@ -9102,11 +9128,11 @@
         <v/>
       </c>
       <c r="E376" t="str">
-        <f>IF(ISBLANK(Master_Input!P376),"",Master_Input!P376)</f>
+        <f>IF(ISBLANK(Master_Input!T376),"",Master_Input!T376)</f>
         <v/>
       </c>
       <c r="F376">
-        <f>SUM(Master_Input!H376,Master_Input!K376,Master_Input!N376)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I376)+_xlfn.NUMBERVALUE(Master_Input!M376)+_xlfn.NUMBERVALUE(Master_Input!Q376)</f>
         <v>0</v>
       </c>
       <c r="G376" t="str">
@@ -9124,11 +9150,11 @@
         <v/>
       </c>
       <c r="E377" t="str">
-        <f>IF(ISBLANK(Master_Input!P377),"",Master_Input!P377)</f>
+        <f>IF(ISBLANK(Master_Input!T377),"",Master_Input!T377)</f>
         <v/>
       </c>
       <c r="F377">
-        <f>SUM(Master_Input!H377,Master_Input!K377,Master_Input!N377)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I377)+_xlfn.NUMBERVALUE(Master_Input!M377)+_xlfn.NUMBERVALUE(Master_Input!Q377)</f>
         <v>0</v>
       </c>
       <c r="G377" t="str">
@@ -9146,11 +9172,11 @@
         <v/>
       </c>
       <c r="E378" t="str">
-        <f>IF(ISBLANK(Master_Input!P378),"",Master_Input!P378)</f>
+        <f>IF(ISBLANK(Master_Input!T378),"",Master_Input!T378)</f>
         <v/>
       </c>
       <c r="F378">
-        <f>SUM(Master_Input!H378,Master_Input!K378,Master_Input!N378)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I378)+_xlfn.NUMBERVALUE(Master_Input!M378)+_xlfn.NUMBERVALUE(Master_Input!Q378)</f>
         <v>0</v>
       </c>
       <c r="G378" t="str">
@@ -9168,11 +9194,11 @@
         <v/>
       </c>
       <c r="E379" t="str">
-        <f>IF(ISBLANK(Master_Input!P379),"",Master_Input!P379)</f>
+        <f>IF(ISBLANK(Master_Input!T379),"",Master_Input!T379)</f>
         <v/>
       </c>
       <c r="F379">
-        <f>SUM(Master_Input!H379,Master_Input!K379,Master_Input!N379)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I379)+_xlfn.NUMBERVALUE(Master_Input!M379)+_xlfn.NUMBERVALUE(Master_Input!Q379)</f>
         <v>0</v>
       </c>
       <c r="G379" t="str">
@@ -9190,11 +9216,11 @@
         <v/>
       </c>
       <c r="E380" t="str">
-        <f>IF(ISBLANK(Master_Input!P380),"",Master_Input!P380)</f>
+        <f>IF(ISBLANK(Master_Input!T380),"",Master_Input!T380)</f>
         <v/>
       </c>
       <c r="F380">
-        <f>SUM(Master_Input!H380,Master_Input!K380,Master_Input!N380)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I380)+_xlfn.NUMBERVALUE(Master_Input!M380)+_xlfn.NUMBERVALUE(Master_Input!Q380)</f>
         <v>0</v>
       </c>
       <c r="G380" t="str">
@@ -9212,11 +9238,11 @@
         <v/>
       </c>
       <c r="E381" t="str">
-        <f>IF(ISBLANK(Master_Input!P381),"",Master_Input!P381)</f>
+        <f>IF(ISBLANK(Master_Input!T381),"",Master_Input!T381)</f>
         <v/>
       </c>
       <c r="F381">
-        <f>SUM(Master_Input!H381,Master_Input!K381,Master_Input!N381)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I381)+_xlfn.NUMBERVALUE(Master_Input!M381)+_xlfn.NUMBERVALUE(Master_Input!Q381)</f>
         <v>0</v>
       </c>
       <c r="G381" t="str">
@@ -9234,11 +9260,11 @@
         <v/>
       </c>
       <c r="E382" t="str">
-        <f>IF(ISBLANK(Master_Input!P382),"",Master_Input!P382)</f>
+        <f>IF(ISBLANK(Master_Input!T382),"",Master_Input!T382)</f>
         <v/>
       </c>
       <c r="F382">
-        <f>SUM(Master_Input!H382,Master_Input!K382,Master_Input!N382)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I382)+_xlfn.NUMBERVALUE(Master_Input!M382)+_xlfn.NUMBERVALUE(Master_Input!Q382)</f>
         <v>0</v>
       </c>
       <c r="G382" t="str">
@@ -9256,11 +9282,11 @@
         <v/>
       </c>
       <c r="E383" t="str">
-        <f>IF(ISBLANK(Master_Input!P383),"",Master_Input!P383)</f>
+        <f>IF(ISBLANK(Master_Input!T383),"",Master_Input!T383)</f>
         <v/>
       </c>
       <c r="F383">
-        <f>SUM(Master_Input!H383,Master_Input!K383,Master_Input!N383)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I383)+_xlfn.NUMBERVALUE(Master_Input!M383)+_xlfn.NUMBERVALUE(Master_Input!Q383)</f>
         <v>0</v>
       </c>
       <c r="G383" t="str">
@@ -9278,11 +9304,11 @@
         <v/>
       </c>
       <c r="E384" t="str">
-        <f>IF(ISBLANK(Master_Input!P384),"",Master_Input!P384)</f>
+        <f>IF(ISBLANK(Master_Input!T384),"",Master_Input!T384)</f>
         <v/>
       </c>
       <c r="F384">
-        <f>SUM(Master_Input!H384,Master_Input!K384,Master_Input!N384)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I384)+_xlfn.NUMBERVALUE(Master_Input!M384)+_xlfn.NUMBERVALUE(Master_Input!Q384)</f>
         <v>0</v>
       </c>
       <c r="G384" t="str">
@@ -9300,11 +9326,11 @@
         <v/>
       </c>
       <c r="E385" t="str">
-        <f>IF(ISBLANK(Master_Input!P385),"",Master_Input!P385)</f>
+        <f>IF(ISBLANK(Master_Input!T385),"",Master_Input!T385)</f>
         <v/>
       </c>
       <c r="F385">
-        <f>SUM(Master_Input!H385,Master_Input!K385,Master_Input!N385)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I385)+_xlfn.NUMBERVALUE(Master_Input!M385)+_xlfn.NUMBERVALUE(Master_Input!Q385)</f>
         <v>0</v>
       </c>
       <c r="G385" t="str">
@@ -9322,11 +9348,11 @@
         <v/>
       </c>
       <c r="E386" t="str">
-        <f>IF(ISBLANK(Master_Input!P386),"",Master_Input!P386)</f>
+        <f>IF(ISBLANK(Master_Input!T386),"",Master_Input!T386)</f>
         <v/>
       </c>
       <c r="F386">
-        <f>SUM(Master_Input!H386,Master_Input!K386,Master_Input!N386)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I386)+_xlfn.NUMBERVALUE(Master_Input!M386)+_xlfn.NUMBERVALUE(Master_Input!Q386)</f>
         <v>0</v>
       </c>
       <c r="G386" t="str">
@@ -9344,11 +9370,11 @@
         <v/>
       </c>
       <c r="E387" t="str">
-        <f>IF(ISBLANK(Master_Input!P387),"",Master_Input!P387)</f>
+        <f>IF(ISBLANK(Master_Input!T387),"",Master_Input!T387)</f>
         <v/>
       </c>
       <c r="F387">
-        <f>SUM(Master_Input!H387,Master_Input!K387,Master_Input!N387)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I387)+_xlfn.NUMBERVALUE(Master_Input!M387)+_xlfn.NUMBERVALUE(Master_Input!Q387)</f>
         <v>0</v>
       </c>
       <c r="G387" t="str">
@@ -9366,11 +9392,11 @@
         <v/>
       </c>
       <c r="E388" t="str">
-        <f>IF(ISBLANK(Master_Input!P388),"",Master_Input!P388)</f>
+        <f>IF(ISBLANK(Master_Input!T388),"",Master_Input!T388)</f>
         <v/>
       </c>
       <c r="F388">
-        <f>SUM(Master_Input!H388,Master_Input!K388,Master_Input!N388)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I388)+_xlfn.NUMBERVALUE(Master_Input!M388)+_xlfn.NUMBERVALUE(Master_Input!Q388)</f>
         <v>0</v>
       </c>
       <c r="G388" t="str">
@@ -9388,11 +9414,11 @@
         <v/>
       </c>
       <c r="E389" t="str">
-        <f>IF(ISBLANK(Master_Input!P389),"",Master_Input!P389)</f>
+        <f>IF(ISBLANK(Master_Input!T389),"",Master_Input!T389)</f>
         <v/>
       </c>
       <c r="F389">
-        <f>SUM(Master_Input!H389,Master_Input!K389,Master_Input!N389)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I389)+_xlfn.NUMBERVALUE(Master_Input!M389)+_xlfn.NUMBERVALUE(Master_Input!Q389)</f>
         <v>0</v>
       </c>
       <c r="G389" t="str">
@@ -9410,11 +9436,11 @@
         <v/>
       </c>
       <c r="E390" t="str">
-        <f>IF(ISBLANK(Master_Input!P390),"",Master_Input!P390)</f>
+        <f>IF(ISBLANK(Master_Input!T390),"",Master_Input!T390)</f>
         <v/>
       </c>
       <c r="F390">
-        <f>SUM(Master_Input!H390,Master_Input!K390,Master_Input!N390)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I390)+_xlfn.NUMBERVALUE(Master_Input!M390)+_xlfn.NUMBERVALUE(Master_Input!Q390)</f>
         <v>0</v>
       </c>
       <c r="G390" t="str">
@@ -9432,11 +9458,11 @@
         <v/>
       </c>
       <c r="E391" t="str">
-        <f>IF(ISBLANK(Master_Input!P391),"",Master_Input!P391)</f>
+        <f>IF(ISBLANK(Master_Input!T391),"",Master_Input!T391)</f>
         <v/>
       </c>
       <c r="F391">
-        <f>SUM(Master_Input!H391,Master_Input!K391,Master_Input!N391)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I391)+_xlfn.NUMBERVALUE(Master_Input!M391)+_xlfn.NUMBERVALUE(Master_Input!Q391)</f>
         <v>0</v>
       </c>
       <c r="G391" t="str">
@@ -9454,11 +9480,11 @@
         <v/>
       </c>
       <c r="E392" t="str">
-        <f>IF(ISBLANK(Master_Input!P392),"",Master_Input!P392)</f>
+        <f>IF(ISBLANK(Master_Input!T392),"",Master_Input!T392)</f>
         <v/>
       </c>
       <c r="F392">
-        <f>SUM(Master_Input!H392,Master_Input!K392,Master_Input!N392)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I392)+_xlfn.NUMBERVALUE(Master_Input!M392)+_xlfn.NUMBERVALUE(Master_Input!Q392)</f>
         <v>0</v>
       </c>
       <c r="G392" t="str">
@@ -9476,11 +9502,11 @@
         <v/>
       </c>
       <c r="E393" t="str">
-        <f>IF(ISBLANK(Master_Input!P393),"",Master_Input!P393)</f>
+        <f>IF(ISBLANK(Master_Input!T393),"",Master_Input!T393)</f>
         <v/>
       </c>
       <c r="F393">
-        <f>SUM(Master_Input!H393,Master_Input!K393,Master_Input!N393)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I393)+_xlfn.NUMBERVALUE(Master_Input!M393)+_xlfn.NUMBERVALUE(Master_Input!Q393)</f>
         <v>0</v>
       </c>
       <c r="G393" t="str">
@@ -9498,11 +9524,11 @@
         <v/>
       </c>
       <c r="E394" t="str">
-        <f>IF(ISBLANK(Master_Input!P394),"",Master_Input!P394)</f>
+        <f>IF(ISBLANK(Master_Input!T394),"",Master_Input!T394)</f>
         <v/>
       </c>
       <c r="F394">
-        <f>SUM(Master_Input!H394,Master_Input!K394,Master_Input!N394)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I394)+_xlfn.NUMBERVALUE(Master_Input!M394)+_xlfn.NUMBERVALUE(Master_Input!Q394)</f>
         <v>0</v>
       </c>
       <c r="G394" t="str">
@@ -9520,11 +9546,11 @@
         <v/>
       </c>
       <c r="E395" t="str">
-        <f>IF(ISBLANK(Master_Input!P395),"",Master_Input!P395)</f>
+        <f>IF(ISBLANK(Master_Input!T395),"",Master_Input!T395)</f>
         <v/>
       </c>
       <c r="F395">
-        <f>SUM(Master_Input!H395,Master_Input!K395,Master_Input!N395)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I395)+_xlfn.NUMBERVALUE(Master_Input!M395)+_xlfn.NUMBERVALUE(Master_Input!Q395)</f>
         <v>0</v>
       </c>
       <c r="G395" t="str">
@@ -9542,11 +9568,11 @@
         <v/>
       </c>
       <c r="E396" t="str">
-        <f>IF(ISBLANK(Master_Input!P396),"",Master_Input!P396)</f>
+        <f>IF(ISBLANK(Master_Input!T396),"",Master_Input!T396)</f>
         <v/>
       </c>
       <c r="F396">
-        <f>SUM(Master_Input!H396,Master_Input!K396,Master_Input!N396)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I396)+_xlfn.NUMBERVALUE(Master_Input!M396)+_xlfn.NUMBERVALUE(Master_Input!Q396)</f>
         <v>0</v>
       </c>
       <c r="G396" t="str">
@@ -9564,11 +9590,11 @@
         <v/>
       </c>
       <c r="E397" t="str">
-        <f>IF(ISBLANK(Master_Input!P397),"",Master_Input!P397)</f>
+        <f>IF(ISBLANK(Master_Input!T397),"",Master_Input!T397)</f>
         <v/>
       </c>
       <c r="F397">
-        <f>SUM(Master_Input!H397,Master_Input!K397,Master_Input!N397)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I397)+_xlfn.NUMBERVALUE(Master_Input!M397)+_xlfn.NUMBERVALUE(Master_Input!Q397)</f>
         <v>0</v>
       </c>
       <c r="G397" t="str">
@@ -9586,11 +9612,11 @@
         <v/>
       </c>
       <c r="E398" t="str">
-        <f>IF(ISBLANK(Master_Input!P398),"",Master_Input!P398)</f>
+        <f>IF(ISBLANK(Master_Input!T398),"",Master_Input!T398)</f>
         <v/>
       </c>
       <c r="F398">
-        <f>SUM(Master_Input!H398,Master_Input!K398,Master_Input!N398)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I398)+_xlfn.NUMBERVALUE(Master_Input!M398)+_xlfn.NUMBERVALUE(Master_Input!Q398)</f>
         <v>0</v>
       </c>
       <c r="G398" t="str">
@@ -9608,11 +9634,11 @@
         <v/>
       </c>
       <c r="E399" t="str">
-        <f>IF(ISBLANK(Master_Input!P399),"",Master_Input!P399)</f>
+        <f>IF(ISBLANK(Master_Input!T399),"",Master_Input!T399)</f>
         <v/>
       </c>
       <c r="F399">
-        <f>SUM(Master_Input!H399,Master_Input!K399,Master_Input!N399)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I399)+_xlfn.NUMBERVALUE(Master_Input!M399)+_xlfn.NUMBERVALUE(Master_Input!Q399)</f>
         <v>0</v>
       </c>
       <c r="G399" t="str">
@@ -9630,11 +9656,11 @@
         <v/>
       </c>
       <c r="E400" t="str">
-        <f>IF(ISBLANK(Master_Input!P400),"",Master_Input!P400)</f>
+        <f>IF(ISBLANK(Master_Input!T400),"",Master_Input!T400)</f>
         <v/>
       </c>
       <c r="F400">
-        <f>SUM(Master_Input!H400,Master_Input!K400,Master_Input!N400)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I400)+_xlfn.NUMBERVALUE(Master_Input!M400)+_xlfn.NUMBERVALUE(Master_Input!Q400)</f>
         <v>0</v>
       </c>
       <c r="G400" t="str">
@@ -9652,11 +9678,11 @@
         <v/>
       </c>
       <c r="E401" t="str">
-        <f>IF(ISBLANK(Master_Input!P401),"",Master_Input!P401)</f>
+        <f>IF(ISBLANK(Master_Input!T401),"",Master_Input!T401)</f>
         <v/>
       </c>
       <c r="F401">
-        <f>SUM(Master_Input!H401,Master_Input!K401,Master_Input!N401)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I401)+_xlfn.NUMBERVALUE(Master_Input!M401)+_xlfn.NUMBERVALUE(Master_Input!Q401)</f>
         <v>0</v>
       </c>
       <c r="G401" t="str">
@@ -9674,11 +9700,11 @@
         <v/>
       </c>
       <c r="E402" t="str">
-        <f>IF(ISBLANK(Master_Input!P402),"",Master_Input!P402)</f>
+        <f>IF(ISBLANK(Master_Input!T402),"",Master_Input!T402)</f>
         <v/>
       </c>
       <c r="F402">
-        <f>SUM(Master_Input!H402,Master_Input!K402,Master_Input!N402)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I402)+_xlfn.NUMBERVALUE(Master_Input!M402)+_xlfn.NUMBERVALUE(Master_Input!Q402)</f>
         <v>0</v>
       </c>
       <c r="G402" t="str">
@@ -9696,11 +9722,11 @@
         <v/>
       </c>
       <c r="E403" t="str">
-        <f>IF(ISBLANK(Master_Input!P403),"",Master_Input!P403)</f>
+        <f>IF(ISBLANK(Master_Input!T403),"",Master_Input!T403)</f>
         <v/>
       </c>
       <c r="F403">
-        <f>SUM(Master_Input!H403,Master_Input!K403,Master_Input!N403)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I403)+_xlfn.NUMBERVALUE(Master_Input!M403)+_xlfn.NUMBERVALUE(Master_Input!Q403)</f>
         <v>0</v>
       </c>
       <c r="G403" t="str">
@@ -9718,11 +9744,11 @@
         <v/>
       </c>
       <c r="E404" t="str">
-        <f>IF(ISBLANK(Master_Input!P404),"",Master_Input!P404)</f>
+        <f>IF(ISBLANK(Master_Input!T404),"",Master_Input!T404)</f>
         <v/>
       </c>
       <c r="F404">
-        <f>SUM(Master_Input!H404,Master_Input!K404,Master_Input!N404)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I404)+_xlfn.NUMBERVALUE(Master_Input!M404)+_xlfn.NUMBERVALUE(Master_Input!Q404)</f>
         <v>0</v>
       </c>
       <c r="G404" t="str">
@@ -9740,11 +9766,11 @@
         <v/>
       </c>
       <c r="E405" t="str">
-        <f>IF(ISBLANK(Master_Input!P405),"",Master_Input!P405)</f>
+        <f>IF(ISBLANK(Master_Input!T405),"",Master_Input!T405)</f>
         <v/>
       </c>
       <c r="F405">
-        <f>SUM(Master_Input!H405,Master_Input!K405,Master_Input!N405)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I405)+_xlfn.NUMBERVALUE(Master_Input!M405)+_xlfn.NUMBERVALUE(Master_Input!Q405)</f>
         <v>0</v>
       </c>
       <c r="G405" t="str">
@@ -9762,11 +9788,11 @@
         <v/>
       </c>
       <c r="E406" t="str">
-        <f>IF(ISBLANK(Master_Input!P406),"",Master_Input!P406)</f>
+        <f>IF(ISBLANK(Master_Input!T406),"",Master_Input!T406)</f>
         <v/>
       </c>
       <c r="F406">
-        <f>SUM(Master_Input!H406,Master_Input!K406,Master_Input!N406)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I406)+_xlfn.NUMBERVALUE(Master_Input!M406)+_xlfn.NUMBERVALUE(Master_Input!Q406)</f>
         <v>0</v>
       </c>
       <c r="G406" t="str">
@@ -9784,11 +9810,11 @@
         <v/>
       </c>
       <c r="E407" t="str">
-        <f>IF(ISBLANK(Master_Input!P407),"",Master_Input!P407)</f>
+        <f>IF(ISBLANK(Master_Input!T407),"",Master_Input!T407)</f>
         <v/>
       </c>
       <c r="F407">
-        <f>SUM(Master_Input!H407,Master_Input!K407,Master_Input!N407)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I407)+_xlfn.NUMBERVALUE(Master_Input!M407)+_xlfn.NUMBERVALUE(Master_Input!Q407)</f>
         <v>0</v>
       </c>
       <c r="G407" t="str">
@@ -9806,11 +9832,11 @@
         <v/>
       </c>
       <c r="E408" t="str">
-        <f>IF(ISBLANK(Master_Input!P408),"",Master_Input!P408)</f>
+        <f>IF(ISBLANK(Master_Input!T408),"",Master_Input!T408)</f>
         <v/>
       </c>
       <c r="F408">
-        <f>SUM(Master_Input!H408,Master_Input!K408,Master_Input!N408)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I408)+_xlfn.NUMBERVALUE(Master_Input!M408)+_xlfn.NUMBERVALUE(Master_Input!Q408)</f>
         <v>0</v>
       </c>
       <c r="G408" t="str">
@@ -9828,11 +9854,11 @@
         <v/>
       </c>
       <c r="E409" t="str">
-        <f>IF(ISBLANK(Master_Input!P409),"",Master_Input!P409)</f>
+        <f>IF(ISBLANK(Master_Input!T409),"",Master_Input!T409)</f>
         <v/>
       </c>
       <c r="F409">
-        <f>SUM(Master_Input!H409,Master_Input!K409,Master_Input!N409)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I409)+_xlfn.NUMBERVALUE(Master_Input!M409)+_xlfn.NUMBERVALUE(Master_Input!Q409)</f>
         <v>0</v>
       </c>
       <c r="G409" t="str">
@@ -9850,11 +9876,11 @@
         <v/>
       </c>
       <c r="E410" t="str">
-        <f>IF(ISBLANK(Master_Input!P410),"",Master_Input!P410)</f>
+        <f>IF(ISBLANK(Master_Input!T410),"",Master_Input!T410)</f>
         <v/>
       </c>
       <c r="F410">
-        <f>SUM(Master_Input!H410,Master_Input!K410,Master_Input!N410)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I410)+_xlfn.NUMBERVALUE(Master_Input!M410)+_xlfn.NUMBERVALUE(Master_Input!Q410)</f>
         <v>0</v>
       </c>
       <c r="G410" t="str">
@@ -9872,11 +9898,11 @@
         <v/>
       </c>
       <c r="E411" t="str">
-        <f>IF(ISBLANK(Master_Input!P411),"",Master_Input!P411)</f>
+        <f>IF(ISBLANK(Master_Input!T411),"",Master_Input!T411)</f>
         <v/>
       </c>
       <c r="F411">
-        <f>SUM(Master_Input!H411,Master_Input!K411,Master_Input!N411)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I411)+_xlfn.NUMBERVALUE(Master_Input!M411)+_xlfn.NUMBERVALUE(Master_Input!Q411)</f>
         <v>0</v>
       </c>
       <c r="G411" t="str">
@@ -9894,11 +9920,11 @@
         <v/>
       </c>
       <c r="E412" t="str">
-        <f>IF(ISBLANK(Master_Input!P412),"",Master_Input!P412)</f>
+        <f>IF(ISBLANK(Master_Input!T412),"",Master_Input!T412)</f>
         <v/>
       </c>
       <c r="F412">
-        <f>SUM(Master_Input!H412,Master_Input!K412,Master_Input!N412)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I412)+_xlfn.NUMBERVALUE(Master_Input!M412)+_xlfn.NUMBERVALUE(Master_Input!Q412)</f>
         <v>0</v>
       </c>
       <c r="G412" t="str">
@@ -9916,11 +9942,11 @@
         <v/>
       </c>
       <c r="E413" t="str">
-        <f>IF(ISBLANK(Master_Input!P413),"",Master_Input!P413)</f>
+        <f>IF(ISBLANK(Master_Input!T413),"",Master_Input!T413)</f>
         <v/>
       </c>
       <c r="F413">
-        <f>SUM(Master_Input!H413,Master_Input!K413,Master_Input!N413)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I413)+_xlfn.NUMBERVALUE(Master_Input!M413)+_xlfn.NUMBERVALUE(Master_Input!Q413)</f>
         <v>0</v>
       </c>
       <c r="G413" t="str">
@@ -9938,11 +9964,11 @@
         <v/>
       </c>
       <c r="E414" t="str">
-        <f>IF(ISBLANK(Master_Input!P414),"",Master_Input!P414)</f>
+        <f>IF(ISBLANK(Master_Input!T414),"",Master_Input!T414)</f>
         <v/>
       </c>
       <c r="F414">
-        <f>SUM(Master_Input!H414,Master_Input!K414,Master_Input!N414)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I414)+_xlfn.NUMBERVALUE(Master_Input!M414)+_xlfn.NUMBERVALUE(Master_Input!Q414)</f>
         <v>0</v>
       </c>
       <c r="G414" t="str">
@@ -9960,11 +9986,11 @@
         <v/>
       </c>
       <c r="E415" t="str">
-        <f>IF(ISBLANK(Master_Input!P415),"",Master_Input!P415)</f>
+        <f>IF(ISBLANK(Master_Input!T415),"",Master_Input!T415)</f>
         <v/>
       </c>
       <c r="F415">
-        <f>SUM(Master_Input!H415,Master_Input!K415,Master_Input!N415)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I415)+_xlfn.NUMBERVALUE(Master_Input!M415)+_xlfn.NUMBERVALUE(Master_Input!Q415)</f>
         <v>0</v>
       </c>
       <c r="G415" t="str">
@@ -9982,11 +10008,11 @@
         <v/>
       </c>
       <c r="E416" t="str">
-        <f>IF(ISBLANK(Master_Input!P416),"",Master_Input!P416)</f>
+        <f>IF(ISBLANK(Master_Input!T416),"",Master_Input!T416)</f>
         <v/>
       </c>
       <c r="F416">
-        <f>SUM(Master_Input!H416,Master_Input!K416,Master_Input!N416)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I416)+_xlfn.NUMBERVALUE(Master_Input!M416)+_xlfn.NUMBERVALUE(Master_Input!Q416)</f>
         <v>0</v>
       </c>
       <c r="G416" t="str">
@@ -10004,11 +10030,11 @@
         <v/>
       </c>
       <c r="E417" t="str">
-        <f>IF(ISBLANK(Master_Input!P417),"",Master_Input!P417)</f>
+        <f>IF(ISBLANK(Master_Input!T417),"",Master_Input!T417)</f>
         <v/>
       </c>
       <c r="F417">
-        <f>SUM(Master_Input!H417,Master_Input!K417,Master_Input!N417)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I417)+_xlfn.NUMBERVALUE(Master_Input!M417)+_xlfn.NUMBERVALUE(Master_Input!Q417)</f>
         <v>0</v>
       </c>
       <c r="G417" t="str">
@@ -10026,11 +10052,11 @@
         <v/>
       </c>
       <c r="E418" t="str">
-        <f>IF(ISBLANK(Master_Input!P418),"",Master_Input!P418)</f>
+        <f>IF(ISBLANK(Master_Input!T418),"",Master_Input!T418)</f>
         <v/>
       </c>
       <c r="F418">
-        <f>SUM(Master_Input!H418,Master_Input!K418,Master_Input!N418)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I418)+_xlfn.NUMBERVALUE(Master_Input!M418)+_xlfn.NUMBERVALUE(Master_Input!Q418)</f>
         <v>0</v>
       </c>
       <c r="G418" t="str">
@@ -10048,11 +10074,11 @@
         <v/>
       </c>
       <c r="E419" t="str">
-        <f>IF(ISBLANK(Master_Input!P419),"",Master_Input!P419)</f>
+        <f>IF(ISBLANK(Master_Input!T419),"",Master_Input!T419)</f>
         <v/>
       </c>
       <c r="F419">
-        <f>SUM(Master_Input!H419,Master_Input!K419,Master_Input!N419)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I419)+_xlfn.NUMBERVALUE(Master_Input!M419)+_xlfn.NUMBERVALUE(Master_Input!Q419)</f>
         <v>0</v>
       </c>
       <c r="G419" t="str">
@@ -10070,11 +10096,11 @@
         <v/>
       </c>
       <c r="E420" t="str">
-        <f>IF(ISBLANK(Master_Input!P420),"",Master_Input!P420)</f>
+        <f>IF(ISBLANK(Master_Input!T420),"",Master_Input!T420)</f>
         <v/>
       </c>
       <c r="F420">
-        <f>SUM(Master_Input!H420,Master_Input!K420,Master_Input!N420)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I420)+_xlfn.NUMBERVALUE(Master_Input!M420)+_xlfn.NUMBERVALUE(Master_Input!Q420)</f>
         <v>0</v>
       </c>
       <c r="G420" t="str">
@@ -10092,11 +10118,11 @@
         <v/>
       </c>
       <c r="E421" t="str">
-        <f>IF(ISBLANK(Master_Input!P421),"",Master_Input!P421)</f>
+        <f>IF(ISBLANK(Master_Input!T421),"",Master_Input!T421)</f>
         <v/>
       </c>
       <c r="F421">
-        <f>SUM(Master_Input!H421,Master_Input!K421,Master_Input!N421)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I421)+_xlfn.NUMBERVALUE(Master_Input!M421)+_xlfn.NUMBERVALUE(Master_Input!Q421)</f>
         <v>0</v>
       </c>
       <c r="G421" t="str">
@@ -10114,11 +10140,11 @@
         <v/>
       </c>
       <c r="E422" t="str">
-        <f>IF(ISBLANK(Master_Input!P422),"",Master_Input!P422)</f>
+        <f>IF(ISBLANK(Master_Input!T422),"",Master_Input!T422)</f>
         <v/>
       </c>
       <c r="F422">
-        <f>SUM(Master_Input!H422,Master_Input!K422,Master_Input!N422)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I422)+_xlfn.NUMBERVALUE(Master_Input!M422)+_xlfn.NUMBERVALUE(Master_Input!Q422)</f>
         <v>0</v>
       </c>
       <c r="G422" t="str">
@@ -10136,11 +10162,11 @@
         <v/>
       </c>
       <c r="E423" t="str">
-        <f>IF(ISBLANK(Master_Input!P423),"",Master_Input!P423)</f>
+        <f>IF(ISBLANK(Master_Input!T423),"",Master_Input!T423)</f>
         <v/>
       </c>
       <c r="F423">
-        <f>SUM(Master_Input!H423,Master_Input!K423,Master_Input!N423)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I423)+_xlfn.NUMBERVALUE(Master_Input!M423)+_xlfn.NUMBERVALUE(Master_Input!Q423)</f>
         <v>0</v>
       </c>
       <c r="G423" t="str">
@@ -10158,11 +10184,11 @@
         <v/>
       </c>
       <c r="E424" t="str">
-        <f>IF(ISBLANK(Master_Input!P424),"",Master_Input!P424)</f>
+        <f>IF(ISBLANK(Master_Input!T424),"",Master_Input!T424)</f>
         <v/>
       </c>
       <c r="F424">
-        <f>SUM(Master_Input!H424,Master_Input!K424,Master_Input!N424)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I424)+_xlfn.NUMBERVALUE(Master_Input!M424)+_xlfn.NUMBERVALUE(Master_Input!Q424)</f>
         <v>0</v>
       </c>
       <c r="G424" t="str">
@@ -10180,11 +10206,11 @@
         <v/>
       </c>
       <c r="E425" t="str">
-        <f>IF(ISBLANK(Master_Input!P425),"",Master_Input!P425)</f>
+        <f>IF(ISBLANK(Master_Input!T425),"",Master_Input!T425)</f>
         <v/>
       </c>
       <c r="F425">
-        <f>SUM(Master_Input!H425,Master_Input!K425,Master_Input!N425)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I425)+_xlfn.NUMBERVALUE(Master_Input!M425)+_xlfn.NUMBERVALUE(Master_Input!Q425)</f>
         <v>0</v>
       </c>
       <c r="G425" t="str">
@@ -10202,11 +10228,11 @@
         <v/>
       </c>
       <c r="E426" t="str">
-        <f>IF(ISBLANK(Master_Input!P426),"",Master_Input!P426)</f>
+        <f>IF(ISBLANK(Master_Input!T426),"",Master_Input!T426)</f>
         <v/>
       </c>
       <c r="F426">
-        <f>SUM(Master_Input!H426,Master_Input!K426,Master_Input!N426)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I426)+_xlfn.NUMBERVALUE(Master_Input!M426)+_xlfn.NUMBERVALUE(Master_Input!Q426)</f>
         <v>0</v>
       </c>
       <c r="G426" t="str">
@@ -10224,11 +10250,11 @@
         <v/>
       </c>
       <c r="E427" t="str">
-        <f>IF(ISBLANK(Master_Input!P427),"",Master_Input!P427)</f>
+        <f>IF(ISBLANK(Master_Input!T427),"",Master_Input!T427)</f>
         <v/>
       </c>
       <c r="F427">
-        <f>SUM(Master_Input!H427,Master_Input!K427,Master_Input!N427)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I427)+_xlfn.NUMBERVALUE(Master_Input!M427)+_xlfn.NUMBERVALUE(Master_Input!Q427)</f>
         <v>0</v>
       </c>
       <c r="G427" t="str">
@@ -10246,11 +10272,11 @@
         <v/>
       </c>
       <c r="E428" t="str">
-        <f>IF(ISBLANK(Master_Input!P428),"",Master_Input!P428)</f>
+        <f>IF(ISBLANK(Master_Input!T428),"",Master_Input!T428)</f>
         <v/>
       </c>
       <c r="F428">
-        <f>SUM(Master_Input!H428,Master_Input!K428,Master_Input!N428)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I428)+_xlfn.NUMBERVALUE(Master_Input!M428)+_xlfn.NUMBERVALUE(Master_Input!Q428)</f>
         <v>0</v>
       </c>
       <c r="G428" t="str">
@@ -10268,11 +10294,11 @@
         <v/>
       </c>
       <c r="E429" t="str">
-        <f>IF(ISBLANK(Master_Input!P429),"",Master_Input!P429)</f>
+        <f>IF(ISBLANK(Master_Input!T429),"",Master_Input!T429)</f>
         <v/>
       </c>
       <c r="F429">
-        <f>SUM(Master_Input!H429,Master_Input!K429,Master_Input!N429)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I429)+_xlfn.NUMBERVALUE(Master_Input!M429)+_xlfn.NUMBERVALUE(Master_Input!Q429)</f>
         <v>0</v>
       </c>
       <c r="G429" t="str">
@@ -10290,11 +10316,11 @@
         <v/>
       </c>
       <c r="E430" t="str">
-        <f>IF(ISBLANK(Master_Input!P430),"",Master_Input!P430)</f>
+        <f>IF(ISBLANK(Master_Input!T430),"",Master_Input!T430)</f>
         <v/>
       </c>
       <c r="F430">
-        <f>SUM(Master_Input!H430,Master_Input!K430,Master_Input!N430)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I430)+_xlfn.NUMBERVALUE(Master_Input!M430)+_xlfn.NUMBERVALUE(Master_Input!Q430)</f>
         <v>0</v>
       </c>
       <c r="G430" t="str">
@@ -10312,11 +10338,11 @@
         <v/>
       </c>
       <c r="E431" t="str">
-        <f>IF(ISBLANK(Master_Input!P431),"",Master_Input!P431)</f>
+        <f>IF(ISBLANK(Master_Input!T431),"",Master_Input!T431)</f>
         <v/>
       </c>
       <c r="F431">
-        <f>SUM(Master_Input!H431,Master_Input!K431,Master_Input!N431)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I431)+_xlfn.NUMBERVALUE(Master_Input!M431)+_xlfn.NUMBERVALUE(Master_Input!Q431)</f>
         <v>0</v>
       </c>
       <c r="G431" t="str">
@@ -10334,11 +10360,11 @@
         <v/>
       </c>
       <c r="E432" t="str">
-        <f>IF(ISBLANK(Master_Input!P432),"",Master_Input!P432)</f>
+        <f>IF(ISBLANK(Master_Input!T432),"",Master_Input!T432)</f>
         <v/>
       </c>
       <c r="F432">
-        <f>SUM(Master_Input!H432,Master_Input!K432,Master_Input!N432)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I432)+_xlfn.NUMBERVALUE(Master_Input!M432)+_xlfn.NUMBERVALUE(Master_Input!Q432)</f>
         <v>0</v>
       </c>
       <c r="G432" t="str">
@@ -10356,11 +10382,11 @@
         <v/>
       </c>
       <c r="E433" t="str">
-        <f>IF(ISBLANK(Master_Input!P433),"",Master_Input!P433)</f>
+        <f>IF(ISBLANK(Master_Input!T433),"",Master_Input!T433)</f>
         <v/>
       </c>
       <c r="F433">
-        <f>SUM(Master_Input!H433,Master_Input!K433,Master_Input!N433)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I433)+_xlfn.NUMBERVALUE(Master_Input!M433)+_xlfn.NUMBERVALUE(Master_Input!Q433)</f>
         <v>0</v>
       </c>
       <c r="G433" t="str">
@@ -10378,11 +10404,11 @@
         <v/>
       </c>
       <c r="E434" t="str">
-        <f>IF(ISBLANK(Master_Input!P434),"",Master_Input!P434)</f>
+        <f>IF(ISBLANK(Master_Input!T434),"",Master_Input!T434)</f>
         <v/>
       </c>
       <c r="F434">
-        <f>SUM(Master_Input!H434,Master_Input!K434,Master_Input!N434)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I434)+_xlfn.NUMBERVALUE(Master_Input!M434)+_xlfn.NUMBERVALUE(Master_Input!Q434)</f>
         <v>0</v>
       </c>
       <c r="G434" t="str">
@@ -10400,11 +10426,11 @@
         <v/>
       </c>
       <c r="E435" t="str">
-        <f>IF(ISBLANK(Master_Input!P435),"",Master_Input!P435)</f>
+        <f>IF(ISBLANK(Master_Input!T435),"",Master_Input!T435)</f>
         <v/>
       </c>
       <c r="F435">
-        <f>SUM(Master_Input!H435,Master_Input!K435,Master_Input!N435)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I435)+_xlfn.NUMBERVALUE(Master_Input!M435)+_xlfn.NUMBERVALUE(Master_Input!Q435)</f>
         <v>0</v>
       </c>
       <c r="G435" t="str">
@@ -10422,11 +10448,11 @@
         <v/>
       </c>
       <c r="E436" t="str">
-        <f>IF(ISBLANK(Master_Input!P436),"",Master_Input!P436)</f>
+        <f>IF(ISBLANK(Master_Input!T436),"",Master_Input!T436)</f>
         <v/>
       </c>
       <c r="F436">
-        <f>SUM(Master_Input!H436,Master_Input!K436,Master_Input!N436)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I436)+_xlfn.NUMBERVALUE(Master_Input!M436)+_xlfn.NUMBERVALUE(Master_Input!Q436)</f>
         <v>0</v>
       </c>
       <c r="G436" t="str">
@@ -10444,11 +10470,11 @@
         <v/>
       </c>
       <c r="E437" t="str">
-        <f>IF(ISBLANK(Master_Input!P437),"",Master_Input!P437)</f>
+        <f>IF(ISBLANK(Master_Input!T437),"",Master_Input!T437)</f>
         <v/>
       </c>
       <c r="F437">
-        <f>SUM(Master_Input!H437,Master_Input!K437,Master_Input!N437)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I437)+_xlfn.NUMBERVALUE(Master_Input!M437)+_xlfn.NUMBERVALUE(Master_Input!Q437)</f>
         <v>0</v>
       </c>
       <c r="G437" t="str">
@@ -10466,11 +10492,11 @@
         <v/>
       </c>
       <c r="E438" t="str">
-        <f>IF(ISBLANK(Master_Input!P438),"",Master_Input!P438)</f>
+        <f>IF(ISBLANK(Master_Input!T438),"",Master_Input!T438)</f>
         <v/>
       </c>
       <c r="F438">
-        <f>SUM(Master_Input!H438,Master_Input!K438,Master_Input!N438)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I438)+_xlfn.NUMBERVALUE(Master_Input!M438)+_xlfn.NUMBERVALUE(Master_Input!Q438)</f>
         <v>0</v>
       </c>
       <c r="G438" t="str">
@@ -10488,11 +10514,11 @@
         <v/>
       </c>
       <c r="E439" t="str">
-        <f>IF(ISBLANK(Master_Input!P439),"",Master_Input!P439)</f>
+        <f>IF(ISBLANK(Master_Input!T439),"",Master_Input!T439)</f>
         <v/>
       </c>
       <c r="F439">
-        <f>SUM(Master_Input!H439,Master_Input!K439,Master_Input!N439)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I439)+_xlfn.NUMBERVALUE(Master_Input!M439)+_xlfn.NUMBERVALUE(Master_Input!Q439)</f>
         <v>0</v>
       </c>
       <c r="G439" t="str">
@@ -10510,11 +10536,11 @@
         <v/>
       </c>
       <c r="E440" t="str">
-        <f>IF(ISBLANK(Master_Input!P440),"",Master_Input!P440)</f>
+        <f>IF(ISBLANK(Master_Input!T440),"",Master_Input!T440)</f>
         <v/>
       </c>
       <c r="F440">
-        <f>SUM(Master_Input!H440,Master_Input!K440,Master_Input!N440)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I440)+_xlfn.NUMBERVALUE(Master_Input!M440)+_xlfn.NUMBERVALUE(Master_Input!Q440)</f>
         <v>0</v>
       </c>
       <c r="G440" t="str">
@@ -10532,11 +10558,11 @@
         <v/>
       </c>
       <c r="E441" t="str">
-        <f>IF(ISBLANK(Master_Input!P441),"",Master_Input!P441)</f>
+        <f>IF(ISBLANK(Master_Input!T441),"",Master_Input!T441)</f>
         <v/>
       </c>
       <c r="F441">
-        <f>SUM(Master_Input!H441,Master_Input!K441,Master_Input!N441)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I441)+_xlfn.NUMBERVALUE(Master_Input!M441)+_xlfn.NUMBERVALUE(Master_Input!Q441)</f>
         <v>0</v>
       </c>
       <c r="G441" t="str">
@@ -10554,11 +10580,11 @@
         <v/>
       </c>
       <c r="E442" t="str">
-        <f>IF(ISBLANK(Master_Input!P442),"",Master_Input!P442)</f>
+        <f>IF(ISBLANK(Master_Input!T442),"",Master_Input!T442)</f>
         <v/>
       </c>
       <c r="F442">
-        <f>SUM(Master_Input!H442,Master_Input!K442,Master_Input!N442)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I442)+_xlfn.NUMBERVALUE(Master_Input!M442)+_xlfn.NUMBERVALUE(Master_Input!Q442)</f>
         <v>0</v>
       </c>
       <c r="G442" t="str">
@@ -10576,11 +10602,11 @@
         <v/>
       </c>
       <c r="E443" t="str">
-        <f>IF(ISBLANK(Master_Input!P443),"",Master_Input!P443)</f>
+        <f>IF(ISBLANK(Master_Input!T443),"",Master_Input!T443)</f>
         <v/>
       </c>
       <c r="F443">
-        <f>SUM(Master_Input!H443,Master_Input!K443,Master_Input!N443)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I443)+_xlfn.NUMBERVALUE(Master_Input!M443)+_xlfn.NUMBERVALUE(Master_Input!Q443)</f>
         <v>0</v>
       </c>
       <c r="G443" t="str">
@@ -10598,11 +10624,11 @@
         <v/>
       </c>
       <c r="E444" t="str">
-        <f>IF(ISBLANK(Master_Input!P444),"",Master_Input!P444)</f>
+        <f>IF(ISBLANK(Master_Input!T444),"",Master_Input!T444)</f>
         <v/>
       </c>
       <c r="F444">
-        <f>SUM(Master_Input!H444,Master_Input!K444,Master_Input!N444)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I444)+_xlfn.NUMBERVALUE(Master_Input!M444)+_xlfn.NUMBERVALUE(Master_Input!Q444)</f>
         <v>0</v>
       </c>
       <c r="G444" t="str">
@@ -10620,11 +10646,11 @@
         <v/>
       </c>
       <c r="E445" t="str">
-        <f>IF(ISBLANK(Master_Input!P445),"",Master_Input!P445)</f>
+        <f>IF(ISBLANK(Master_Input!T445),"",Master_Input!T445)</f>
         <v/>
       </c>
       <c r="F445">
-        <f>SUM(Master_Input!H445,Master_Input!K445,Master_Input!N445)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I445)+_xlfn.NUMBERVALUE(Master_Input!M445)+_xlfn.NUMBERVALUE(Master_Input!Q445)</f>
         <v>0</v>
       </c>
       <c r="G445" t="str">
@@ -10642,11 +10668,11 @@
         <v/>
       </c>
       <c r="E446" t="str">
-        <f>IF(ISBLANK(Master_Input!P446),"",Master_Input!P446)</f>
+        <f>IF(ISBLANK(Master_Input!T446),"",Master_Input!T446)</f>
         <v/>
       </c>
       <c r="F446">
-        <f>SUM(Master_Input!H446,Master_Input!K446,Master_Input!N446)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I446)+_xlfn.NUMBERVALUE(Master_Input!M446)+_xlfn.NUMBERVALUE(Master_Input!Q446)</f>
         <v>0</v>
       </c>
       <c r="G446" t="str">
@@ -10664,11 +10690,11 @@
         <v/>
       </c>
       <c r="E447" t="str">
-        <f>IF(ISBLANK(Master_Input!P447),"",Master_Input!P447)</f>
+        <f>IF(ISBLANK(Master_Input!T447),"",Master_Input!T447)</f>
         <v/>
       </c>
       <c r="F447">
-        <f>SUM(Master_Input!H447,Master_Input!K447,Master_Input!N447)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I447)+_xlfn.NUMBERVALUE(Master_Input!M447)+_xlfn.NUMBERVALUE(Master_Input!Q447)</f>
         <v>0</v>
       </c>
       <c r="G447" t="str">
@@ -10686,11 +10712,11 @@
         <v/>
       </c>
       <c r="E448" t="str">
-        <f>IF(ISBLANK(Master_Input!P448),"",Master_Input!P448)</f>
+        <f>IF(ISBLANK(Master_Input!T448),"",Master_Input!T448)</f>
         <v/>
       </c>
       <c r="F448">
-        <f>SUM(Master_Input!H448,Master_Input!K448,Master_Input!N448)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I448)+_xlfn.NUMBERVALUE(Master_Input!M448)+_xlfn.NUMBERVALUE(Master_Input!Q448)</f>
         <v>0</v>
       </c>
       <c r="G448" t="str">
@@ -10708,11 +10734,11 @@
         <v/>
       </c>
       <c r="E449" t="str">
-        <f>IF(ISBLANK(Master_Input!P449),"",Master_Input!P449)</f>
+        <f>IF(ISBLANK(Master_Input!T449),"",Master_Input!T449)</f>
         <v/>
       </c>
       <c r="F449">
-        <f>SUM(Master_Input!H449,Master_Input!K449,Master_Input!N449)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I449)+_xlfn.NUMBERVALUE(Master_Input!M449)+_xlfn.NUMBERVALUE(Master_Input!Q449)</f>
         <v>0</v>
       </c>
       <c r="G449" t="str">
@@ -10730,11 +10756,11 @@
         <v/>
       </c>
       <c r="E450" t="str">
-        <f>IF(ISBLANK(Master_Input!P450),"",Master_Input!P450)</f>
+        <f>IF(ISBLANK(Master_Input!T450),"",Master_Input!T450)</f>
         <v/>
       </c>
       <c r="F450">
-        <f>SUM(Master_Input!H450,Master_Input!K450,Master_Input!N450)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I450)+_xlfn.NUMBERVALUE(Master_Input!M450)+_xlfn.NUMBERVALUE(Master_Input!Q450)</f>
         <v>0</v>
       </c>
       <c r="G450" t="str">
@@ -10752,11 +10778,11 @@
         <v/>
       </c>
       <c r="E451" t="str">
-        <f>IF(ISBLANK(Master_Input!P451),"",Master_Input!P451)</f>
+        <f>IF(ISBLANK(Master_Input!T451),"",Master_Input!T451)</f>
         <v/>
       </c>
       <c r="F451">
-        <f>SUM(Master_Input!H451,Master_Input!K451,Master_Input!N451)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I451)+_xlfn.NUMBERVALUE(Master_Input!M451)+_xlfn.NUMBERVALUE(Master_Input!Q451)</f>
         <v>0</v>
       </c>
       <c r="G451" t="str">
@@ -10774,11 +10800,11 @@
         <v/>
       </c>
       <c r="E452" t="str">
-        <f>IF(ISBLANK(Master_Input!P452),"",Master_Input!P452)</f>
+        <f>IF(ISBLANK(Master_Input!T452),"",Master_Input!T452)</f>
         <v/>
       </c>
       <c r="F452">
-        <f>SUM(Master_Input!H452,Master_Input!K452,Master_Input!N452)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I452)+_xlfn.NUMBERVALUE(Master_Input!M452)+_xlfn.NUMBERVALUE(Master_Input!Q452)</f>
         <v>0</v>
       </c>
       <c r="G452" t="str">
@@ -10796,11 +10822,11 @@
         <v/>
       </c>
       <c r="E453" t="str">
-        <f>IF(ISBLANK(Master_Input!P453),"",Master_Input!P453)</f>
+        <f>IF(ISBLANK(Master_Input!T453),"",Master_Input!T453)</f>
         <v/>
       </c>
       <c r="F453">
-        <f>SUM(Master_Input!H453,Master_Input!K453,Master_Input!N453)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I453)+_xlfn.NUMBERVALUE(Master_Input!M453)+_xlfn.NUMBERVALUE(Master_Input!Q453)</f>
         <v>0</v>
       </c>
       <c r="G453" t="str">
@@ -10818,11 +10844,11 @@
         <v/>
       </c>
       <c r="E454" t="str">
-        <f>IF(ISBLANK(Master_Input!P454),"",Master_Input!P454)</f>
+        <f>IF(ISBLANK(Master_Input!T454),"",Master_Input!T454)</f>
         <v/>
       </c>
       <c r="F454">
-        <f>SUM(Master_Input!H454,Master_Input!K454,Master_Input!N454)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I454)+_xlfn.NUMBERVALUE(Master_Input!M454)+_xlfn.NUMBERVALUE(Master_Input!Q454)</f>
         <v>0</v>
       </c>
       <c r="G454" t="str">
@@ -10840,11 +10866,11 @@
         <v/>
       </c>
       <c r="E455" t="str">
-        <f>IF(ISBLANK(Master_Input!P455),"",Master_Input!P455)</f>
+        <f>IF(ISBLANK(Master_Input!T455),"",Master_Input!T455)</f>
         <v/>
       </c>
       <c r="F455">
-        <f>SUM(Master_Input!H455,Master_Input!K455,Master_Input!N455)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I455)+_xlfn.NUMBERVALUE(Master_Input!M455)+_xlfn.NUMBERVALUE(Master_Input!Q455)</f>
         <v>0</v>
       </c>
       <c r="G455" t="str">
@@ -10862,11 +10888,11 @@
         <v/>
       </c>
       <c r="E456" t="str">
-        <f>IF(ISBLANK(Master_Input!P456),"",Master_Input!P456)</f>
+        <f>IF(ISBLANK(Master_Input!T456),"",Master_Input!T456)</f>
         <v/>
       </c>
       <c r="F456">
-        <f>SUM(Master_Input!H456,Master_Input!K456,Master_Input!N456)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I456)+_xlfn.NUMBERVALUE(Master_Input!M456)+_xlfn.NUMBERVALUE(Master_Input!Q456)</f>
         <v>0</v>
       </c>
       <c r="G456" t="str">
@@ -10884,11 +10910,11 @@
         <v/>
       </c>
       <c r="E457" t="str">
-        <f>IF(ISBLANK(Master_Input!P457),"",Master_Input!P457)</f>
+        <f>IF(ISBLANK(Master_Input!T457),"",Master_Input!T457)</f>
         <v/>
       </c>
       <c r="F457">
-        <f>SUM(Master_Input!H457,Master_Input!K457,Master_Input!N457)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I457)+_xlfn.NUMBERVALUE(Master_Input!M457)+_xlfn.NUMBERVALUE(Master_Input!Q457)</f>
         <v>0</v>
       </c>
       <c r="G457" t="str">
@@ -10906,11 +10932,11 @@
         <v/>
       </c>
       <c r="E458" t="str">
-        <f>IF(ISBLANK(Master_Input!P458),"",Master_Input!P458)</f>
+        <f>IF(ISBLANK(Master_Input!T458),"",Master_Input!T458)</f>
         <v/>
       </c>
       <c r="F458">
-        <f>SUM(Master_Input!H458,Master_Input!K458,Master_Input!N458)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I458)+_xlfn.NUMBERVALUE(Master_Input!M458)+_xlfn.NUMBERVALUE(Master_Input!Q458)</f>
         <v>0</v>
       </c>
       <c r="G458" t="str">
@@ -10928,11 +10954,11 @@
         <v/>
       </c>
       <c r="E459" t="str">
-        <f>IF(ISBLANK(Master_Input!P459),"",Master_Input!P459)</f>
+        <f>IF(ISBLANK(Master_Input!T459),"",Master_Input!T459)</f>
         <v/>
       </c>
       <c r="F459">
-        <f>SUM(Master_Input!H459,Master_Input!K459,Master_Input!N459)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I459)+_xlfn.NUMBERVALUE(Master_Input!M459)+_xlfn.NUMBERVALUE(Master_Input!Q459)</f>
         <v>0</v>
       </c>
       <c r="G459" t="str">
@@ -10950,11 +10976,11 @@
         <v/>
       </c>
       <c r="E460" t="str">
-        <f>IF(ISBLANK(Master_Input!P460),"",Master_Input!P460)</f>
+        <f>IF(ISBLANK(Master_Input!T460),"",Master_Input!T460)</f>
         <v/>
       </c>
       <c r="F460">
-        <f>SUM(Master_Input!H460,Master_Input!K460,Master_Input!N460)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I460)+_xlfn.NUMBERVALUE(Master_Input!M460)+_xlfn.NUMBERVALUE(Master_Input!Q460)</f>
         <v>0</v>
       </c>
       <c r="G460" t="str">
@@ -10972,11 +10998,11 @@
         <v/>
       </c>
       <c r="E461" t="str">
-        <f>IF(ISBLANK(Master_Input!P461),"",Master_Input!P461)</f>
+        <f>IF(ISBLANK(Master_Input!T461),"",Master_Input!T461)</f>
         <v/>
       </c>
       <c r="F461">
-        <f>SUM(Master_Input!H461,Master_Input!K461,Master_Input!N461)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I461)+_xlfn.NUMBERVALUE(Master_Input!M461)+_xlfn.NUMBERVALUE(Master_Input!Q461)</f>
         <v>0</v>
       </c>
       <c r="G461" t="str">
@@ -10994,11 +11020,11 @@
         <v/>
       </c>
       <c r="E462" t="str">
-        <f>IF(ISBLANK(Master_Input!P462),"",Master_Input!P462)</f>
+        <f>IF(ISBLANK(Master_Input!T462),"",Master_Input!T462)</f>
         <v/>
       </c>
       <c r="F462">
-        <f>SUM(Master_Input!H462,Master_Input!K462,Master_Input!N462)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I462)+_xlfn.NUMBERVALUE(Master_Input!M462)+_xlfn.NUMBERVALUE(Master_Input!Q462)</f>
         <v>0</v>
       </c>
       <c r="G462" t="str">
@@ -11016,11 +11042,11 @@
         <v/>
       </c>
       <c r="E463" t="str">
-        <f>IF(ISBLANK(Master_Input!P463),"",Master_Input!P463)</f>
+        <f>IF(ISBLANK(Master_Input!T463),"",Master_Input!T463)</f>
         <v/>
       </c>
       <c r="F463">
-        <f>SUM(Master_Input!H463,Master_Input!K463,Master_Input!N463)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I463)+_xlfn.NUMBERVALUE(Master_Input!M463)+_xlfn.NUMBERVALUE(Master_Input!Q463)</f>
         <v>0</v>
       </c>
       <c r="G463" t="str">
@@ -11038,11 +11064,11 @@
         <v/>
       </c>
       <c r="E464" t="str">
-        <f>IF(ISBLANK(Master_Input!P464),"",Master_Input!P464)</f>
+        <f>IF(ISBLANK(Master_Input!T464),"",Master_Input!T464)</f>
         <v/>
       </c>
       <c r="F464">
-        <f>SUM(Master_Input!H464,Master_Input!K464,Master_Input!N464)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I464)+_xlfn.NUMBERVALUE(Master_Input!M464)+_xlfn.NUMBERVALUE(Master_Input!Q464)</f>
         <v>0</v>
       </c>
       <c r="G464" t="str">
@@ -11060,11 +11086,11 @@
         <v/>
       </c>
       <c r="E465" t="str">
-        <f>IF(ISBLANK(Master_Input!P465),"",Master_Input!P465)</f>
+        <f>IF(ISBLANK(Master_Input!T465),"",Master_Input!T465)</f>
         <v/>
       </c>
       <c r="F465">
-        <f>SUM(Master_Input!H465,Master_Input!K465,Master_Input!N465)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I465)+_xlfn.NUMBERVALUE(Master_Input!M465)+_xlfn.NUMBERVALUE(Master_Input!Q465)</f>
         <v>0</v>
       </c>
       <c r="G465" t="str">
@@ -11082,11 +11108,11 @@
         <v/>
       </c>
       <c r="E466" t="str">
-        <f>IF(ISBLANK(Master_Input!P466),"",Master_Input!P466)</f>
+        <f>IF(ISBLANK(Master_Input!T466),"",Master_Input!T466)</f>
         <v/>
       </c>
       <c r="F466">
-        <f>SUM(Master_Input!H466,Master_Input!K466,Master_Input!N466)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I466)+_xlfn.NUMBERVALUE(Master_Input!M466)+_xlfn.NUMBERVALUE(Master_Input!Q466)</f>
         <v>0</v>
       </c>
       <c r="G466" t="str">
@@ -11104,11 +11130,11 @@
         <v/>
       </c>
       <c r="E467" t="str">
-        <f>IF(ISBLANK(Master_Input!P467),"",Master_Input!P467)</f>
+        <f>IF(ISBLANK(Master_Input!T467),"",Master_Input!T467)</f>
         <v/>
       </c>
       <c r="F467">
-        <f>SUM(Master_Input!H467,Master_Input!K467,Master_Input!N467)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I467)+_xlfn.NUMBERVALUE(Master_Input!M467)+_xlfn.NUMBERVALUE(Master_Input!Q467)</f>
         <v>0</v>
       </c>
       <c r="G467" t="str">
@@ -11126,11 +11152,11 @@
         <v/>
       </c>
       <c r="E468" t="str">
-        <f>IF(ISBLANK(Master_Input!P468),"",Master_Input!P468)</f>
+        <f>IF(ISBLANK(Master_Input!T468),"",Master_Input!T468)</f>
         <v/>
       </c>
       <c r="F468">
-        <f>SUM(Master_Input!H468,Master_Input!K468,Master_Input!N468)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I468)+_xlfn.NUMBERVALUE(Master_Input!M468)+_xlfn.NUMBERVALUE(Master_Input!Q468)</f>
         <v>0</v>
       </c>
       <c r="G468" t="str">
@@ -11148,11 +11174,11 @@
         <v/>
       </c>
       <c r="E469" t="str">
-        <f>IF(ISBLANK(Master_Input!P469),"",Master_Input!P469)</f>
+        <f>IF(ISBLANK(Master_Input!T469),"",Master_Input!T469)</f>
         <v/>
       </c>
       <c r="F469">
-        <f>SUM(Master_Input!H469,Master_Input!K469,Master_Input!N469)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I469)+_xlfn.NUMBERVALUE(Master_Input!M469)+_xlfn.NUMBERVALUE(Master_Input!Q469)</f>
         <v>0</v>
       </c>
       <c r="G469" t="str">
@@ -11170,11 +11196,11 @@
         <v/>
       </c>
       <c r="E470" t="str">
-        <f>IF(ISBLANK(Master_Input!P470),"",Master_Input!P470)</f>
+        <f>IF(ISBLANK(Master_Input!T470),"",Master_Input!T470)</f>
         <v/>
       </c>
       <c r="F470">
-        <f>SUM(Master_Input!H470,Master_Input!K470,Master_Input!N470)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I470)+_xlfn.NUMBERVALUE(Master_Input!M470)+_xlfn.NUMBERVALUE(Master_Input!Q470)</f>
         <v>0</v>
       </c>
       <c r="G470" t="str">
@@ -11192,11 +11218,11 @@
         <v/>
       </c>
       <c r="E471" t="str">
-        <f>IF(ISBLANK(Master_Input!P471),"",Master_Input!P471)</f>
+        <f>IF(ISBLANK(Master_Input!T471),"",Master_Input!T471)</f>
         <v/>
       </c>
       <c r="F471">
-        <f>SUM(Master_Input!H471,Master_Input!K471,Master_Input!N471)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I471)+_xlfn.NUMBERVALUE(Master_Input!M471)+_xlfn.NUMBERVALUE(Master_Input!Q471)</f>
         <v>0</v>
       </c>
       <c r="G471" t="str">
@@ -11214,11 +11240,11 @@
         <v/>
       </c>
       <c r="E472" t="str">
-        <f>IF(ISBLANK(Master_Input!P472),"",Master_Input!P472)</f>
+        <f>IF(ISBLANK(Master_Input!T472),"",Master_Input!T472)</f>
         <v/>
       </c>
       <c r="F472">
-        <f>SUM(Master_Input!H472,Master_Input!K472,Master_Input!N472)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I472)+_xlfn.NUMBERVALUE(Master_Input!M472)+_xlfn.NUMBERVALUE(Master_Input!Q472)</f>
         <v>0</v>
       </c>
       <c r="G472" t="str">
@@ -11236,11 +11262,11 @@
         <v/>
       </c>
       <c r="E473" t="str">
-        <f>IF(ISBLANK(Master_Input!P473),"",Master_Input!P473)</f>
+        <f>IF(ISBLANK(Master_Input!T473),"",Master_Input!T473)</f>
         <v/>
       </c>
       <c r="F473">
-        <f>SUM(Master_Input!H473,Master_Input!K473,Master_Input!N473)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I473)+_xlfn.NUMBERVALUE(Master_Input!M473)+_xlfn.NUMBERVALUE(Master_Input!Q473)</f>
         <v>0</v>
       </c>
       <c r="G473" t="str">
@@ -11258,11 +11284,11 @@
         <v/>
       </c>
       <c r="E474" t="str">
-        <f>IF(ISBLANK(Master_Input!P474),"",Master_Input!P474)</f>
+        <f>IF(ISBLANK(Master_Input!T474),"",Master_Input!T474)</f>
         <v/>
       </c>
       <c r="F474">
-        <f>SUM(Master_Input!H474,Master_Input!K474,Master_Input!N474)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I474)+_xlfn.NUMBERVALUE(Master_Input!M474)+_xlfn.NUMBERVALUE(Master_Input!Q474)</f>
         <v>0</v>
       </c>
       <c r="G474" t="str">
@@ -11280,11 +11306,11 @@
         <v/>
       </c>
       <c r="E475" t="str">
-        <f>IF(ISBLANK(Master_Input!P475),"",Master_Input!P475)</f>
+        <f>IF(ISBLANK(Master_Input!T475),"",Master_Input!T475)</f>
         <v/>
       </c>
       <c r="F475">
-        <f>SUM(Master_Input!H475,Master_Input!K475,Master_Input!N475)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I475)+_xlfn.NUMBERVALUE(Master_Input!M475)+_xlfn.NUMBERVALUE(Master_Input!Q475)</f>
         <v>0</v>
       </c>
       <c r="G475" t="str">
@@ -11302,11 +11328,11 @@
         <v/>
       </c>
       <c r="E476" t="str">
-        <f>IF(ISBLANK(Master_Input!P476),"",Master_Input!P476)</f>
+        <f>IF(ISBLANK(Master_Input!T476),"",Master_Input!T476)</f>
         <v/>
       </c>
       <c r="F476">
-        <f>SUM(Master_Input!H476,Master_Input!K476,Master_Input!N476)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I476)+_xlfn.NUMBERVALUE(Master_Input!M476)+_xlfn.NUMBERVALUE(Master_Input!Q476)</f>
         <v>0</v>
       </c>
       <c r="G476" t="str">
@@ -11324,11 +11350,11 @@
         <v/>
       </c>
       <c r="E477" t="str">
-        <f>IF(ISBLANK(Master_Input!P477),"",Master_Input!P477)</f>
+        <f>IF(ISBLANK(Master_Input!T477),"",Master_Input!T477)</f>
         <v/>
       </c>
       <c r="F477">
-        <f>SUM(Master_Input!H477,Master_Input!K477,Master_Input!N477)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I477)+_xlfn.NUMBERVALUE(Master_Input!M477)+_xlfn.NUMBERVALUE(Master_Input!Q477)</f>
         <v>0</v>
       </c>
       <c r="G477" t="str">
@@ -11346,11 +11372,11 @@
         <v/>
       </c>
       <c r="E478" t="str">
-        <f>IF(ISBLANK(Master_Input!P478),"",Master_Input!P478)</f>
+        <f>IF(ISBLANK(Master_Input!T478),"",Master_Input!T478)</f>
         <v/>
       </c>
       <c r="F478">
-        <f>SUM(Master_Input!H478,Master_Input!K478,Master_Input!N478)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I478)+_xlfn.NUMBERVALUE(Master_Input!M478)+_xlfn.NUMBERVALUE(Master_Input!Q478)</f>
         <v>0</v>
       </c>
       <c r="G478" t="str">
@@ -11368,11 +11394,11 @@
         <v/>
       </c>
       <c r="E479" t="str">
-        <f>IF(ISBLANK(Master_Input!P479),"",Master_Input!P479)</f>
+        <f>IF(ISBLANK(Master_Input!T479),"",Master_Input!T479)</f>
         <v/>
       </c>
       <c r="F479">
-        <f>SUM(Master_Input!H479,Master_Input!K479,Master_Input!N479)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I479)+_xlfn.NUMBERVALUE(Master_Input!M479)+_xlfn.NUMBERVALUE(Master_Input!Q479)</f>
         <v>0</v>
       </c>
       <c r="G479" t="str">
@@ -11390,11 +11416,11 @@
         <v/>
       </c>
       <c r="E480" t="str">
-        <f>IF(ISBLANK(Master_Input!P480),"",Master_Input!P480)</f>
+        <f>IF(ISBLANK(Master_Input!T480),"",Master_Input!T480)</f>
         <v/>
       </c>
       <c r="F480">
-        <f>SUM(Master_Input!H480,Master_Input!K480,Master_Input!N480)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I480)+_xlfn.NUMBERVALUE(Master_Input!M480)+_xlfn.NUMBERVALUE(Master_Input!Q480)</f>
         <v>0</v>
       </c>
       <c r="G480" t="str">
@@ -11412,11 +11438,11 @@
         <v/>
       </c>
       <c r="E481" t="str">
-        <f>IF(ISBLANK(Master_Input!P481),"",Master_Input!P481)</f>
+        <f>IF(ISBLANK(Master_Input!T481),"",Master_Input!T481)</f>
         <v/>
       </c>
       <c r="F481">
-        <f>SUM(Master_Input!H481,Master_Input!K481,Master_Input!N481)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I481)+_xlfn.NUMBERVALUE(Master_Input!M481)+_xlfn.NUMBERVALUE(Master_Input!Q481)</f>
         <v>0</v>
       </c>
       <c r="G481" t="str">
@@ -11434,11 +11460,11 @@
         <v/>
       </c>
       <c r="E482" t="str">
-        <f>IF(ISBLANK(Master_Input!P482),"",Master_Input!P482)</f>
+        <f>IF(ISBLANK(Master_Input!T482),"",Master_Input!T482)</f>
         <v/>
       </c>
       <c r="F482">
-        <f>SUM(Master_Input!H482,Master_Input!K482,Master_Input!N482)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I482)+_xlfn.NUMBERVALUE(Master_Input!M482)+_xlfn.NUMBERVALUE(Master_Input!Q482)</f>
         <v>0</v>
       </c>
       <c r="G482" t="str">
@@ -11456,11 +11482,11 @@
         <v/>
       </c>
       <c r="E483" t="str">
-        <f>IF(ISBLANK(Master_Input!P483),"",Master_Input!P483)</f>
+        <f>IF(ISBLANK(Master_Input!T483),"",Master_Input!T483)</f>
         <v/>
       </c>
       <c r="F483">
-        <f>SUM(Master_Input!H483,Master_Input!K483,Master_Input!N483)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I483)+_xlfn.NUMBERVALUE(Master_Input!M483)+_xlfn.NUMBERVALUE(Master_Input!Q483)</f>
         <v>0</v>
       </c>
       <c r="G483" t="str">
@@ -11478,11 +11504,11 @@
         <v/>
       </c>
       <c r="E484" t="str">
-        <f>IF(ISBLANK(Master_Input!P484),"",Master_Input!P484)</f>
+        <f>IF(ISBLANK(Master_Input!T484),"",Master_Input!T484)</f>
         <v/>
       </c>
       <c r="F484">
-        <f>SUM(Master_Input!H484,Master_Input!K484,Master_Input!N484)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I484)+_xlfn.NUMBERVALUE(Master_Input!M484)+_xlfn.NUMBERVALUE(Master_Input!Q484)</f>
         <v>0</v>
       </c>
       <c r="G484" t="str">
@@ -11500,11 +11526,11 @@
         <v/>
       </c>
       <c r="E485" t="str">
-        <f>IF(ISBLANK(Master_Input!P485),"",Master_Input!P485)</f>
+        <f>IF(ISBLANK(Master_Input!T485),"",Master_Input!T485)</f>
         <v/>
       </c>
       <c r="F485">
-        <f>SUM(Master_Input!H485,Master_Input!K485,Master_Input!N485)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I485)+_xlfn.NUMBERVALUE(Master_Input!M485)+_xlfn.NUMBERVALUE(Master_Input!Q485)</f>
         <v>0</v>
       </c>
       <c r="G485" t="str">
@@ -11522,11 +11548,11 @@
         <v/>
       </c>
       <c r="E486" t="str">
-        <f>IF(ISBLANK(Master_Input!P486),"",Master_Input!P486)</f>
+        <f>IF(ISBLANK(Master_Input!T486),"",Master_Input!T486)</f>
         <v/>
       </c>
       <c r="F486">
-        <f>SUM(Master_Input!H486,Master_Input!K486,Master_Input!N486)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I486)+_xlfn.NUMBERVALUE(Master_Input!M486)+_xlfn.NUMBERVALUE(Master_Input!Q486)</f>
         <v>0</v>
       </c>
       <c r="G486" t="str">
@@ -11544,11 +11570,11 @@
         <v/>
       </c>
       <c r="E487" t="str">
-        <f>IF(ISBLANK(Master_Input!P487),"",Master_Input!P487)</f>
+        <f>IF(ISBLANK(Master_Input!T487),"",Master_Input!T487)</f>
         <v/>
       </c>
       <c r="F487">
-        <f>SUM(Master_Input!H487,Master_Input!K487,Master_Input!N487)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I487)+_xlfn.NUMBERVALUE(Master_Input!M487)+_xlfn.NUMBERVALUE(Master_Input!Q487)</f>
         <v>0</v>
       </c>
       <c r="G487" t="str">
@@ -11566,11 +11592,11 @@
         <v/>
       </c>
       <c r="E488" t="str">
-        <f>IF(ISBLANK(Master_Input!P488),"",Master_Input!P488)</f>
+        <f>IF(ISBLANK(Master_Input!T488),"",Master_Input!T488)</f>
         <v/>
       </c>
       <c r="F488">
-        <f>SUM(Master_Input!H488,Master_Input!K488,Master_Input!N488)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I488)+_xlfn.NUMBERVALUE(Master_Input!M488)+_xlfn.NUMBERVALUE(Master_Input!Q488)</f>
         <v>0</v>
       </c>
       <c r="G488" t="str">
@@ -11588,11 +11614,11 @@
         <v/>
       </c>
       <c r="E489" t="str">
-        <f>IF(ISBLANK(Master_Input!P489),"",Master_Input!P489)</f>
+        <f>IF(ISBLANK(Master_Input!T489),"",Master_Input!T489)</f>
         <v/>
       </c>
       <c r="F489">
-        <f>SUM(Master_Input!H489,Master_Input!K489,Master_Input!N489)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I489)+_xlfn.NUMBERVALUE(Master_Input!M489)+_xlfn.NUMBERVALUE(Master_Input!Q489)</f>
         <v>0</v>
       </c>
       <c r="G489" t="str">
@@ -11610,11 +11636,11 @@
         <v/>
       </c>
       <c r="E490" t="str">
-        <f>IF(ISBLANK(Master_Input!P490),"",Master_Input!P490)</f>
+        <f>IF(ISBLANK(Master_Input!T490),"",Master_Input!T490)</f>
         <v/>
       </c>
       <c r="F490">
-        <f>SUM(Master_Input!H490,Master_Input!K490,Master_Input!N490)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I490)+_xlfn.NUMBERVALUE(Master_Input!M490)+_xlfn.NUMBERVALUE(Master_Input!Q490)</f>
         <v>0</v>
       </c>
       <c r="G490" t="str">
@@ -11632,11 +11658,11 @@
         <v/>
       </c>
       <c r="E491" t="str">
-        <f>IF(ISBLANK(Master_Input!P491),"",Master_Input!P491)</f>
+        <f>IF(ISBLANK(Master_Input!T491),"",Master_Input!T491)</f>
         <v/>
       </c>
       <c r="F491">
-        <f>SUM(Master_Input!H491,Master_Input!K491,Master_Input!N491)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I491)+_xlfn.NUMBERVALUE(Master_Input!M491)+_xlfn.NUMBERVALUE(Master_Input!Q491)</f>
         <v>0</v>
       </c>
       <c r="G491" t="str">
@@ -11654,11 +11680,11 @@
         <v/>
       </c>
       <c r="E492" t="str">
-        <f>IF(ISBLANK(Master_Input!P492),"",Master_Input!P492)</f>
+        <f>IF(ISBLANK(Master_Input!T492),"",Master_Input!T492)</f>
         <v/>
       </c>
       <c r="F492">
-        <f>SUM(Master_Input!H492,Master_Input!K492,Master_Input!N492)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I492)+_xlfn.NUMBERVALUE(Master_Input!M492)+_xlfn.NUMBERVALUE(Master_Input!Q492)</f>
         <v>0</v>
       </c>
       <c r="G492" t="str">
@@ -11676,11 +11702,11 @@
         <v/>
       </c>
       <c r="E493" t="str">
-        <f>IF(ISBLANK(Master_Input!P493),"",Master_Input!P493)</f>
+        <f>IF(ISBLANK(Master_Input!T493),"",Master_Input!T493)</f>
         <v/>
       </c>
       <c r="F493">
-        <f>SUM(Master_Input!H493,Master_Input!K493,Master_Input!N493)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I493)+_xlfn.NUMBERVALUE(Master_Input!M493)+_xlfn.NUMBERVALUE(Master_Input!Q493)</f>
         <v>0</v>
       </c>
       <c r="G493" t="str">
@@ -11698,11 +11724,11 @@
         <v/>
       </c>
       <c r="E494" t="str">
-        <f>IF(ISBLANK(Master_Input!P494),"",Master_Input!P494)</f>
+        <f>IF(ISBLANK(Master_Input!T494),"",Master_Input!T494)</f>
         <v/>
       </c>
       <c r="F494">
-        <f>SUM(Master_Input!H494,Master_Input!K494,Master_Input!N494)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I494)+_xlfn.NUMBERVALUE(Master_Input!M494)+_xlfn.NUMBERVALUE(Master_Input!Q494)</f>
         <v>0</v>
       </c>
       <c r="G494" t="str">
@@ -11720,11 +11746,11 @@
         <v/>
       </c>
       <c r="E495" t="str">
-        <f>IF(ISBLANK(Master_Input!P495),"",Master_Input!P495)</f>
+        <f>IF(ISBLANK(Master_Input!T495),"",Master_Input!T495)</f>
         <v/>
       </c>
       <c r="F495">
-        <f>SUM(Master_Input!H495,Master_Input!K495,Master_Input!N495)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I495)+_xlfn.NUMBERVALUE(Master_Input!M495)+_xlfn.NUMBERVALUE(Master_Input!Q495)</f>
         <v>0</v>
       </c>
       <c r="G495" t="str">
@@ -11742,11 +11768,11 @@
         <v/>
       </c>
       <c r="E496" t="str">
-        <f>IF(ISBLANK(Master_Input!P496),"",Master_Input!P496)</f>
+        <f>IF(ISBLANK(Master_Input!T496),"",Master_Input!T496)</f>
         <v/>
       </c>
       <c r="F496">
-        <f>SUM(Master_Input!H496,Master_Input!K496,Master_Input!N496)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I496)+_xlfn.NUMBERVALUE(Master_Input!M496)+_xlfn.NUMBERVALUE(Master_Input!Q496)</f>
         <v>0</v>
       </c>
       <c r="G496" t="str">
@@ -11764,11 +11790,11 @@
         <v/>
       </c>
       <c r="E497" t="str">
-        <f>IF(ISBLANK(Master_Input!P497),"",Master_Input!P497)</f>
+        <f>IF(ISBLANK(Master_Input!T497),"",Master_Input!T497)</f>
         <v/>
       </c>
       <c r="F497">
-        <f>SUM(Master_Input!H497,Master_Input!K497,Master_Input!N497)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I497)+_xlfn.NUMBERVALUE(Master_Input!M497)+_xlfn.NUMBERVALUE(Master_Input!Q497)</f>
         <v>0</v>
       </c>
       <c r="G497" t="str">
@@ -11786,11 +11812,11 @@
         <v/>
       </c>
       <c r="E498" t="str">
-        <f>IF(ISBLANK(Master_Input!P498),"",Master_Input!P498)</f>
+        <f>IF(ISBLANK(Master_Input!T498),"",Master_Input!T498)</f>
         <v/>
       </c>
       <c r="F498">
-        <f>SUM(Master_Input!H498,Master_Input!K498,Master_Input!N498)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I498)+_xlfn.NUMBERVALUE(Master_Input!M498)+_xlfn.NUMBERVALUE(Master_Input!Q498)</f>
         <v>0</v>
       </c>
       <c r="G498" t="str">
@@ -11808,11 +11834,11 @@
         <v/>
       </c>
       <c r="E499" t="str">
-        <f>IF(ISBLANK(Master_Input!P499),"",Master_Input!P499)</f>
+        <f>IF(ISBLANK(Master_Input!T499),"",Master_Input!T499)</f>
         <v/>
       </c>
       <c r="F499">
-        <f>SUM(Master_Input!H499,Master_Input!K499,Master_Input!N499)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I499)+_xlfn.NUMBERVALUE(Master_Input!M499)+_xlfn.NUMBERVALUE(Master_Input!Q499)</f>
         <v>0</v>
       </c>
       <c r="G499" t="str">
@@ -11830,11 +11856,11 @@
         <v/>
       </c>
       <c r="E500" t="str">
-        <f>IF(ISBLANK(Master_Input!P500),"",Master_Input!P500)</f>
+        <f>IF(ISBLANK(Master_Input!T500),"",Master_Input!T500)</f>
         <v/>
       </c>
       <c r="F500">
-        <f>SUM(Master_Input!H500,Master_Input!K500,Master_Input!N500)</f>
+        <f>_xlfn.NUMBERVALUE(Master_Input!I500)+_xlfn.NUMBERVALUE(Master_Input!M500)+_xlfn.NUMBERVALUE(Master_Input!Q500)</f>
         <v>0</v>
       </c>
       <c r="G500" t="str">
@@ -11852,42 +11878,43 @@
         <v/>
       </c>
       <c r="E501" t="str">
-        <f>IF(ISBLANK(Master_Input!P501),"",Master_Input!P501)</f>
+        <f>IF(ISBLANK(Master_Input!T501),"",Master_Input!T501)</f>
         <v/>
       </c>
       <c r="F501">
-        <f>SUM(Master_Input!H501,Master_Input!K501,Master_Input!N501)</f>
-        <v>0</v>
-      </c>
-      <c r="G501" t="str">
-        <f>Master_Input!D501&amp;" "&amp;Master_Input!E501</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="502" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="12" t="s">
+        <f>_xlfn.NUMBERVALUE(Master_Input!I501)+_xlfn.NUMBERVALUE(Master_Input!M501)+_xlfn.NUMBERVALUE(Master_Input!Q501)</f>
+        <v>0</v>
+      </c>
+      <c r="G501" s="13"/>
+    </row>
+    <row r="502" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A502" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B502" s="12" t="s">
+      <c r="B502" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C502" s="12" t="s">
+      <c r="C502" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D502" s="12" t="s">
+      <c r="D502" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E502" s="12" t="s">
+      <c r="E502" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F502" s="12" t="s">
+      <c r="F502" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G502" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:G502" xr:uid="{CFB5D88F-F905-4804-A404-AAAC166FF9CB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -11904,129 +11931,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AB17C8-10BF-48FE-891C-A1FD5827AD70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="str">
+    <row r="1" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="str">
         <f>IF(ISBLANK('Time Slots'!B4),"",'Time Slots'!B4)</f>
         <v>10:00am</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="11">
         <f>IF(B3 = "","",SUMIF(Scheduling!A:A,'Schedule Report'!B3,Scheduling!F:F))</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="10" t="str">
         <f>IF(ISBLANK('Time Slots'!B5),"",'Time Slots'!B5)</f>
         <v>12:30pm</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <f>IF(B4 = "","",SUMIF(Scheduling!A:A,'Schedule Report'!B4,Scheduling!F:F))</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="10" t="str">
         <f>IF(ISBLANK('Time Slots'!B6),"",'Time Slots'!B6)</f>
         <v>2:00pm</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <f>IF(B5 = "","",SUMIF(Scheduling!A:A,'Schedule Report'!B5,Scheduling!F:F))</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="str">
+      <c r="B6" s="10" t="str">
         <f>IF(ISBLANK('Time Slots'!B7),"",'Time Slots'!B7)</f>
         <v/>
       </c>
-      <c r="C6" s="9" t="str">
+      <c r="C6" s="11" t="str">
         <f>IF(B6 = "","",SUMIF(Scheduling!A:A,'Schedule Report'!B6,Scheduling!F:F))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="str">
+      <c r="B7" s="10" t="str">
         <f>IF(ISBLANK('Time Slots'!B8),"",'Time Slots'!B8)</f>
         <v/>
       </c>
-      <c r="C7" s="9" t="str">
+      <c r="C7" s="11" t="str">
         <f>IF(B7 = "","",SUMIF(Scheduling!A:A,'Schedule Report'!B7,Scheduling!F:F))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="10" t="str">
         <f>IF(ISBLANK('Time Slots'!B9),"",'Time Slots'!B9)</f>
         <v/>
       </c>
-      <c r="C8" s="9" t="str">
+      <c r="C8" s="11" t="str">
         <f>IF(B8 = "","",SUMIF(Scheduling!A:A,'Schedule Report'!B8,Scheduling!F:F))</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="10" t="str">
         <f>IF(ISBLANK('Time Slots'!B10),"",'Time Slots'!B10)</f>
         <v/>
       </c>
-      <c r="C9" s="9" t="str">
+      <c r="C9" s="11" t="str">
         <f>IF(B9 = "","",SUMIF(Scheduling!A:A,'Schedule Report'!B9,Scheduling!F:F))</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="10" t="str">
         <f>IF(ISBLANK('Time Slots'!B11),"",'Time Slots'!B11)</f>
         <v/>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="11" t="str">
         <f>IF(B10 = "","",SUMIF(Scheduling!A:A,'Schedule Report'!B10,Scheduling!F:F))</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="10" t="str">
         <f>IF(ISBLANK('Time Slots'!B12),"",'Time Slots'!B12)</f>
         <v/>
       </c>
-      <c r="C11" s="9" t="str">
+      <c r="C11" s="11" t="str">
         <f>IF(B11 = "","",SUMIF(Scheduling!A:A,'Schedule Report'!B11,Scheduling!F:F))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="str">
+    <row r="12" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="str">
         <f>IF(ISBLANK('Time Slots'!B13),"",'Time Slots'!B13)</f>
         <v/>
       </c>
-      <c r="C12" s="11" t="str">
+      <c r="C12" s="7" t="str">
         <f>IF(B12 = "","",SUMIF(Scheduling!A:A,'Schedule Report'!B12,Scheduling!F:F))</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>